--- a/Base_Data/02S403.xlsx
+++ b/Base_Data/02S403.xlsx
@@ -5,17 +5,18 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\liuyong\Desktop\PipeDiaMeterSQLite\Database\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\whuli\Desktop\Criterion-Database\Base_Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CDCFBFA7-CF88-4B2B-9142-C6048EE239AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F53E0282-2C6D-4C78-938F-5FFC31843EA5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="1500" windowWidth="24960" windowHeight="11295" activeTab="2" xr2:uid="{CE243F28-D019-486D-BDD3-986A12970610}"/>
+    <workbookView xWindow="5268" yWindow="36" windowWidth="17304" windowHeight="8892" activeTab="3" xr2:uid="{CE243F28-D019-486D-BDD3-986A12970610}"/>
   </bookViews>
   <sheets>
     <sheet name="弯头" sheetId="1" r:id="rId1"/>
     <sheet name="90°渐缩异径弯头" sheetId="2" r:id="rId2"/>
     <sheet name="三通、四通" sheetId="3" r:id="rId3"/>
+    <sheet name="异径管" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -35,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1175" uniqueCount="161">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1625" uniqueCount="174">
   <si>
     <t>DN</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -663,6 +664,55 @@
   </si>
   <si>
     <t>三通409.5/四通432.9</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>异径管</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>.100.</t>
+  </si>
+  <si>
+    <t>02S403,页52,54</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>02S403,页52-53</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>9|</t>
+  </si>
+  <si>
+    <t>29.2.</t>
+  </si>
+  <si>
+    <t>02S403,页55~56</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>02S403,页55,57</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>偏心异径管</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>02S403,页58~60</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>02S403,页61~63</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>02S403,页64~66</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>02S403,页67~69</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -670,7 +720,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -740,13 +790,68 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -763,7 +868,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -789,6 +894,54 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1112,17 +1265,17 @@
       <selection pane="bottomLeft" sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.375" style="1" customWidth="1"/>
-    <col min="2" max="3" width="6.75" style="1" customWidth="1"/>
-    <col min="4" max="5" width="7.375" style="1" customWidth="1"/>
-    <col min="6" max="7" width="5.375" style="1" customWidth="1"/>
-    <col min="8" max="8" width="7.375" style="1" customWidth="1"/>
-    <col min="9" max="9" width="13.625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="17.33203125" style="1" customWidth="1"/>
+    <col min="2" max="3" width="6.77734375" style="1" customWidth="1"/>
+    <col min="4" max="5" width="7.33203125" style="1" customWidth="1"/>
+    <col min="6" max="7" width="5.33203125" style="1" customWidth="1"/>
+    <col min="8" max="8" width="7.33203125" style="1" customWidth="1"/>
+    <col min="9" max="9" width="13.6640625" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -1151,7 +1304,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>5</v>
       </c>
@@ -1180,7 +1333,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>5</v>
       </c>
@@ -1209,7 +1362,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>5</v>
       </c>
@@ -1238,7 +1391,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>5</v>
       </c>
@@ -1267,7 +1420,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>5</v>
       </c>
@@ -1296,7 +1449,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>5</v>
       </c>
@@ -1325,7 +1478,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>5</v>
       </c>
@@ -1354,7 +1507,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>5</v>
       </c>
@@ -1383,7 +1536,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>5</v>
       </c>
@@ -1412,7 +1565,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>5</v>
       </c>
@@ -1441,7 +1594,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>5</v>
       </c>
@@ -1470,7 +1623,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>5</v>
       </c>
@@ -1499,7 +1652,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>5</v>
       </c>
@@ -1528,7 +1681,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>5</v>
       </c>
@@ -1557,7 +1710,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>5</v>
       </c>
@@ -1586,7 +1739,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>5</v>
       </c>
@@ -1615,7 +1768,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>5</v>
       </c>
@@ -1644,7 +1797,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>5</v>
       </c>
@@ -1673,7 +1826,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>5</v>
       </c>
@@ -1702,7 +1855,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>5</v>
       </c>
@@ -1731,7 +1884,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>5</v>
       </c>
@@ -1760,7 +1913,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>5</v>
       </c>
@@ -1789,7 +1942,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>6</v>
       </c>
@@ -1818,7 +1971,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>6</v>
       </c>
@@ -1847,7 +2000,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>6</v>
       </c>
@@ -1876,7 +2029,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
         <v>6</v>
       </c>
@@ -1905,7 +2058,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
         <v>6</v>
       </c>
@@ -1934,7 +2087,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
         <v>6</v>
       </c>
@@ -1963,7 +2116,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
         <v>6</v>
       </c>
@@ -1992,7 +2145,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
         <v>6</v>
       </c>
@@ -2021,7 +2174,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
         <v>6</v>
       </c>
@@ -2050,7 +2203,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
         <v>6</v>
       </c>
@@ -2079,7 +2232,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
         <v>6</v>
       </c>
@@ -2108,7 +2261,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
         <v>6</v>
       </c>
@@ -2137,7 +2290,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
         <v>6</v>
       </c>
@@ -2166,7 +2319,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
         <v>6</v>
       </c>
@@ -2195,7 +2348,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
         <v>6</v>
       </c>
@@ -2224,7 +2377,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
         <v>6</v>
       </c>
@@ -2253,7 +2406,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
         <v>6</v>
       </c>
@@ -2282,7 +2435,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
         <v>6</v>
       </c>
@@ -2311,7 +2464,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
         <v>6</v>
       </c>
@@ -2340,7 +2493,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
         <v>6</v>
       </c>
@@ -2369,7 +2522,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
         <v>6</v>
       </c>
@@ -2398,7 +2551,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
         <v>6</v>
       </c>
@@ -2427,7 +2580,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
         <v>7</v>
       </c>
@@ -2456,7 +2609,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
         <v>7</v>
       </c>
@@ -2485,7 +2638,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
         <v>7</v>
       </c>
@@ -2514,7 +2667,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
         <v>7</v>
       </c>
@@ -2543,7 +2696,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
         <v>7</v>
       </c>
@@ -2572,7 +2725,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
         <v>7</v>
       </c>
@@ -2601,7 +2754,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
         <v>7</v>
       </c>
@@ -2630,7 +2783,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
         <v>7</v>
       </c>
@@ -2659,7 +2812,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
         <v>7</v>
       </c>
@@ -2688,7 +2841,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
         <v>7</v>
       </c>
@@ -2717,7 +2870,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A56" s="1" t="s">
         <v>7</v>
       </c>
@@ -2746,7 +2899,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A57" s="1" t="s">
         <v>7</v>
       </c>
@@ -2775,7 +2928,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A58" s="1" t="s">
         <v>7</v>
       </c>
@@ -2804,7 +2957,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A59" s="1" t="s">
         <v>7</v>
       </c>
@@ -2833,7 +2986,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A60" s="1" t="s">
         <v>7</v>
       </c>
@@ -2862,7 +3015,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A61" s="1" t="s">
         <v>7</v>
       </c>
@@ -2891,7 +3044,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A62" s="1" t="s">
         <v>7</v>
       </c>
@@ -2920,7 +3073,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A63" s="1" t="s">
         <v>7</v>
       </c>
@@ -2949,7 +3102,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A64" s="1" t="s">
         <v>7</v>
       </c>
@@ -2978,7 +3131,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A65" s="1" t="s">
         <v>7</v>
       </c>
@@ -3007,7 +3160,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="66" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A66" s="1" t="s">
         <v>7</v>
       </c>
@@ -3036,7 +3189,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="67" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A67" s="1" t="s">
         <v>7</v>
       </c>
@@ -3065,7 +3218,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="68" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A68" s="1" t="s">
         <v>8</v>
       </c>
@@ -3094,7 +3247,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="69" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A69" s="1" t="s">
         <v>8</v>
       </c>
@@ -3123,7 +3276,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="70" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A70" s="1" t="s">
         <v>8</v>
       </c>
@@ -3152,7 +3305,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="71" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A71" s="1" t="s">
         <v>8</v>
       </c>
@@ -3181,7 +3334,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="72" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A72" s="1" t="s">
         <v>8</v>
       </c>
@@ -3210,7 +3363,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="73" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A73" s="1" t="s">
         <v>8</v>
       </c>
@@ -3239,7 +3392,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="74" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A74" s="1" t="s">
         <v>8</v>
       </c>
@@ -3268,7 +3421,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="75" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A75" s="1" t="s">
         <v>8</v>
       </c>
@@ -3297,7 +3450,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="76" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A76" s="1" t="s">
         <v>8</v>
       </c>
@@ -3326,7 +3479,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="77" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A77" s="1" t="s">
         <v>8</v>
       </c>
@@ -3355,7 +3508,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="78" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A78" s="1" t="s">
         <v>8</v>
       </c>
@@ -3384,7 +3537,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="79" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A79" s="1" t="s">
         <v>8</v>
       </c>
@@ -3413,7 +3566,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="80" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A80" s="1" t="s">
         <v>8</v>
       </c>
@@ -3442,7 +3595,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="81" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A81" s="1" t="s">
         <v>8</v>
       </c>
@@ -3471,7 +3624,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="82" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A82" s="1" t="s">
         <v>8</v>
       </c>
@@ -3500,7 +3653,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="83" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A83" s="1" t="s">
         <v>8</v>
       </c>
@@ -3529,7 +3682,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="84" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A84" s="1" t="s">
         <v>8</v>
       </c>
@@ -3558,7 +3711,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="85" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A85" s="1" t="s">
         <v>8</v>
       </c>
@@ -3587,7 +3740,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="86" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A86" s="1" t="s">
         <v>8</v>
       </c>
@@ -3616,7 +3769,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="87" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A87" s="1" t="s">
         <v>8</v>
       </c>
@@ -3645,7 +3798,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="88" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A88" s="1" t="s">
         <v>8</v>
       </c>
@@ -3674,7 +3827,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="89" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A89" s="1" t="s">
         <v>8</v>
       </c>
@@ -3703,7 +3856,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="90" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A90" s="1" t="s">
         <v>9</v>
       </c>
@@ -3732,7 +3885,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="91" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A91" s="1" t="s">
         <v>9</v>
       </c>
@@ -3761,7 +3914,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="92" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A92" s="1" t="s">
         <v>9</v>
       </c>
@@ -3790,7 +3943,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="93" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A93" s="1" t="s">
         <v>9</v>
       </c>
@@ -3819,7 +3972,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="94" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A94" s="1" t="s">
         <v>9</v>
       </c>
@@ -3848,7 +4001,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="95" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A95" s="1" t="s">
         <v>9</v>
       </c>
@@ -3877,7 +4030,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="96" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A96" s="1" t="s">
         <v>9</v>
       </c>
@@ -3906,7 +4059,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="97" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A97" s="1" t="s">
         <v>9</v>
       </c>
@@ -3935,7 +4088,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="98" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A98" s="1" t="s">
         <v>9</v>
       </c>
@@ -3964,7 +4117,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="99" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A99" s="1" t="s">
         <v>9</v>
       </c>
@@ -3993,7 +4146,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="100" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A100" s="1" t="s">
         <v>9</v>
       </c>
@@ -4022,7 +4175,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="101" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A101" s="1" t="s">
         <v>9</v>
       </c>
@@ -4051,7 +4204,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="102" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A102" s="1" t="s">
         <v>9</v>
       </c>
@@ -4080,7 +4233,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="103" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A103" s="1" t="s">
         <v>9</v>
       </c>
@@ -4109,7 +4262,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="104" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A104" s="1" t="s">
         <v>9</v>
       </c>
@@ -4138,7 +4291,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="105" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A105" s="1" t="s">
         <v>9</v>
       </c>
@@ -4167,7 +4320,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="106" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A106" s="1" t="s">
         <v>9</v>
       </c>
@@ -4196,7 +4349,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="107" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A107" s="1" t="s">
         <v>9</v>
       </c>
@@ -4225,7 +4378,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="108" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A108" s="1" t="s">
         <v>9</v>
       </c>
@@ -4254,7 +4407,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="109" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A109" s="1" t="s">
         <v>9</v>
       </c>
@@ -4283,7 +4436,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="110" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A110" s="1" t="s">
         <v>9</v>
       </c>
@@ -4312,7 +4465,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="111" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A111" s="1" t="s">
         <v>9</v>
       </c>
@@ -4357,14 +4510,14 @@
       <selection pane="bottomLeft" activeCell="I82" sqref="I82"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.375" style="1" customWidth="1"/>
+    <col min="1" max="1" width="15.33203125" style="1" customWidth="1"/>
     <col min="2" max="8" width="9" style="1"/>
-    <col min="9" max="9" width="17.75" style="1" customWidth="1"/>
+    <col min="9" max="9" width="17.77734375" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -4393,7 +4546,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>26</v>
       </c>
@@ -4422,7 +4575,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>26</v>
       </c>
@@ -4451,7 +4604,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>26</v>
       </c>
@@ -4480,7 +4633,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>26</v>
       </c>
@@ -4509,7 +4662,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>26</v>
       </c>
@@ -4538,7 +4691,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>26</v>
       </c>
@@ -4567,7 +4720,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>26</v>
       </c>
@@ -4596,7 +4749,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>26</v>
       </c>
@@ -4625,7 +4778,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>26</v>
       </c>
@@ -4654,7 +4807,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>26</v>
       </c>
@@ -4683,7 +4836,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>26</v>
       </c>
@@ -4712,7 +4865,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>26</v>
       </c>
@@ -4741,7 +4894,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>26</v>
       </c>
@@ -4770,7 +4923,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>26</v>
       </c>
@@ -4799,7 +4952,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>26</v>
       </c>
@@ -4828,7 +4981,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>26</v>
       </c>
@@ -4857,7 +5010,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>26</v>
       </c>
@@ -4886,7 +5039,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>26</v>
       </c>
@@ -4915,7 +5068,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>26</v>
       </c>
@@ -4944,7 +5097,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>26</v>
       </c>
@@ -4973,7 +5126,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>26</v>
       </c>
@@ -5002,7 +5155,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>26</v>
       </c>
@@ -5031,7 +5184,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>26</v>
       </c>
@@ -5060,7 +5213,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>26</v>
       </c>
@@ -5089,7 +5242,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>26</v>
       </c>
@@ -5118,7 +5271,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
         <v>26</v>
       </c>
@@ -5147,7 +5300,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
         <v>26</v>
       </c>
@@ -5176,7 +5329,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
         <v>26</v>
       </c>
@@ -5205,7 +5358,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
         <v>26</v>
       </c>
@@ -5234,7 +5387,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
         <v>26</v>
       </c>
@@ -5263,7 +5416,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
         <v>26</v>
       </c>
@@ -5292,7 +5445,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
         <v>26</v>
       </c>
@@ -5321,7 +5474,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
         <v>26</v>
       </c>
@@ -5350,7 +5503,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
         <v>26</v>
       </c>
@@ -5379,7 +5532,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
         <v>26</v>
       </c>
@@ -5408,7 +5561,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
         <v>26</v>
       </c>
@@ -5437,7 +5590,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
         <v>26</v>
       </c>
@@ -5466,7 +5619,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
         <v>26</v>
       </c>
@@ -5495,7 +5648,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
         <v>26</v>
       </c>
@@ -5524,7 +5677,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
         <v>26</v>
       </c>
@@ -5553,7 +5706,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
         <v>26</v>
       </c>
@@ -5582,7 +5735,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
         <v>26</v>
       </c>
@@ -5611,7 +5764,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
         <v>26</v>
       </c>
@@ -5640,7 +5793,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
         <v>26</v>
       </c>
@@ -5669,7 +5822,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
         <v>26</v>
       </c>
@@ -5698,7 +5851,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
         <v>26</v>
       </c>
@@ -5727,7 +5880,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
         <v>26</v>
       </c>
@@ -5756,7 +5909,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
         <v>26</v>
       </c>
@@ -5785,7 +5938,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
         <v>26</v>
       </c>
@@ -5814,7 +5967,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
         <v>26</v>
       </c>
@@ -5843,7 +5996,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
         <v>26</v>
       </c>
@@ -5872,7 +6025,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
         <v>26</v>
       </c>
@@ -5901,7 +6054,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
         <v>26</v>
       </c>
@@ -5930,7 +6083,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
         <v>26</v>
       </c>
@@ -5959,7 +6112,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A56" s="1" t="s">
         <v>26</v>
       </c>
@@ -5988,7 +6141,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A57" s="1" t="s">
         <v>26</v>
       </c>
@@ -6017,7 +6170,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A58" s="1" t="s">
         <v>26</v>
       </c>
@@ -6046,7 +6199,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A59" s="1" t="s">
         <v>26</v>
       </c>
@@ -6075,7 +6228,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A60" s="1" t="s">
         <v>26</v>
       </c>
@@ -6104,7 +6257,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A61" s="1" t="s">
         <v>26</v>
       </c>
@@ -6133,7 +6286,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A62" s="1" t="s">
         <v>26</v>
       </c>
@@ -6162,7 +6315,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A63" s="1" t="s">
         <v>26</v>
       </c>
@@ -6191,7 +6344,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A64" s="1" t="s">
         <v>26</v>
       </c>
@@ -6220,7 +6373,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A65" s="1" t="s">
         <v>26</v>
       </c>
@@ -6249,7 +6402,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="66" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A66" s="1" t="s">
         <v>26</v>
       </c>
@@ -6278,7 +6431,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="67" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A67" s="1" t="s">
         <v>26</v>
       </c>
@@ -6307,7 +6460,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="68" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A68" s="1" t="s">
         <v>26</v>
       </c>
@@ -6336,7 +6489,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="69" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A69" s="1" t="s">
         <v>26</v>
       </c>
@@ -6365,7 +6518,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="70" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A70" s="1" t="s">
         <v>26</v>
       </c>
@@ -6394,7 +6547,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="71" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A71" s="1" t="s">
         <v>26</v>
       </c>
@@ -6423,7 +6576,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="72" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A72" s="1" t="s">
         <v>26</v>
       </c>
@@ -6452,7 +6605,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="73" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A73" s="1" t="s">
         <v>26</v>
       </c>
@@ -6481,7 +6634,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="74" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A74" s="1" t="s">
         <v>26</v>
       </c>
@@ -6521,20 +6674,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1E37DB95-234F-472A-A215-E44A0F303CB2}">
   <dimension ref="A1:I116"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A90" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H116" sqref="H116"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A110" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I116" sqref="I116"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="20" style="1" customWidth="1"/>
     <col min="2" max="7" width="9" style="1"/>
-    <col min="8" max="8" width="21.625" style="1" customWidth="1"/>
-    <col min="9" max="9" width="18.75" style="1" customWidth="1"/>
+    <col min="8" max="8" width="21.6640625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="18.77734375" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -6563,7 +6716,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>38</v>
       </c>
@@ -6592,7 +6745,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>38</v>
       </c>
@@ -6621,7 +6774,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>38</v>
       </c>
@@ -6650,7 +6803,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>38</v>
       </c>
@@ -6679,7 +6832,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>38</v>
       </c>
@@ -6708,7 +6861,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>38</v>
       </c>
@@ -6737,7 +6890,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>38</v>
       </c>
@@ -6766,7 +6919,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>38</v>
       </c>
@@ -6795,7 +6948,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>38</v>
       </c>
@@ -6824,7 +6977,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>38</v>
       </c>
@@ -6853,7 +7006,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>38</v>
       </c>
@@ -6882,7 +7035,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>38</v>
       </c>
@@ -6911,7 +7064,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>38</v>
       </c>
@@ -6940,7 +7093,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
         <v>38</v>
       </c>
@@ -6969,7 +7122,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
         <v>38</v>
       </c>
@@ -6998,7 +7151,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
         <v>38</v>
       </c>
@@ -7027,7 +7180,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
         <v>38</v>
       </c>
@@ -7056,7 +7209,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
         <v>38</v>
       </c>
@@ -7085,7 +7238,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
         <v>38</v>
       </c>
@@ -7114,7 +7267,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
         <v>38</v>
       </c>
@@ -7143,7 +7296,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
         <v>38</v>
       </c>
@@ -7172,7 +7325,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
         <v>38</v>
       </c>
@@ -7201,7 +7354,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
         <v>38</v>
       </c>
@@ -7230,7 +7383,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
         <v>38</v>
       </c>
@@ -7259,7 +7412,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26" s="3" t="s">
         <v>38</v>
       </c>
@@ -7288,7 +7441,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27" s="3" t="s">
         <v>38</v>
       </c>
@@ -7317,7 +7470,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28" s="3" t="s">
         <v>38</v>
       </c>
@@ -7346,7 +7499,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29" s="3" t="s">
         <v>38</v>
       </c>
@@ -7375,7 +7528,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30" s="3" t="s">
         <v>38</v>
       </c>
@@ -7404,7 +7557,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A31" s="3" t="s">
         <v>38</v>
       </c>
@@ -7433,7 +7586,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A32" s="3" t="s">
         <v>38</v>
       </c>
@@ -7462,7 +7615,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A33" s="3" t="s">
         <v>38</v>
       </c>
@@ -7491,7 +7644,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A34" s="3" t="s">
         <v>38</v>
       </c>
@@ -7520,7 +7673,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A35" s="3" t="s">
         <v>38</v>
       </c>
@@ -7549,7 +7702,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A36" s="3" t="s">
         <v>38</v>
       </c>
@@ -7578,7 +7731,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A37" s="4" t="s">
         <v>38</v>
       </c>
@@ -7607,7 +7760,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A38" s="4" t="s">
         <v>38</v>
       </c>
@@ -7636,7 +7789,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A39" s="4" t="s">
         <v>38</v>
       </c>
@@ -7665,7 +7818,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A40" s="4" t="s">
         <v>38</v>
       </c>
@@ -7694,7 +7847,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A41" s="4" t="s">
         <v>38</v>
       </c>
@@ -7723,7 +7876,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A42" s="4" t="s">
         <v>38</v>
       </c>
@@ -7752,7 +7905,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A43" s="4" t="s">
         <v>38</v>
       </c>
@@ -7781,7 +7934,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A44" s="4" t="s">
         <v>38</v>
       </c>
@@ -7810,7 +7963,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A45" s="4" t="s">
         <v>38</v>
       </c>
@@ -7839,7 +7992,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A46" s="4" t="s">
         <v>38</v>
       </c>
@@ -7868,7 +8021,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A47" s="4" t="s">
         <v>38</v>
       </c>
@@ -7897,7 +8050,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A48" s="4" t="s">
         <v>38</v>
       </c>
@@ -7926,7 +8079,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A49" s="4" t="s">
         <v>38</v>
       </c>
@@ -7955,7 +8108,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A50" s="4" t="s">
         <v>38</v>
       </c>
@@ -7984,7 +8137,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A51" s="4" t="s">
         <v>38</v>
       </c>
@@ -8013,7 +8166,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A52" s="4" t="s">
         <v>38</v>
       </c>
@@ -8042,7 +8195,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A53" s="4" t="s">
         <v>38</v>
       </c>
@@ -8071,7 +8224,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A54" s="4" t="s">
         <v>38</v>
       </c>
@@ -8100,7 +8253,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A55" s="4" t="s">
         <v>38</v>
       </c>
@@ -8129,7 +8282,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A56" s="4" t="s">
         <v>38</v>
       </c>
@@ -8158,7 +8311,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A57" s="4" t="s">
         <v>38</v>
       </c>
@@ -8187,7 +8340,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A58" s="4" t="s">
         <v>38</v>
       </c>
@@ -8216,7 +8369,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A59" s="4" t="s">
         <v>38</v>
       </c>
@@ -8245,7 +8398,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A60" s="4" t="s">
         <v>38</v>
       </c>
@@ -8274,7 +8427,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A61" s="4" t="s">
         <v>38</v>
       </c>
@@ -8303,7 +8456,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A62" s="4" t="s">
         <v>38</v>
       </c>
@@ -8332,7 +8485,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A63" s="4" t="s">
         <v>38</v>
       </c>
@@ -8361,7 +8514,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A64" s="4" t="s">
         <v>38</v>
       </c>
@@ -8390,7 +8543,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A65" s="4" t="s">
         <v>38</v>
       </c>
@@ -8419,7 +8572,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="66" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A66" s="4" t="s">
         <v>38</v>
       </c>
@@ -8448,7 +8601,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="67" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A67" s="4" t="s">
         <v>38</v>
       </c>
@@ -8477,7 +8630,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="68" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A68" s="4" t="s">
         <v>38</v>
       </c>
@@ -8506,7 +8659,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="69" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A69" s="4" t="s">
         <v>38</v>
       </c>
@@ -8535,7 +8688,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="70" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A70" s="4" t="s">
         <v>38</v>
       </c>
@@ -8564,7 +8717,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="71" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A71" s="4" t="s">
         <v>38</v>
       </c>
@@ -8593,7 +8746,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="72" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A72" s="4" t="s">
         <v>38</v>
       </c>
@@ -8622,7 +8775,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="73" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A73" s="4" t="s">
         <v>38</v>
       </c>
@@ -8651,7 +8804,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="74" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A74" s="4" t="s">
         <v>38</v>
       </c>
@@ -8680,7 +8833,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="75" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A75" s="4" t="s">
         <v>38</v>
       </c>
@@ -8709,7 +8862,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="76" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A76" s="4" t="s">
         <v>38</v>
       </c>
@@ -8738,7 +8891,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="77" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A77" s="4" t="s">
         <v>38</v>
       </c>
@@ -8767,7 +8920,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="78" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A78" s="4" t="s">
         <v>38</v>
       </c>
@@ -8796,7 +8949,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="79" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A79" s="4" t="s">
         <v>38</v>
       </c>
@@ -8825,7 +8978,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="80" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A80" s="4" t="s">
         <v>38</v>
       </c>
@@ -8854,7 +9007,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="81" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A81" s="4" t="s">
         <v>38</v>
       </c>
@@ -8883,7 +9036,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="82" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A82" s="4" t="s">
         <v>38</v>
       </c>
@@ -8912,7 +9065,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="83" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A83" s="4" t="s">
         <v>38</v>
       </c>
@@ -8941,7 +9094,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="84" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A84" s="4" t="s">
         <v>38</v>
       </c>
@@ -8970,7 +9123,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="85" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A85" s="4" t="s">
         <v>38</v>
       </c>
@@ -8999,7 +9152,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="86" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A86" s="4" t="s">
         <v>38</v>
       </c>
@@ -9028,7 +9181,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="87" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A87" s="4" t="s">
         <v>38</v>
       </c>
@@ -9057,7 +9210,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="88" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A88" s="4" t="s">
         <v>38</v>
       </c>
@@ -9086,7 +9239,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="89" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A89" s="4" t="s">
         <v>38</v>
       </c>
@@ -9115,7 +9268,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="90" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A90" s="4" t="s">
         <v>38</v>
       </c>
@@ -9144,7 +9297,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="91" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A91" s="4" t="s">
         <v>38</v>
       </c>
@@ -9173,7 +9326,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="92" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A92" s="4" t="s">
         <v>38</v>
       </c>
@@ -9202,7 +9355,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="93" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A93" s="4" t="s">
         <v>38</v>
       </c>
@@ -9231,7 +9384,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="94" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A94" s="7" t="s">
         <v>132</v>
       </c>
@@ -9260,7 +9413,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="95" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A95" s="7" t="s">
         <v>132</v>
       </c>
@@ -9289,7 +9442,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="96" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A96" s="7" t="s">
         <v>132</v>
       </c>
@@ -9318,7 +9471,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="97" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A97" s="7" t="s">
         <v>132</v>
       </c>
@@ -9347,7 +9500,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="98" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A98" s="7" t="s">
         <v>132</v>
       </c>
@@ -9376,7 +9529,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="99" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A99" s="7" t="s">
         <v>132</v>
       </c>
@@ -9405,7 +9558,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="100" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A100" s="1" t="s">
         <v>140</v>
       </c>
@@ -9434,7 +9587,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="101" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A101" s="1" t="s">
         <v>140</v>
       </c>
@@ -9463,7 +9616,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="102" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A102" s="1" t="s">
         <v>140</v>
       </c>
@@ -9492,7 +9645,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="103" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A103" s="1" t="s">
         <v>140</v>
       </c>
@@ -9521,7 +9674,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="104" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A104" s="1" t="s">
         <v>140</v>
       </c>
@@ -9550,7 +9703,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="105" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A105" s="1" t="s">
         <v>140</v>
       </c>
@@ -9579,7 +9732,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="106" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A106" s="1" t="s">
         <v>140</v>
       </c>
@@ -9608,7 +9761,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="107" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A107" s="1" t="s">
         <v>140</v>
       </c>
@@ -9637,7 +9790,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="108" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A108" s="1" t="s">
         <v>140</v>
       </c>
@@ -9666,7 +9819,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="109" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A109" s="1" t="s">
         <v>140</v>
       </c>
@@ -9695,7 +9848,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="110" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A110" s="1" t="s">
         <v>140</v>
       </c>
@@ -9724,7 +9877,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="111" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A111" s="1" t="s">
         <v>140</v>
       </c>
@@ -9753,7 +9906,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="112" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A112" s="1" t="s">
         <v>140</v>
       </c>
@@ -9782,7 +9935,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="113" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A113" s="1" t="s">
         <v>155</v>
       </c>
@@ -9811,7 +9964,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="114" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A114" s="1" t="s">
         <v>155</v>
       </c>
@@ -9840,7 +9993,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="115" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A115" s="1" t="s">
         <v>155</v>
       </c>
@@ -9869,7 +10022,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="116" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A116" s="1" t="s">
         <v>155</v>
       </c>
@@ -9903,4 +10056,4289 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" copies="0" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2557765B-387F-43E9-9580-AEBFD32E2083}">
+  <dimension ref="A1:I147"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A131" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F152" sqref="F152"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="14.44140625" style="1" customWidth="1"/>
+    <col min="2" max="8" width="8.88671875" style="1"/>
+    <col min="9" max="9" width="18.33203125" style="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2" s="11" t="s">
+        <v>161</v>
+      </c>
+      <c r="B2" s="11">
+        <v>80</v>
+      </c>
+      <c r="C2" s="11">
+        <v>50</v>
+      </c>
+      <c r="D2" s="11">
+        <v>89</v>
+      </c>
+      <c r="E2" s="11">
+        <v>57</v>
+      </c>
+      <c r="F2" s="11">
+        <v>4</v>
+      </c>
+      <c r="G2" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="H2" s="11">
+        <v>1.42</v>
+      </c>
+      <c r="I2" s="11" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3" s="11" t="s">
+        <v>161</v>
+      </c>
+      <c r="B3" s="11">
+        <v>100</v>
+      </c>
+      <c r="C3" s="11">
+        <v>50</v>
+      </c>
+      <c r="D3" s="11">
+        <v>108</v>
+      </c>
+      <c r="E3" s="11">
+        <v>57</v>
+      </c>
+      <c r="F3" s="11">
+        <v>4</v>
+      </c>
+      <c r="G3" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="H3" s="11">
+        <v>1.93</v>
+      </c>
+      <c r="I3" s="11" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4" s="11" t="s">
+        <v>161</v>
+      </c>
+      <c r="B4" s="11">
+        <v>100</v>
+      </c>
+      <c r="C4" s="11">
+        <v>80</v>
+      </c>
+      <c r="D4" s="11">
+        <v>108</v>
+      </c>
+      <c r="E4" s="11">
+        <v>89</v>
+      </c>
+      <c r="F4" s="11">
+        <v>4</v>
+      </c>
+      <c r="G4" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="H4" s="11">
+        <v>1.86</v>
+      </c>
+      <c r="I4" s="11" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5" s="11" t="s">
+        <v>161</v>
+      </c>
+      <c r="B5" s="11">
+        <v>125</v>
+      </c>
+      <c r="C5" s="11">
+        <v>100</v>
+      </c>
+      <c r="D5" s="11">
+        <v>133</v>
+      </c>
+      <c r="E5" s="11">
+        <v>108</v>
+      </c>
+      <c r="F5" s="11">
+        <v>4</v>
+      </c>
+      <c r="G5" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="H5" s="11">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="I5" s="11" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6" s="11" t="s">
+        <v>161</v>
+      </c>
+      <c r="B6" s="11">
+        <v>150</v>
+      </c>
+      <c r="C6" s="11">
+        <v>100</v>
+      </c>
+      <c r="D6" s="11">
+        <v>159</v>
+      </c>
+      <c r="E6" s="11">
+        <v>108</v>
+      </c>
+      <c r="F6" s="11">
+        <v>4.5</v>
+      </c>
+      <c r="G6" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="H6" s="11">
+        <v>3.56</v>
+      </c>
+      <c r="I6" s="11" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7" s="11" t="s">
+        <v>161</v>
+      </c>
+      <c r="B7" s="11">
+        <v>150</v>
+      </c>
+      <c r="C7" s="11">
+        <v>125</v>
+      </c>
+      <c r="D7" s="11">
+        <v>159</v>
+      </c>
+      <c r="E7" s="11">
+        <v>133</v>
+      </c>
+      <c r="F7" s="11">
+        <v>4.5</v>
+      </c>
+      <c r="G7" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="H7" s="11">
+        <v>3.14</v>
+      </c>
+      <c r="I7" s="11" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A8" s="11" t="s">
+        <v>161</v>
+      </c>
+      <c r="B8" s="11">
+        <v>200</v>
+      </c>
+      <c r="C8" s="11">
+        <v>100</v>
+      </c>
+      <c r="D8" s="11">
+        <v>219</v>
+      </c>
+      <c r="E8" s="11">
+        <v>108</v>
+      </c>
+      <c r="F8" s="11">
+        <v>6</v>
+      </c>
+      <c r="G8" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="H8" s="11">
+        <v>8.15</v>
+      </c>
+      <c r="I8" s="11" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9" s="11" t="s">
+        <v>161</v>
+      </c>
+      <c r="B9" s="11">
+        <v>200</v>
+      </c>
+      <c r="C9" s="11">
+        <v>125</v>
+      </c>
+      <c r="D9" s="11">
+        <v>219</v>
+      </c>
+      <c r="E9" s="11">
+        <v>133</v>
+      </c>
+      <c r="F9" s="11">
+        <v>6</v>
+      </c>
+      <c r="G9" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="H9" s="11">
+        <v>7.63</v>
+      </c>
+      <c r="I9" s="11" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A10" s="11" t="s">
+        <v>161</v>
+      </c>
+      <c r="B10" s="11">
+        <v>200</v>
+      </c>
+      <c r="C10" s="11">
+        <v>150</v>
+      </c>
+      <c r="D10" s="11">
+        <v>219</v>
+      </c>
+      <c r="E10" s="11">
+        <v>159</v>
+      </c>
+      <c r="F10" s="11">
+        <v>6</v>
+      </c>
+      <c r="G10" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="H10" s="11">
+        <v>6.82</v>
+      </c>
+      <c r="I10" s="11" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A11" s="11" t="s">
+        <v>161</v>
+      </c>
+      <c r="B11" s="11">
+        <v>250</v>
+      </c>
+      <c r="C11" s="11" t="s">
+        <v>162</v>
+      </c>
+      <c r="D11" s="11">
+        <v>273</v>
+      </c>
+      <c r="E11" s="11">
+        <v>108</v>
+      </c>
+      <c r="F11" s="11">
+        <v>8</v>
+      </c>
+      <c r="G11" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="H11" s="11">
+        <v>16.309999999999999</v>
+      </c>
+      <c r="I11" s="11" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A12" s="11" t="s">
+        <v>161</v>
+      </c>
+      <c r="B12" s="11">
+        <v>250</v>
+      </c>
+      <c r="C12" s="11">
+        <v>125</v>
+      </c>
+      <c r="D12" s="11">
+        <v>273</v>
+      </c>
+      <c r="E12" s="11">
+        <v>133</v>
+      </c>
+      <c r="F12" s="11">
+        <v>8</v>
+      </c>
+      <c r="G12" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="H12" s="11">
+        <v>15.42</v>
+      </c>
+      <c r="I12" s="11" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A13" s="11" t="s">
+        <v>161</v>
+      </c>
+      <c r="B13" s="11">
+        <v>250</v>
+      </c>
+      <c r="C13" s="11">
+        <v>150</v>
+      </c>
+      <c r="D13" s="11">
+        <v>273</v>
+      </c>
+      <c r="E13" s="11">
+        <v>159</v>
+      </c>
+      <c r="F13" s="11">
+        <v>8</v>
+      </c>
+      <c r="G13" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="H13" s="11">
+        <v>14.36</v>
+      </c>
+      <c r="I13" s="11" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A14" s="11" t="s">
+        <v>161</v>
+      </c>
+      <c r="B14" s="11">
+        <v>250</v>
+      </c>
+      <c r="C14" s="11">
+        <v>200</v>
+      </c>
+      <c r="D14" s="11">
+        <v>273</v>
+      </c>
+      <c r="E14" s="11">
+        <v>219</v>
+      </c>
+      <c r="F14" s="11">
+        <v>8</v>
+      </c>
+      <c r="G14" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="H14" s="11">
+        <v>11.79</v>
+      </c>
+      <c r="I14" s="11" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A15" s="11" t="s">
+        <v>161</v>
+      </c>
+      <c r="B15" s="11">
+        <v>300</v>
+      </c>
+      <c r="C15" s="11">
+        <v>125</v>
+      </c>
+      <c r="D15" s="11">
+        <v>325</v>
+      </c>
+      <c r="E15" s="11">
+        <v>133</v>
+      </c>
+      <c r="F15" s="11">
+        <v>8</v>
+      </c>
+      <c r="G15" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="H15" s="11">
+        <v>21.96</v>
+      </c>
+      <c r="I15" s="11" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A16" s="11" t="s">
+        <v>161</v>
+      </c>
+      <c r="B16" s="11">
+        <v>300</v>
+      </c>
+      <c r="C16" s="11">
+        <v>150</v>
+      </c>
+      <c r="D16" s="11">
+        <v>325</v>
+      </c>
+      <c r="E16" s="11">
+        <v>159</v>
+      </c>
+      <c r="F16" s="11">
+        <v>8</v>
+      </c>
+      <c r="G16" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="H16" s="11">
+        <v>20.86</v>
+      </c>
+      <c r="I16" s="11" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A17" s="11" t="s">
+        <v>161</v>
+      </c>
+      <c r="B17" s="11">
+        <v>300</v>
+      </c>
+      <c r="C17" s="11">
+        <v>200</v>
+      </c>
+      <c r="D17" s="11">
+        <v>325</v>
+      </c>
+      <c r="E17" s="11">
+        <v>219</v>
+      </c>
+      <c r="F17" s="11">
+        <v>8</v>
+      </c>
+      <c r="G17" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="H17" s="11">
+        <v>18.45</v>
+      </c>
+      <c r="I17" s="11" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A18" s="11" t="s">
+        <v>161</v>
+      </c>
+      <c r="B18" s="11">
+        <v>300</v>
+      </c>
+      <c r="C18" s="11">
+        <v>250</v>
+      </c>
+      <c r="D18" s="11">
+        <v>325</v>
+      </c>
+      <c r="E18" s="11">
+        <v>273</v>
+      </c>
+      <c r="F18" s="11">
+        <v>8</v>
+      </c>
+      <c r="G18" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="H18" s="11">
+        <v>14.41</v>
+      </c>
+      <c r="I18" s="11" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A19" s="10" t="s">
+        <v>161</v>
+      </c>
+      <c r="B19" s="10">
+        <v>350</v>
+      </c>
+      <c r="C19" s="10">
+        <v>150</v>
+      </c>
+      <c r="D19" s="10">
+        <v>377</v>
+      </c>
+      <c r="E19" s="10">
+        <v>159</v>
+      </c>
+      <c r="F19" s="10">
+        <v>9</v>
+      </c>
+      <c r="G19" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="H19" s="10">
+        <v>32.119999999999997</v>
+      </c>
+      <c r="I19" s="10" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A20" s="10" t="s">
+        <v>161</v>
+      </c>
+      <c r="B20" s="9">
+        <v>350</v>
+      </c>
+      <c r="C20" s="9">
+        <v>200</v>
+      </c>
+      <c r="D20" s="9">
+        <v>377</v>
+      </c>
+      <c r="E20" s="9">
+        <v>219</v>
+      </c>
+      <c r="F20" s="9">
+        <v>9</v>
+      </c>
+      <c r="G20" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="H20" s="9" t="s">
+        <v>166</v>
+      </c>
+      <c r="I20" s="10" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A21" s="10" t="s">
+        <v>161</v>
+      </c>
+      <c r="B21" s="9">
+        <v>350</v>
+      </c>
+      <c r="C21" s="9">
+        <v>250</v>
+      </c>
+      <c r="D21" s="9">
+        <v>377</v>
+      </c>
+      <c r="E21" s="9">
+        <v>273</v>
+      </c>
+      <c r="F21" s="9">
+        <v>9</v>
+      </c>
+      <c r="G21" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="H21" s="9">
+        <v>24.69</v>
+      </c>
+      <c r="I21" s="10" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A22" s="10" t="s">
+        <v>161</v>
+      </c>
+      <c r="B22" s="9">
+        <v>350</v>
+      </c>
+      <c r="C22" s="9">
+        <v>300</v>
+      </c>
+      <c r="D22" s="9">
+        <v>377</v>
+      </c>
+      <c r="E22" s="9">
+        <v>325</v>
+      </c>
+      <c r="F22" s="9">
+        <v>9</v>
+      </c>
+      <c r="G22" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="H22" s="9">
+        <v>18.98</v>
+      </c>
+      <c r="I22" s="10" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A23" s="10" t="s">
+        <v>161</v>
+      </c>
+      <c r="B23" s="9">
+        <v>400</v>
+      </c>
+      <c r="C23" s="9">
+        <v>200</v>
+      </c>
+      <c r="D23" s="9">
+        <v>426</v>
+      </c>
+      <c r="E23" s="9">
+        <v>219</v>
+      </c>
+      <c r="F23" s="9">
+        <v>9</v>
+      </c>
+      <c r="G23" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="H23" s="9">
+        <v>38.75</v>
+      </c>
+      <c r="I23" s="10" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A24" s="10" t="s">
+        <v>161</v>
+      </c>
+      <c r="B24" s="9">
+        <v>400</v>
+      </c>
+      <c r="C24" s="9">
+        <v>250</v>
+      </c>
+      <c r="D24" s="9">
+        <v>426</v>
+      </c>
+      <c r="E24" s="9">
+        <v>273</v>
+      </c>
+      <c r="F24" s="9">
+        <v>9</v>
+      </c>
+      <c r="G24" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="H24" s="9">
+        <v>34.39</v>
+      </c>
+      <c r="I24" s="10" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A25" s="10" t="s">
+        <v>161</v>
+      </c>
+      <c r="B25" s="9">
+        <v>400</v>
+      </c>
+      <c r="C25" s="9">
+        <v>300</v>
+      </c>
+      <c r="D25" s="9">
+        <v>426</v>
+      </c>
+      <c r="E25" s="9">
+        <v>325</v>
+      </c>
+      <c r="F25" s="9">
+        <v>9</v>
+      </c>
+      <c r="G25" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="H25" s="9">
+        <v>28.63</v>
+      </c>
+      <c r="I25" s="10" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A26" s="10" t="s">
+        <v>161</v>
+      </c>
+      <c r="B26" s="9">
+        <v>400</v>
+      </c>
+      <c r="C26" s="9">
+        <v>350</v>
+      </c>
+      <c r="D26" s="9">
+        <v>426</v>
+      </c>
+      <c r="E26" s="9">
+        <v>377</v>
+      </c>
+      <c r="F26" s="9">
+        <v>9</v>
+      </c>
+      <c r="G26" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="H26" s="9">
+        <v>21.7</v>
+      </c>
+      <c r="I26" s="10" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A27" s="10" t="s">
+        <v>161</v>
+      </c>
+      <c r="B27" s="9">
+        <v>450</v>
+      </c>
+      <c r="C27" s="9">
+        <v>250</v>
+      </c>
+      <c r="D27" s="9">
+        <v>480</v>
+      </c>
+      <c r="E27" s="9">
+        <v>273</v>
+      </c>
+      <c r="F27" s="9">
+        <v>9</v>
+      </c>
+      <c r="G27" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="H27" s="9">
+        <v>45.51</v>
+      </c>
+      <c r="I27" s="10" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A28" s="10" t="s">
+        <v>161</v>
+      </c>
+      <c r="B28" s="9">
+        <v>450</v>
+      </c>
+      <c r="C28" s="9">
+        <v>300</v>
+      </c>
+      <c r="D28" s="9">
+        <v>480</v>
+      </c>
+      <c r="E28" s="9">
+        <v>325</v>
+      </c>
+      <c r="F28" s="9">
+        <v>9</v>
+      </c>
+      <c r="G28" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="H28" s="9">
+        <v>39.75</v>
+      </c>
+      <c r="I28" s="10" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A29" s="10" t="s">
+        <v>161</v>
+      </c>
+      <c r="B29" s="9">
+        <v>450</v>
+      </c>
+      <c r="C29" s="9">
+        <v>350</v>
+      </c>
+      <c r="D29" s="9">
+        <v>480</v>
+      </c>
+      <c r="E29" s="9">
+        <v>377</v>
+      </c>
+      <c r="F29" s="9">
+        <v>9</v>
+      </c>
+      <c r="G29" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="H29" s="9">
+        <v>32.78</v>
+      </c>
+      <c r="I29" s="10" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A30" s="10" t="s">
+        <v>161</v>
+      </c>
+      <c r="B30" s="9">
+        <v>450</v>
+      </c>
+      <c r="C30" s="9">
+        <v>400</v>
+      </c>
+      <c r="D30" s="9">
+        <v>480</v>
+      </c>
+      <c r="E30" s="9">
+        <v>426</v>
+      </c>
+      <c r="F30" s="9">
+        <v>9</v>
+      </c>
+      <c r="G30" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="H30" s="9">
+        <v>24.63</v>
+      </c>
+      <c r="I30" s="10" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A31" s="10" t="s">
+        <v>161</v>
+      </c>
+      <c r="B31" s="9">
+        <v>500</v>
+      </c>
+      <c r="C31" s="9">
+        <v>300</v>
+      </c>
+      <c r="D31" s="9">
+        <v>530</v>
+      </c>
+      <c r="E31" s="9">
+        <v>325</v>
+      </c>
+      <c r="F31" s="9">
+        <v>9</v>
+      </c>
+      <c r="G31" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="H31" s="9">
+        <v>51.83</v>
+      </c>
+      <c r="I31" s="10" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A32" s="10" t="s">
+        <v>161</v>
+      </c>
+      <c r="B32" s="9">
+        <v>500</v>
+      </c>
+      <c r="C32" s="9">
+        <v>350</v>
+      </c>
+      <c r="D32" s="9">
+        <v>530</v>
+      </c>
+      <c r="E32" s="9">
+        <v>377</v>
+      </c>
+      <c r="F32" s="9">
+        <v>9</v>
+      </c>
+      <c r="G32" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="H32" s="9">
+        <v>44.89</v>
+      </c>
+      <c r="I32" s="10" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A33" s="10" t="s">
+        <v>161</v>
+      </c>
+      <c r="B33" s="9">
+        <v>500</v>
+      </c>
+      <c r="C33" s="9">
+        <v>400</v>
+      </c>
+      <c r="D33" s="9">
+        <v>530</v>
+      </c>
+      <c r="E33" s="9">
+        <v>426</v>
+      </c>
+      <c r="F33" s="9" t="s">
+        <v>165</v>
+      </c>
+      <c r="G33" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="H33" s="9">
+        <v>36.65</v>
+      </c>
+      <c r="I33" s="10" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A34" s="10" t="s">
+        <v>161</v>
+      </c>
+      <c r="B34" s="9">
+        <v>500</v>
+      </c>
+      <c r="C34" s="9">
+        <v>450</v>
+      </c>
+      <c r="D34" s="9">
+        <v>530</v>
+      </c>
+      <c r="E34" s="9">
+        <v>480</v>
+      </c>
+      <c r="F34" s="9">
+        <v>9</v>
+      </c>
+      <c r="G34" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="H34" s="9">
+        <v>27.41</v>
+      </c>
+      <c r="I34" s="10" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A35" s="10" t="s">
+        <v>161</v>
+      </c>
+      <c r="B35" s="9">
+        <v>600</v>
+      </c>
+      <c r="C35" s="9">
+        <v>350</v>
+      </c>
+      <c r="D35" s="9">
+        <v>630</v>
+      </c>
+      <c r="E35" s="9">
+        <v>377</v>
+      </c>
+      <c r="F35" s="9">
+        <v>9</v>
+      </c>
+      <c r="G35" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="H35" s="9">
+        <v>72.55</v>
+      </c>
+      <c r="I35" s="10" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A36" s="10" t="s">
+        <v>161</v>
+      </c>
+      <c r="B36" s="9">
+        <v>600</v>
+      </c>
+      <c r="C36" s="9">
+        <v>400</v>
+      </c>
+      <c r="D36" s="9">
+        <v>630</v>
+      </c>
+      <c r="E36" s="9">
+        <v>426</v>
+      </c>
+      <c r="F36" s="9">
+        <v>9</v>
+      </c>
+      <c r="G36" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="H36" s="9">
+        <v>64.27</v>
+      </c>
+      <c r="I36" s="10" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A37" s="10" t="s">
+        <v>161</v>
+      </c>
+      <c r="B37" s="9">
+        <v>600</v>
+      </c>
+      <c r="C37" s="9">
+        <v>450</v>
+      </c>
+      <c r="D37" s="9">
+        <v>630</v>
+      </c>
+      <c r="E37" s="9">
+        <v>480</v>
+      </c>
+      <c r="F37" s="9">
+        <v>9</v>
+      </c>
+      <c r="G37" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="H37" s="9">
+        <v>55.14</v>
+      </c>
+      <c r="I37" s="10" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A38" s="10" t="s">
+        <v>161</v>
+      </c>
+      <c r="B38" s="9">
+        <v>600</v>
+      </c>
+      <c r="C38" s="9">
+        <v>500</v>
+      </c>
+      <c r="D38" s="9">
+        <v>630</v>
+      </c>
+      <c r="E38" s="9">
+        <v>530</v>
+      </c>
+      <c r="F38" s="9">
+        <v>9</v>
+      </c>
+      <c r="G38" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="H38" s="9">
+        <v>44.48</v>
+      </c>
+      <c r="I38" s="10" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A39" s="12" t="s">
+        <v>161</v>
+      </c>
+      <c r="B39" s="13">
+        <v>700</v>
+      </c>
+      <c r="C39" s="13">
+        <v>400</v>
+      </c>
+      <c r="D39" s="13">
+        <v>720</v>
+      </c>
+      <c r="E39" s="13">
+        <v>426</v>
+      </c>
+      <c r="F39" s="13">
+        <v>9</v>
+      </c>
+      <c r="G39" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="H39" s="13">
+        <v>95.52</v>
+      </c>
+      <c r="I39" s="12" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A40" s="12" t="s">
+        <v>161</v>
+      </c>
+      <c r="B40" s="13">
+        <v>700</v>
+      </c>
+      <c r="C40" s="13">
+        <v>450</v>
+      </c>
+      <c r="D40" s="13">
+        <v>720</v>
+      </c>
+      <c r="E40" s="13">
+        <v>480</v>
+      </c>
+      <c r="F40" s="13">
+        <v>9</v>
+      </c>
+      <c r="G40" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="H40" s="13">
+        <v>86.43</v>
+      </c>
+      <c r="I40" s="12" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A41" s="12" t="s">
+        <v>161</v>
+      </c>
+      <c r="B41" s="13">
+        <v>700</v>
+      </c>
+      <c r="C41" s="13">
+        <v>500</v>
+      </c>
+      <c r="D41" s="13">
+        <v>720</v>
+      </c>
+      <c r="E41" s="13">
+        <v>530</v>
+      </c>
+      <c r="F41" s="13">
+        <v>9</v>
+      </c>
+      <c r="G41" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="H41" s="13">
+        <v>76.010000000000005</v>
+      </c>
+      <c r="I41" s="12" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A42" s="12" t="s">
+        <v>161</v>
+      </c>
+      <c r="B42" s="13">
+        <v>700</v>
+      </c>
+      <c r="C42" s="13">
+        <v>600</v>
+      </c>
+      <c r="D42" s="13">
+        <v>720</v>
+      </c>
+      <c r="E42" s="13">
+        <v>630</v>
+      </c>
+      <c r="F42" s="13">
+        <v>9</v>
+      </c>
+      <c r="G42" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="H42" s="13">
+        <v>51.88</v>
+      </c>
+      <c r="I42" s="12" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A43" s="12" t="s">
+        <v>161</v>
+      </c>
+      <c r="B43" s="13">
+        <v>800</v>
+      </c>
+      <c r="C43" s="13">
+        <v>450</v>
+      </c>
+      <c r="D43" s="13">
+        <v>820</v>
+      </c>
+      <c r="E43" s="13">
+        <v>480</v>
+      </c>
+      <c r="F43" s="13">
+        <v>9</v>
+      </c>
+      <c r="G43" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="H43" s="13">
+        <v>123.06</v>
+      </c>
+      <c r="I43" s="12" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A44" s="12" t="s">
+        <v>161</v>
+      </c>
+      <c r="B44" s="13">
+        <v>800</v>
+      </c>
+      <c r="C44" s="13">
+        <v>500</v>
+      </c>
+      <c r="D44" s="13">
+        <v>820</v>
+      </c>
+      <c r="E44" s="13">
+        <v>530</v>
+      </c>
+      <c r="F44" s="13">
+        <v>9</v>
+      </c>
+      <c r="G44" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="H44" s="13">
+        <v>112.65</v>
+      </c>
+      <c r="I44" s="12" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A45" s="12" t="s">
+        <v>161</v>
+      </c>
+      <c r="B45" s="13">
+        <v>800</v>
+      </c>
+      <c r="C45" s="13">
+        <v>600</v>
+      </c>
+      <c r="D45" s="13">
+        <v>820</v>
+      </c>
+      <c r="E45" s="13">
+        <v>630</v>
+      </c>
+      <c r="F45" s="13">
+        <v>9</v>
+      </c>
+      <c r="G45" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="H45" s="13">
+        <v>88.36</v>
+      </c>
+      <c r="I45" s="12" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A46" s="12" t="s">
+        <v>161</v>
+      </c>
+      <c r="B46" s="13">
+        <v>800</v>
+      </c>
+      <c r="C46" s="13">
+        <v>700</v>
+      </c>
+      <c r="D46" s="13">
+        <v>820</v>
+      </c>
+      <c r="E46" s="13">
+        <v>720</v>
+      </c>
+      <c r="F46" s="13">
+        <v>9</v>
+      </c>
+      <c r="G46" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="H46" s="13">
+        <v>59.29</v>
+      </c>
+      <c r="I46" s="12" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A47" s="12" t="s">
+        <v>161</v>
+      </c>
+      <c r="B47" s="13">
+        <v>900</v>
+      </c>
+      <c r="C47" s="13">
+        <v>500</v>
+      </c>
+      <c r="D47" s="13">
+        <v>920</v>
+      </c>
+      <c r="E47" s="13">
+        <v>530</v>
+      </c>
+      <c r="F47" s="13">
+        <v>9</v>
+      </c>
+      <c r="G47" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="H47" s="13">
+        <v>153.84</v>
+      </c>
+      <c r="I47" s="12" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A48" s="12" t="s">
+        <v>161</v>
+      </c>
+      <c r="B48" s="13">
+        <v>900</v>
+      </c>
+      <c r="C48" s="13">
+        <v>600</v>
+      </c>
+      <c r="D48" s="13">
+        <v>920</v>
+      </c>
+      <c r="E48" s="13">
+        <v>630</v>
+      </c>
+      <c r="F48" s="13">
+        <v>9</v>
+      </c>
+      <c r="G48" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="H48" s="13">
+        <v>129.38</v>
+      </c>
+      <c r="I48" s="12" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A49" s="12" t="s">
+        <v>161</v>
+      </c>
+      <c r="B49" s="13">
+        <v>900</v>
+      </c>
+      <c r="C49" s="13">
+        <v>700</v>
+      </c>
+      <c r="D49" s="13">
+        <v>920</v>
+      </c>
+      <c r="E49" s="13">
+        <v>720</v>
+      </c>
+      <c r="F49" s="13">
+        <v>9</v>
+      </c>
+      <c r="G49" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="H49" s="13">
+        <v>100.25</v>
+      </c>
+      <c r="I49" s="12" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A50" s="12" t="s">
+        <v>161</v>
+      </c>
+      <c r="B50" s="13">
+        <v>900</v>
+      </c>
+      <c r="C50" s="13">
+        <v>800</v>
+      </c>
+      <c r="D50" s="13">
+        <v>920</v>
+      </c>
+      <c r="E50" s="13">
+        <v>820</v>
+      </c>
+      <c r="F50" s="13">
+        <v>9</v>
+      </c>
+      <c r="G50" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="H50" s="13">
+        <v>67.27</v>
+      </c>
+      <c r="I50" s="12" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A51" s="12" t="s">
+        <v>161</v>
+      </c>
+      <c r="B51" s="13">
+        <v>1000</v>
+      </c>
+      <c r="C51" s="13">
+        <v>600</v>
+      </c>
+      <c r="D51" s="13">
+        <v>1020</v>
+      </c>
+      <c r="E51" s="13">
+        <v>630</v>
+      </c>
+      <c r="F51" s="13">
+        <v>9</v>
+      </c>
+      <c r="G51" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="H51" s="13">
+        <v>175.32</v>
+      </c>
+      <c r="I51" s="12" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A52" s="12" t="s">
+        <v>161</v>
+      </c>
+      <c r="B52" s="13">
+        <v>1000</v>
+      </c>
+      <c r="C52" s="13">
+        <v>700</v>
+      </c>
+      <c r="D52" s="13">
+        <v>1020</v>
+      </c>
+      <c r="E52" s="13">
+        <v>720</v>
+      </c>
+      <c r="F52" s="13">
+        <v>9</v>
+      </c>
+      <c r="G52" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="H52" s="13">
+        <v>145.81</v>
+      </c>
+      <c r="I52" s="12" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A53" s="12" t="s">
+        <v>161</v>
+      </c>
+      <c r="B53" s="13">
+        <v>1000</v>
+      </c>
+      <c r="C53" s="13">
+        <v>800</v>
+      </c>
+      <c r="D53" s="13">
+        <v>1020</v>
+      </c>
+      <c r="E53" s="13">
+        <v>820</v>
+      </c>
+      <c r="F53" s="13">
+        <v>9</v>
+      </c>
+      <c r="G53" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="H53" s="13">
+        <v>112.63</v>
+      </c>
+      <c r="I53" s="12" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A54" s="12" t="s">
+        <v>161</v>
+      </c>
+      <c r="B54" s="13">
+        <v>1000</v>
+      </c>
+      <c r="C54" s="13">
+        <v>900</v>
+      </c>
+      <c r="D54" s="13">
+        <v>1020</v>
+      </c>
+      <c r="E54" s="13">
+        <v>920</v>
+      </c>
+      <c r="F54" s="13">
+        <v>9</v>
+      </c>
+      <c r="G54" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="H54" s="13">
+        <v>74.86</v>
+      </c>
+      <c r="I54" s="12" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A55" s="12" t="s">
+        <v>161</v>
+      </c>
+      <c r="B55" s="13">
+        <v>1200</v>
+      </c>
+      <c r="C55" s="13">
+        <v>700</v>
+      </c>
+      <c r="D55" s="13">
+        <v>1220</v>
+      </c>
+      <c r="E55" s="13">
+        <v>720</v>
+      </c>
+      <c r="F55" s="13">
+        <v>10</v>
+      </c>
+      <c r="G55" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="H55" s="13">
+        <v>243.84</v>
+      </c>
+      <c r="I55" s="12" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A56" s="12" t="s">
+        <v>161</v>
+      </c>
+      <c r="B56" s="13">
+        <v>1200</v>
+      </c>
+      <c r="C56" s="13">
+        <v>800</v>
+      </c>
+      <c r="D56" s="13">
+        <v>1220</v>
+      </c>
+      <c r="E56" s="13">
+        <v>820</v>
+      </c>
+      <c r="F56" s="13">
+        <v>10</v>
+      </c>
+      <c r="G56" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="H56" s="13">
+        <v>205.23</v>
+      </c>
+      <c r="I56" s="12" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A57" s="12" t="s">
+        <v>161</v>
+      </c>
+      <c r="B57" s="13">
+        <v>1200</v>
+      </c>
+      <c r="C57" s="13">
+        <v>900</v>
+      </c>
+      <c r="D57" s="13">
+        <v>1220</v>
+      </c>
+      <c r="E57" s="13">
+        <v>920</v>
+      </c>
+      <c r="F57" s="13">
+        <v>10</v>
+      </c>
+      <c r="G57" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="H57" s="13">
+        <v>161.53</v>
+      </c>
+      <c r="I57" s="12" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A58" s="12" t="s">
+        <v>161</v>
+      </c>
+      <c r="B58" s="13">
+        <v>1200</v>
+      </c>
+      <c r="C58" s="13">
+        <v>1000</v>
+      </c>
+      <c r="D58" s="13">
+        <v>1220</v>
+      </c>
+      <c r="E58" s="13">
+        <v>1020</v>
+      </c>
+      <c r="F58" s="13">
+        <v>10</v>
+      </c>
+      <c r="G58" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="H58" s="13">
+        <v>112.77</v>
+      </c>
+      <c r="I58" s="12" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A59" s="15" t="s">
+        <v>161</v>
+      </c>
+      <c r="B59" s="16">
+        <v>1400</v>
+      </c>
+      <c r="C59" s="16">
+        <v>800</v>
+      </c>
+      <c r="D59" s="16">
+        <v>1420</v>
+      </c>
+      <c r="E59" s="16">
+        <v>820</v>
+      </c>
+      <c r="F59" s="16">
+        <v>11</v>
+      </c>
+      <c r="G59" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="H59" s="16">
+        <v>372.18</v>
+      </c>
+      <c r="I59" s="15" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A60" s="15" t="s">
+        <v>161</v>
+      </c>
+      <c r="B60" s="16">
+        <v>1400</v>
+      </c>
+      <c r="C60" s="16">
+        <v>900</v>
+      </c>
+      <c r="D60" s="16">
+        <v>1420</v>
+      </c>
+      <c r="E60" s="16">
+        <v>920</v>
+      </c>
+      <c r="F60" s="16">
+        <v>11</v>
+      </c>
+      <c r="G60" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="H60" s="16">
+        <v>324.18</v>
+      </c>
+      <c r="I60" s="15" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A61" s="15" t="s">
+        <v>161</v>
+      </c>
+      <c r="B61" s="16">
+        <v>1400</v>
+      </c>
+      <c r="C61" s="16">
+        <v>1000</v>
+      </c>
+      <c r="D61" s="16">
+        <v>1420</v>
+      </c>
+      <c r="E61" s="16">
+        <v>1020</v>
+      </c>
+      <c r="F61" s="16">
+        <v>11</v>
+      </c>
+      <c r="G61" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="H61" s="16">
+        <v>270.58999999999997</v>
+      </c>
+      <c r="I61" s="15" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A62" s="15" t="s">
+        <v>161</v>
+      </c>
+      <c r="B62" s="16">
+        <v>1400</v>
+      </c>
+      <c r="C62" s="16">
+        <v>1200</v>
+      </c>
+      <c r="D62" s="16">
+        <v>1420</v>
+      </c>
+      <c r="E62" s="16">
+        <v>1220</v>
+      </c>
+      <c r="F62" s="16">
+        <v>11</v>
+      </c>
+      <c r="G62" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="H62" s="16">
+        <v>128.56</v>
+      </c>
+      <c r="I62" s="15" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A63" s="15" t="s">
+        <v>161</v>
+      </c>
+      <c r="B63" s="16">
+        <v>1600</v>
+      </c>
+      <c r="C63" s="16">
+        <v>900</v>
+      </c>
+      <c r="D63" s="16">
+        <v>1620</v>
+      </c>
+      <c r="E63" s="16">
+        <v>920</v>
+      </c>
+      <c r="F63" s="16">
+        <v>12</v>
+      </c>
+      <c r="G63" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="H63" s="16">
+        <v>537.23</v>
+      </c>
+      <c r="I63" s="15" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A64" s="15" t="s">
+        <v>161</v>
+      </c>
+      <c r="B64" s="16">
+        <v>1600</v>
+      </c>
+      <c r="C64" s="16">
+        <v>1000</v>
+      </c>
+      <c r="D64" s="16">
+        <v>1620</v>
+      </c>
+      <c r="E64" s="16">
+        <v>1020</v>
+      </c>
+      <c r="F64" s="16">
+        <v>12</v>
+      </c>
+      <c r="G64" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="H64" s="16">
+        <v>478.82</v>
+      </c>
+      <c r="I64" s="15" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A65" s="15" t="s">
+        <v>161</v>
+      </c>
+      <c r="B65" s="16">
+        <v>1600</v>
+      </c>
+      <c r="C65" s="16">
+        <v>1200</v>
+      </c>
+      <c r="D65" s="16">
+        <v>1620</v>
+      </c>
+      <c r="E65" s="16">
+        <v>1220</v>
+      </c>
+      <c r="F65" s="16">
+        <v>12</v>
+      </c>
+      <c r="G65" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="H65" s="16">
+        <v>343.74</v>
+      </c>
+      <c r="I65" s="15" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A66" s="15" t="s">
+        <v>161</v>
+      </c>
+      <c r="B66" s="16">
+        <v>1600</v>
+      </c>
+      <c r="C66" s="16">
+        <v>1400</v>
+      </c>
+      <c r="D66" s="16">
+        <v>1620</v>
+      </c>
+      <c r="E66" s="16">
+        <v>1420</v>
+      </c>
+      <c r="F66" s="16">
+        <v>14</v>
+      </c>
+      <c r="G66" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="H66" s="16">
+        <v>188.75</v>
+      </c>
+      <c r="I66" s="15" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A67" s="15" t="s">
+        <v>161</v>
+      </c>
+      <c r="B67" s="16">
+        <v>1800</v>
+      </c>
+      <c r="C67" s="16">
+        <v>1000</v>
+      </c>
+      <c r="D67" s="16">
+        <v>1820</v>
+      </c>
+      <c r="E67" s="16">
+        <v>1020</v>
+      </c>
+      <c r="F67" s="16">
+        <v>14</v>
+      </c>
+      <c r="G67" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="H67" s="16">
+        <v>800.47</v>
+      </c>
+      <c r="I67" s="15" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A68" s="15" t="s">
+        <v>161</v>
+      </c>
+      <c r="B68" s="16">
+        <v>1800</v>
+      </c>
+      <c r="C68" s="16">
+        <v>1200</v>
+      </c>
+      <c r="D68" s="16">
+        <v>1820</v>
+      </c>
+      <c r="E68" s="16">
+        <v>1220</v>
+      </c>
+      <c r="F68" s="16">
+        <v>14</v>
+      </c>
+      <c r="G68" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="H68" s="16">
+        <v>643.15</v>
+      </c>
+      <c r="I68" s="15" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A69" s="15" t="s">
+        <v>161</v>
+      </c>
+      <c r="B69" s="16">
+        <v>1800</v>
+      </c>
+      <c r="C69" s="16">
+        <v>1400</v>
+      </c>
+      <c r="D69" s="16">
+        <v>1820</v>
+      </c>
+      <c r="E69" s="16">
+        <v>1420</v>
+      </c>
+      <c r="F69" s="16">
+        <v>14</v>
+      </c>
+      <c r="G69" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="H69" s="16">
+        <v>456.92</v>
+      </c>
+      <c r="I69" s="15" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A70" s="15" t="s">
+        <v>161</v>
+      </c>
+      <c r="B70" s="16">
+        <v>1800</v>
+      </c>
+      <c r="C70" s="16">
+        <v>1600</v>
+      </c>
+      <c r="D70" s="16">
+        <v>1820</v>
+      </c>
+      <c r="E70" s="16">
+        <v>1620</v>
+      </c>
+      <c r="F70" s="16">
+        <v>14</v>
+      </c>
+      <c r="G70" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="H70" s="16">
+        <v>213.25</v>
+      </c>
+      <c r="I70" s="15" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A71" s="15" t="s">
+        <v>161</v>
+      </c>
+      <c r="B71" s="16">
+        <v>2000</v>
+      </c>
+      <c r="C71" s="16">
+        <v>1200</v>
+      </c>
+      <c r="D71" s="16">
+        <v>2020</v>
+      </c>
+      <c r="E71" s="16">
+        <v>1220</v>
+      </c>
+      <c r="F71" s="16">
+        <v>14</v>
+      </c>
+      <c r="G71" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="H71" s="16">
+        <v>914.26</v>
+      </c>
+      <c r="I71" s="15" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A72" s="15" t="s">
+        <v>161</v>
+      </c>
+      <c r="B72" s="16">
+        <v>2000</v>
+      </c>
+      <c r="C72" s="16">
+        <v>1400</v>
+      </c>
+      <c r="D72" s="16">
+        <v>2020</v>
+      </c>
+      <c r="E72" s="16">
+        <v>1420</v>
+      </c>
+      <c r="F72" s="16">
+        <v>14</v>
+      </c>
+      <c r="G72" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="H72" s="16">
+        <v>728.02</v>
+      </c>
+      <c r="I72" s="15" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A73" s="15" t="s">
+        <v>161</v>
+      </c>
+      <c r="B73" s="16">
+        <v>2000</v>
+      </c>
+      <c r="C73" s="16">
+        <v>1600</v>
+      </c>
+      <c r="D73" s="16">
+        <v>2020</v>
+      </c>
+      <c r="E73" s="16">
+        <v>1620</v>
+      </c>
+      <c r="F73" s="16">
+        <v>14</v>
+      </c>
+      <c r="G73" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="H73" s="16">
+        <v>513.78</v>
+      </c>
+      <c r="I73" s="15" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A74" s="15" t="s">
+        <v>161</v>
+      </c>
+      <c r="B74" s="16">
+        <v>2000</v>
+      </c>
+      <c r="C74" s="16">
+        <v>1800</v>
+      </c>
+      <c r="D74" s="16">
+        <v>2020</v>
+      </c>
+      <c r="E74" s="16">
+        <v>1820</v>
+      </c>
+      <c r="F74" s="16">
+        <v>14</v>
+      </c>
+      <c r="G74" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="H74" s="16">
+        <v>238.24</v>
+      </c>
+      <c r="I74" s="15" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A75" s="17" t="s">
+        <v>169</v>
+      </c>
+      <c r="B75" s="17">
+        <v>80</v>
+      </c>
+      <c r="C75" s="17">
+        <v>50</v>
+      </c>
+      <c r="D75" s="17">
+        <v>89</v>
+      </c>
+      <c r="E75" s="17">
+        <v>57</v>
+      </c>
+      <c r="F75" s="17">
+        <v>4</v>
+      </c>
+      <c r="G75" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="H75" s="17">
+        <v>1.44</v>
+      </c>
+      <c r="I75" s="18" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A76" s="17" t="s">
+        <v>169</v>
+      </c>
+      <c r="B76" s="17">
+        <v>100</v>
+      </c>
+      <c r="C76" s="17">
+        <v>50</v>
+      </c>
+      <c r="D76" s="17">
+        <v>108</v>
+      </c>
+      <c r="E76" s="17">
+        <v>57</v>
+      </c>
+      <c r="F76" s="17">
+        <v>4</v>
+      </c>
+      <c r="G76" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="H76" s="17">
+        <v>1.63</v>
+      </c>
+      <c r="I76" s="18" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A77" s="17" t="s">
+        <v>169</v>
+      </c>
+      <c r="B77" s="17">
+        <v>100</v>
+      </c>
+      <c r="C77" s="17">
+        <v>80</v>
+      </c>
+      <c r="D77" s="17">
+        <v>108</v>
+      </c>
+      <c r="E77" s="17">
+        <v>89</v>
+      </c>
+      <c r="F77" s="17">
+        <v>4</v>
+      </c>
+      <c r="G77" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="H77" s="17">
+        <v>1.94</v>
+      </c>
+      <c r="I77" s="18" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A78" s="17" t="s">
+        <v>169</v>
+      </c>
+      <c r="B78" s="17">
+        <v>125</v>
+      </c>
+      <c r="C78" s="17">
+        <v>100</v>
+      </c>
+      <c r="D78" s="17">
+        <v>133</v>
+      </c>
+      <c r="E78" s="17">
+        <v>108</v>
+      </c>
+      <c r="F78" s="17">
+        <v>4</v>
+      </c>
+      <c r="G78" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="H78" s="17">
+        <v>2.38</v>
+      </c>
+      <c r="I78" s="18" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A79" s="17" t="s">
+        <v>169</v>
+      </c>
+      <c r="B79" s="17">
+        <v>150</v>
+      </c>
+      <c r="C79" s="17">
+        <v>100</v>
+      </c>
+      <c r="D79" s="17">
+        <v>159</v>
+      </c>
+      <c r="E79" s="17">
+        <v>108</v>
+      </c>
+      <c r="F79" s="17">
+        <v>4.5</v>
+      </c>
+      <c r="G79" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="H79" s="17">
+        <v>3.19</v>
+      </c>
+      <c r="I79" s="18" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A80" s="17" t="s">
+        <v>169</v>
+      </c>
+      <c r="B80" s="17">
+        <v>150</v>
+      </c>
+      <c r="C80" s="17">
+        <v>125</v>
+      </c>
+      <c r="D80" s="17">
+        <v>159</v>
+      </c>
+      <c r="E80" s="17">
+        <v>133</v>
+      </c>
+      <c r="F80" s="17">
+        <v>4.5</v>
+      </c>
+      <c r="G80" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="H80" s="17">
+        <v>3.24</v>
+      </c>
+      <c r="I80" s="18" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A81" s="17" t="s">
+        <v>169</v>
+      </c>
+      <c r="B81" s="17">
+        <v>200</v>
+      </c>
+      <c r="C81" s="17">
+        <v>100</v>
+      </c>
+      <c r="D81" s="17">
+        <v>219</v>
+      </c>
+      <c r="E81" s="17">
+        <v>108</v>
+      </c>
+      <c r="F81" s="17">
+        <v>6</v>
+      </c>
+      <c r="G81" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="H81" s="17">
+        <v>7.77</v>
+      </c>
+      <c r="I81" s="18" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A82" s="17" t="s">
+        <v>169</v>
+      </c>
+      <c r="B82" s="17">
+        <v>200</v>
+      </c>
+      <c r="C82" s="17">
+        <v>125</v>
+      </c>
+      <c r="D82" s="17">
+        <v>219</v>
+      </c>
+      <c r="E82" s="17">
+        <v>133</v>
+      </c>
+      <c r="F82" s="17">
+        <v>6</v>
+      </c>
+      <c r="G82" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="H82" s="17">
+        <v>7.01</v>
+      </c>
+      <c r="I82" s="18" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A83" s="17" t="s">
+        <v>169</v>
+      </c>
+      <c r="B83" s="17">
+        <v>200</v>
+      </c>
+      <c r="C83" s="17">
+        <v>150</v>
+      </c>
+      <c r="D83" s="17">
+        <v>219</v>
+      </c>
+      <c r="E83" s="17">
+        <v>159</v>
+      </c>
+      <c r="F83" s="17">
+        <v>6</v>
+      </c>
+      <c r="G83" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="H83" s="17">
+        <v>6.12</v>
+      </c>
+      <c r="I83" s="18" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A84" s="17" t="s">
+        <v>169</v>
+      </c>
+      <c r="B84" s="17">
+        <v>250</v>
+      </c>
+      <c r="C84" s="17">
+        <v>100</v>
+      </c>
+      <c r="D84" s="17">
+        <v>273</v>
+      </c>
+      <c r="E84" s="17">
+        <v>108</v>
+      </c>
+      <c r="F84" s="17">
+        <v>8</v>
+      </c>
+      <c r="G84" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="H84" s="17">
+        <v>15.86</v>
+      </c>
+      <c r="I84" s="18" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A85" s="17" t="s">
+        <v>169</v>
+      </c>
+      <c r="B85" s="17">
+        <v>250</v>
+      </c>
+      <c r="C85" s="17">
+        <v>125</v>
+      </c>
+      <c r="D85" s="17">
+        <v>273</v>
+      </c>
+      <c r="E85" s="17">
+        <v>133</v>
+      </c>
+      <c r="F85" s="17">
+        <v>8</v>
+      </c>
+      <c r="G85" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="H85" s="17">
+        <v>14.86</v>
+      </c>
+      <c r="I85" s="18" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="86" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A86" s="17" t="s">
+        <v>169</v>
+      </c>
+      <c r="B86" s="17">
+        <v>250</v>
+      </c>
+      <c r="C86" s="17">
+        <v>150</v>
+      </c>
+      <c r="D86" s="17">
+        <v>273</v>
+      </c>
+      <c r="E86" s="17">
+        <v>159</v>
+      </c>
+      <c r="F86" s="17">
+        <v>8</v>
+      </c>
+      <c r="G86" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="H86" s="17">
+        <v>13.68</v>
+      </c>
+      <c r="I86" s="18" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="87" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A87" s="17" t="s">
+        <v>169</v>
+      </c>
+      <c r="B87" s="17">
+        <v>250</v>
+      </c>
+      <c r="C87" s="17">
+        <v>200</v>
+      </c>
+      <c r="D87" s="17">
+        <v>273</v>
+      </c>
+      <c r="E87" s="17">
+        <v>219</v>
+      </c>
+      <c r="F87" s="17">
+        <v>8</v>
+      </c>
+      <c r="G87" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="H87" s="17">
+        <v>10.87</v>
+      </c>
+      <c r="I87" s="18" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="88" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A88" s="19" t="s">
+        <v>169</v>
+      </c>
+      <c r="B88" s="19">
+        <v>300</v>
+      </c>
+      <c r="C88" s="19">
+        <v>125</v>
+      </c>
+      <c r="D88" s="19">
+        <v>325</v>
+      </c>
+      <c r="E88" s="19">
+        <v>133</v>
+      </c>
+      <c r="F88" s="19">
+        <v>8</v>
+      </c>
+      <c r="G88" s="19" t="s">
+        <v>24</v>
+      </c>
+      <c r="H88" s="19">
+        <v>21.23</v>
+      </c>
+      <c r="I88" s="20" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="89" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A89" s="19" t="s">
+        <v>169</v>
+      </c>
+      <c r="B89" s="19">
+        <v>300</v>
+      </c>
+      <c r="C89" s="19">
+        <v>150</v>
+      </c>
+      <c r="D89" s="19">
+        <v>325</v>
+      </c>
+      <c r="E89" s="19">
+        <v>159</v>
+      </c>
+      <c r="F89" s="19">
+        <v>8</v>
+      </c>
+      <c r="G89" s="19" t="s">
+        <v>24</v>
+      </c>
+      <c r="H89" s="19">
+        <v>20.05</v>
+      </c>
+      <c r="I89" s="20" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="90" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A90" s="19" t="s">
+        <v>169</v>
+      </c>
+      <c r="B90" s="19">
+        <v>300</v>
+      </c>
+      <c r="C90" s="19">
+        <v>200</v>
+      </c>
+      <c r="D90" s="19">
+        <v>325</v>
+      </c>
+      <c r="E90" s="19">
+        <v>219</v>
+      </c>
+      <c r="F90" s="19">
+        <v>8</v>
+      </c>
+      <c r="G90" s="19" t="s">
+        <v>24</v>
+      </c>
+      <c r="H90" s="19">
+        <v>17.39</v>
+      </c>
+      <c r="I90" s="20" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="91" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A91" s="19" t="s">
+        <v>169</v>
+      </c>
+      <c r="B91" s="19">
+        <v>300</v>
+      </c>
+      <c r="C91" s="19">
+        <v>250</v>
+      </c>
+      <c r="D91" s="19">
+        <v>325</v>
+      </c>
+      <c r="E91" s="19">
+        <v>273</v>
+      </c>
+      <c r="F91" s="19">
+        <v>8</v>
+      </c>
+      <c r="G91" s="19" t="s">
+        <v>24</v>
+      </c>
+      <c r="H91" s="19">
+        <v>13.1</v>
+      </c>
+      <c r="I91" s="20" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="92" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A92" s="19" t="s">
+        <v>169</v>
+      </c>
+      <c r="B92" s="19">
+        <v>350</v>
+      </c>
+      <c r="C92" s="19">
+        <v>150</v>
+      </c>
+      <c r="D92" s="19">
+        <v>377</v>
+      </c>
+      <c r="E92" s="19">
+        <v>159</v>
+      </c>
+      <c r="F92" s="19">
+        <v>9</v>
+      </c>
+      <c r="G92" s="19" t="s">
+        <v>24</v>
+      </c>
+      <c r="H92" s="19">
+        <v>30.93</v>
+      </c>
+      <c r="I92" s="20" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="93" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A93" s="19" t="s">
+        <v>169</v>
+      </c>
+      <c r="B93" s="19">
+        <v>350</v>
+      </c>
+      <c r="C93" s="19">
+        <v>200</v>
+      </c>
+      <c r="D93" s="19">
+        <v>377</v>
+      </c>
+      <c r="E93" s="19">
+        <v>219</v>
+      </c>
+      <c r="F93" s="19">
+        <v>9</v>
+      </c>
+      <c r="G93" s="19" t="s">
+        <v>24</v>
+      </c>
+      <c r="H93" s="19">
+        <v>27.98</v>
+      </c>
+      <c r="I93" s="20" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="94" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A94" s="19" t="s">
+        <v>169</v>
+      </c>
+      <c r="B94" s="19">
+        <v>350</v>
+      </c>
+      <c r="C94" s="19">
+        <v>250</v>
+      </c>
+      <c r="D94" s="19">
+        <v>377</v>
+      </c>
+      <c r="E94" s="19">
+        <v>273</v>
+      </c>
+      <c r="F94" s="19">
+        <v>9</v>
+      </c>
+      <c r="G94" s="19" t="s">
+        <v>24</v>
+      </c>
+      <c r="H94" s="19">
+        <v>23.16</v>
+      </c>
+      <c r="I94" s="20" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="95" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A95" s="19" t="s">
+        <v>169</v>
+      </c>
+      <c r="B95" s="19">
+        <v>350</v>
+      </c>
+      <c r="C95" s="19">
+        <v>300</v>
+      </c>
+      <c r="D95" s="19">
+        <v>377</v>
+      </c>
+      <c r="E95" s="19">
+        <v>325</v>
+      </c>
+      <c r="F95" s="19">
+        <v>9</v>
+      </c>
+      <c r="G95" s="19" t="s">
+        <v>24</v>
+      </c>
+      <c r="H95" s="19">
+        <v>17.22</v>
+      </c>
+      <c r="I95" s="20" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="96" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A96" s="19" t="s">
+        <v>169</v>
+      </c>
+      <c r="B96" s="19">
+        <v>400</v>
+      </c>
+      <c r="C96" s="19">
+        <v>200</v>
+      </c>
+      <c r="D96" s="19">
+        <v>426</v>
+      </c>
+      <c r="E96" s="19">
+        <v>219</v>
+      </c>
+      <c r="F96" s="19">
+        <v>9</v>
+      </c>
+      <c r="G96" s="19" t="s">
+        <v>24</v>
+      </c>
+      <c r="H96" s="19">
+        <v>37.22</v>
+      </c>
+      <c r="I96" s="20" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="97" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A97" s="19" t="s">
+        <v>169</v>
+      </c>
+      <c r="B97" s="19">
+        <v>400</v>
+      </c>
+      <c r="C97" s="19">
+        <v>250</v>
+      </c>
+      <c r="D97" s="19">
+        <v>426</v>
+      </c>
+      <c r="E97" s="19">
+        <v>273</v>
+      </c>
+      <c r="F97" s="19">
+        <v>9</v>
+      </c>
+      <c r="G97" s="19" t="s">
+        <v>24</v>
+      </c>
+      <c r="H97" s="19">
+        <v>32.43</v>
+      </c>
+      <c r="I97" s="20" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="98" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A98" s="19" t="s">
+        <v>169</v>
+      </c>
+      <c r="B98" s="19">
+        <v>400</v>
+      </c>
+      <c r="C98" s="19">
+        <v>300</v>
+      </c>
+      <c r="D98" s="19">
+        <v>426</v>
+      </c>
+      <c r="E98" s="19">
+        <v>325</v>
+      </c>
+      <c r="F98" s="19">
+        <v>9</v>
+      </c>
+      <c r="G98" s="19" t="s">
+        <v>24</v>
+      </c>
+      <c r="H98" s="19">
+        <v>26.25</v>
+      </c>
+      <c r="I98" s="20" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="99" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A99" s="19" t="s">
+        <v>169</v>
+      </c>
+      <c r="B99" s="19">
+        <v>400</v>
+      </c>
+      <c r="C99" s="19">
+        <v>350</v>
+      </c>
+      <c r="D99" s="19">
+        <v>426</v>
+      </c>
+      <c r="E99" s="19">
+        <v>377</v>
+      </c>
+      <c r="F99" s="19">
+        <v>9</v>
+      </c>
+      <c r="G99" s="19" t="s">
+        <v>24</v>
+      </c>
+      <c r="H99" s="19">
+        <v>19.16</v>
+      </c>
+      <c r="I99" s="20" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="100" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A100" s="19" t="s">
+        <v>169</v>
+      </c>
+      <c r="B100" s="19">
+        <v>450</v>
+      </c>
+      <c r="C100" s="19">
+        <v>250</v>
+      </c>
+      <c r="D100" s="19">
+        <v>480</v>
+      </c>
+      <c r="E100" s="19">
+        <v>273</v>
+      </c>
+      <c r="F100" s="19">
+        <v>9</v>
+      </c>
+      <c r="G100" s="19" t="s">
+        <v>24</v>
+      </c>
+      <c r="H100" s="19">
+        <v>42.87</v>
+      </c>
+      <c r="I100" s="20" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="101" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A101" s="19" t="s">
+        <v>169</v>
+      </c>
+      <c r="B101" s="19">
+        <v>450</v>
+      </c>
+      <c r="C101" s="19">
+        <v>300</v>
+      </c>
+      <c r="D101" s="19">
+        <v>480</v>
+      </c>
+      <c r="E101" s="19">
+        <v>325</v>
+      </c>
+      <c r="F101" s="19">
+        <v>9</v>
+      </c>
+      <c r="G101" s="19" t="s">
+        <v>24</v>
+      </c>
+      <c r="H101" s="19">
+        <v>36.9</v>
+      </c>
+      <c r="I101" s="20" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="102" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A102" s="19" t="s">
+        <v>169</v>
+      </c>
+      <c r="B102" s="19">
+        <v>450</v>
+      </c>
+      <c r="C102" s="19">
+        <v>350</v>
+      </c>
+      <c r="D102" s="19">
+        <v>480</v>
+      </c>
+      <c r="E102" s="19">
+        <v>377</v>
+      </c>
+      <c r="F102" s="19">
+        <v>9</v>
+      </c>
+      <c r="G102" s="19" t="s">
+        <v>24</v>
+      </c>
+      <c r="H102" s="19">
+        <v>29.67</v>
+      </c>
+      <c r="I102" s="20" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="103" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A103" s="19" t="s">
+        <v>169</v>
+      </c>
+      <c r="B103" s="19">
+        <v>450</v>
+      </c>
+      <c r="C103" s="19">
+        <v>400</v>
+      </c>
+      <c r="D103" s="19">
+        <v>480</v>
+      </c>
+      <c r="E103" s="19">
+        <v>426</v>
+      </c>
+      <c r="F103" s="19">
+        <v>9</v>
+      </c>
+      <c r="G103" s="19" t="s">
+        <v>24</v>
+      </c>
+      <c r="H103" s="19">
+        <v>20.91</v>
+      </c>
+      <c r="I103" s="20" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="104" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A104" s="19" t="s">
+        <v>169</v>
+      </c>
+      <c r="B104" s="19">
+        <v>500</v>
+      </c>
+      <c r="C104" s="19">
+        <v>300</v>
+      </c>
+      <c r="D104" s="19">
+        <v>530</v>
+      </c>
+      <c r="E104" s="19">
+        <v>325</v>
+      </c>
+      <c r="F104" s="19">
+        <v>9</v>
+      </c>
+      <c r="G104" s="19" t="s">
+        <v>24</v>
+      </c>
+      <c r="H104" s="19">
+        <v>48.2</v>
+      </c>
+      <c r="I104" s="20" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="105" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A105" s="19" t="s">
+        <v>169</v>
+      </c>
+      <c r="B105" s="19">
+        <v>500</v>
+      </c>
+      <c r="C105" s="19">
+        <v>350</v>
+      </c>
+      <c r="D105" s="19">
+        <v>530</v>
+      </c>
+      <c r="E105" s="19">
+        <v>377</v>
+      </c>
+      <c r="F105" s="19">
+        <v>9</v>
+      </c>
+      <c r="G105" s="19" t="s">
+        <v>24</v>
+      </c>
+      <c r="H105" s="19">
+        <v>40.869999999999997</v>
+      </c>
+      <c r="I105" s="20" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="106" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A106" s="19" t="s">
+        <v>169</v>
+      </c>
+      <c r="B106" s="19">
+        <v>500</v>
+      </c>
+      <c r="C106" s="19">
+        <v>400</v>
+      </c>
+      <c r="D106" s="19">
+        <v>530</v>
+      </c>
+      <c r="E106" s="19">
+        <v>426</v>
+      </c>
+      <c r="F106" s="19">
+        <v>9</v>
+      </c>
+      <c r="G106" s="19" t="s">
+        <v>24</v>
+      </c>
+      <c r="H106" s="19">
+        <v>32.04</v>
+      </c>
+      <c r="I106" s="20" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="107" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A107" s="19" t="s">
+        <v>169</v>
+      </c>
+      <c r="B107" s="19">
+        <v>500</v>
+      </c>
+      <c r="C107" s="19">
+        <v>450</v>
+      </c>
+      <c r="D107" s="19">
+        <v>530</v>
+      </c>
+      <c r="E107" s="19">
+        <v>480</v>
+      </c>
+      <c r="F107" s="19">
+        <v>9</v>
+      </c>
+      <c r="G107" s="19" t="s">
+        <v>24</v>
+      </c>
+      <c r="H107" s="19">
+        <v>22.42</v>
+      </c>
+      <c r="I107" s="20" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="108" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A108" s="21" t="s">
+        <v>169</v>
+      </c>
+      <c r="B108" s="21">
+        <v>600</v>
+      </c>
+      <c r="C108" s="21">
+        <v>350</v>
+      </c>
+      <c r="D108" s="21">
+        <v>630</v>
+      </c>
+      <c r="E108" s="21">
+        <v>377</v>
+      </c>
+      <c r="F108" s="21">
+        <v>9</v>
+      </c>
+      <c r="G108" s="21" t="s">
+        <v>24</v>
+      </c>
+      <c r="H108" s="21">
+        <v>67.5</v>
+      </c>
+      <c r="I108" s="22" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="109" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A109" s="21" t="s">
+        <v>169</v>
+      </c>
+      <c r="B109" s="21">
+        <v>600</v>
+      </c>
+      <c r="C109" s="21">
+        <v>400</v>
+      </c>
+      <c r="D109" s="21">
+        <v>630</v>
+      </c>
+      <c r="E109" s="21">
+        <v>426</v>
+      </c>
+      <c r="F109" s="21">
+        <v>9</v>
+      </c>
+      <c r="G109" s="21" t="s">
+        <v>24</v>
+      </c>
+      <c r="H109" s="21">
+        <v>58.6</v>
+      </c>
+      <c r="I109" s="22" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="110" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A110" s="21" t="s">
+        <v>169</v>
+      </c>
+      <c r="B110" s="21">
+        <v>600</v>
+      </c>
+      <c r="C110" s="21">
+        <v>450</v>
+      </c>
+      <c r="D110" s="21">
+        <v>630</v>
+      </c>
+      <c r="E110" s="21">
+        <v>480</v>
+      </c>
+      <c r="F110" s="21">
+        <v>9</v>
+      </c>
+      <c r="G110" s="21" t="s">
+        <v>24</v>
+      </c>
+      <c r="H110" s="21">
+        <v>48.78</v>
+      </c>
+      <c r="I110" s="22" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="111" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A111" s="21" t="s">
+        <v>169</v>
+      </c>
+      <c r="B111" s="21">
+        <v>600</v>
+      </c>
+      <c r="C111" s="21">
+        <v>500</v>
+      </c>
+      <c r="D111" s="21">
+        <v>630</v>
+      </c>
+      <c r="E111" s="21">
+        <v>530</v>
+      </c>
+      <c r="F111" s="21">
+        <v>9</v>
+      </c>
+      <c r="G111" s="21" t="s">
+        <v>24</v>
+      </c>
+      <c r="H111" s="21">
+        <v>37.33</v>
+      </c>
+      <c r="I111" s="22" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="112" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A112" s="21" t="s">
+        <v>169</v>
+      </c>
+      <c r="B112" s="21">
+        <v>700</v>
+      </c>
+      <c r="C112" s="21">
+        <v>400</v>
+      </c>
+      <c r="D112" s="21">
+        <v>720</v>
+      </c>
+      <c r="E112" s="21">
+        <v>426</v>
+      </c>
+      <c r="F112" s="21">
+        <v>9</v>
+      </c>
+      <c r="G112" s="21" t="s">
+        <v>24</v>
+      </c>
+      <c r="H112" s="21">
+        <v>91.57</v>
+      </c>
+      <c r="I112" s="22" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="113" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A113" s="21" t="s">
+        <v>169</v>
+      </c>
+      <c r="B113" s="21">
+        <v>700</v>
+      </c>
+      <c r="C113" s="21">
+        <v>450</v>
+      </c>
+      <c r="D113" s="21">
+        <v>720</v>
+      </c>
+      <c r="E113" s="21">
+        <v>480</v>
+      </c>
+      <c r="F113" s="21">
+        <v>9</v>
+      </c>
+      <c r="G113" s="21" t="s">
+        <v>24</v>
+      </c>
+      <c r="H113" s="21">
+        <v>82.57</v>
+      </c>
+      <c r="I113" s="22" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="114" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A114" s="21" t="s">
+        <v>169</v>
+      </c>
+      <c r="B114" s="21">
+        <v>700</v>
+      </c>
+      <c r="C114" s="21">
+        <v>500</v>
+      </c>
+      <c r="D114" s="21">
+        <v>720</v>
+      </c>
+      <c r="E114" s="21">
+        <v>530</v>
+      </c>
+      <c r="F114" s="21">
+        <v>9</v>
+      </c>
+      <c r="G114" s="21" t="s">
+        <v>24</v>
+      </c>
+      <c r="H114" s="21">
+        <v>71.86</v>
+      </c>
+      <c r="I114" s="22" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="115" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A115" s="21" t="s">
+        <v>169</v>
+      </c>
+      <c r="B115" s="21">
+        <v>700</v>
+      </c>
+      <c r="C115" s="21">
+        <v>600</v>
+      </c>
+      <c r="D115" s="21">
+        <v>720</v>
+      </c>
+      <c r="E115" s="21">
+        <v>630</v>
+      </c>
+      <c r="F115" s="21">
+        <v>9</v>
+      </c>
+      <c r="G115" s="21" t="s">
+        <v>24</v>
+      </c>
+      <c r="H115" s="21">
+        <v>47.04</v>
+      </c>
+      <c r="I115" s="22" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="116" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A116" s="21" t="s">
+        <v>169</v>
+      </c>
+      <c r="B116" s="21">
+        <v>800</v>
+      </c>
+      <c r="C116" s="21">
+        <v>450</v>
+      </c>
+      <c r="D116" s="21">
+        <v>820</v>
+      </c>
+      <c r="E116" s="21">
+        <v>480</v>
+      </c>
+      <c r="F116" s="21">
+        <v>9</v>
+      </c>
+      <c r="G116" s="21" t="s">
+        <v>24</v>
+      </c>
+      <c r="H116" s="21">
+        <v>118.01</v>
+      </c>
+      <c r="I116" s="22" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="117" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A117" s="21" t="s">
+        <v>169</v>
+      </c>
+      <c r="B117" s="21">
+        <v>800</v>
+      </c>
+      <c r="C117" s="21">
+        <v>500</v>
+      </c>
+      <c r="D117" s="21">
+        <v>820</v>
+      </c>
+      <c r="E117" s="21">
+        <v>530</v>
+      </c>
+      <c r="F117" s="21">
+        <v>9</v>
+      </c>
+      <c r="G117" s="21" t="s">
+        <v>24</v>
+      </c>
+      <c r="H117" s="21">
+        <v>107.27</v>
+      </c>
+      <c r="I117" s="22" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="118" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A118" s="21" t="s">
+        <v>169</v>
+      </c>
+      <c r="B118" s="21">
+        <v>800</v>
+      </c>
+      <c r="C118" s="21">
+        <v>600</v>
+      </c>
+      <c r="D118" s="21">
+        <v>820</v>
+      </c>
+      <c r="E118" s="21">
+        <v>630</v>
+      </c>
+      <c r="F118" s="21">
+        <v>9</v>
+      </c>
+      <c r="G118" s="21" t="s">
+        <v>24</v>
+      </c>
+      <c r="H118" s="21">
+        <v>82.39</v>
+      </c>
+      <c r="I118" s="22" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="119" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A119" s="21" t="s">
+        <v>169</v>
+      </c>
+      <c r="B119" s="21">
+        <v>800</v>
+      </c>
+      <c r="C119" s="21">
+        <v>700</v>
+      </c>
+      <c r="D119" s="21">
+        <v>820</v>
+      </c>
+      <c r="E119" s="21">
+        <v>720</v>
+      </c>
+      <c r="F119" s="21">
+        <v>9</v>
+      </c>
+      <c r="G119" s="21" t="s">
+        <v>24</v>
+      </c>
+      <c r="H119" s="21">
+        <v>52.98</v>
+      </c>
+      <c r="I119" s="22" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="120" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A120" s="21" t="s">
+        <v>169</v>
+      </c>
+      <c r="B120" s="21">
+        <v>900</v>
+      </c>
+      <c r="C120" s="21">
+        <v>500</v>
+      </c>
+      <c r="D120" s="21">
+        <v>920</v>
+      </c>
+      <c r="E120" s="21">
+        <v>530</v>
+      </c>
+      <c r="F120" s="21">
+        <v>9</v>
+      </c>
+      <c r="G120" s="21" t="s">
+        <v>24</v>
+      </c>
+      <c r="H120" s="21">
+        <v>147.08000000000001</v>
+      </c>
+      <c r="I120" s="22" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="121" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A121" s="21" t="s">
+        <v>169</v>
+      </c>
+      <c r="B121" s="21">
+        <v>900</v>
+      </c>
+      <c r="C121" s="21">
+        <v>600</v>
+      </c>
+      <c r="D121" s="21">
+        <v>920</v>
+      </c>
+      <c r="E121" s="21">
+        <v>630</v>
+      </c>
+      <c r="F121" s="21">
+        <v>9</v>
+      </c>
+      <c r="G121" s="21" t="s">
+        <v>24</v>
+      </c>
+      <c r="H121" s="21">
+        <v>122.13</v>
+      </c>
+      <c r="I121" s="22" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="122" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A122" s="21" t="s">
+        <v>169</v>
+      </c>
+      <c r="B122" s="21">
+        <v>900</v>
+      </c>
+      <c r="C122" s="21">
+        <v>700</v>
+      </c>
+      <c r="D122" s="21">
+        <v>920</v>
+      </c>
+      <c r="E122" s="21">
+        <v>720</v>
+      </c>
+      <c r="F122" s="21">
+        <v>9</v>
+      </c>
+      <c r="G122" s="21" t="s">
+        <v>24</v>
+      </c>
+      <c r="H122" s="21">
+        <v>92.46</v>
+      </c>
+      <c r="I122" s="22" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="123" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A123" s="21" t="s">
+        <v>169</v>
+      </c>
+      <c r="B123" s="21">
+        <v>900</v>
+      </c>
+      <c r="C123" s="21">
+        <v>800</v>
+      </c>
+      <c r="D123" s="21">
+        <v>920</v>
+      </c>
+      <c r="E123" s="21">
+        <v>820</v>
+      </c>
+      <c r="F123" s="21">
+        <v>9</v>
+      </c>
+      <c r="G123" s="21" t="s">
+        <v>24</v>
+      </c>
+      <c r="H123" s="21">
+        <v>59.09</v>
+      </c>
+      <c r="I123" s="22" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="124" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A124" s="21" t="s">
+        <v>169</v>
+      </c>
+      <c r="B124" s="21">
+        <v>1000</v>
+      </c>
+      <c r="C124" s="21">
+        <v>600</v>
+      </c>
+      <c r="D124" s="21">
+        <v>1020</v>
+      </c>
+      <c r="E124" s="21">
+        <v>630</v>
+      </c>
+      <c r="F124" s="21">
+        <v>9</v>
+      </c>
+      <c r="G124" s="21" t="s">
+        <v>24</v>
+      </c>
+      <c r="H124" s="21">
+        <v>165.9</v>
+      </c>
+      <c r="I124" s="22" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="125" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A125" s="21" t="s">
+        <v>169</v>
+      </c>
+      <c r="B125" s="21">
+        <v>1000</v>
+      </c>
+      <c r="C125" s="21">
+        <v>700</v>
+      </c>
+      <c r="D125" s="21">
+        <v>1020</v>
+      </c>
+      <c r="E125" s="21">
+        <v>720</v>
+      </c>
+      <c r="F125" s="21">
+        <v>9</v>
+      </c>
+      <c r="G125" s="21" t="s">
+        <v>24</v>
+      </c>
+      <c r="H125" s="21">
+        <v>135.94</v>
+      </c>
+      <c r="I125" s="22" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="126" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A126" s="21" t="s">
+        <v>169</v>
+      </c>
+      <c r="B126" s="21">
+        <v>1000</v>
+      </c>
+      <c r="C126" s="21">
+        <v>800</v>
+      </c>
+      <c r="D126" s="21">
+        <v>1020</v>
+      </c>
+      <c r="E126" s="21">
+        <v>820</v>
+      </c>
+      <c r="F126" s="21">
+        <v>9</v>
+      </c>
+      <c r="G126" s="21" t="s">
+        <v>24</v>
+      </c>
+      <c r="H126" s="21">
+        <v>102.51</v>
+      </c>
+      <c r="I126" s="22" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="127" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A127" s="21" t="s">
+        <v>169</v>
+      </c>
+      <c r="B127" s="21">
+        <v>1000</v>
+      </c>
+      <c r="C127" s="21">
+        <v>900</v>
+      </c>
+      <c r="D127" s="21">
+        <v>1020</v>
+      </c>
+      <c r="E127" s="21">
+        <v>920</v>
+      </c>
+      <c r="F127" s="21">
+        <v>9</v>
+      </c>
+      <c r="G127" s="21" t="s">
+        <v>24</v>
+      </c>
+      <c r="H127" s="21">
+        <v>64.59</v>
+      </c>
+      <c r="I127" s="22" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="128" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A128" s="23" t="s">
+        <v>169</v>
+      </c>
+      <c r="B128" s="23">
+        <v>1200</v>
+      </c>
+      <c r="C128" s="23">
+        <v>700</v>
+      </c>
+      <c r="D128" s="23">
+        <v>1220</v>
+      </c>
+      <c r="E128" s="23">
+        <v>720</v>
+      </c>
+      <c r="F128" s="23">
+        <v>10</v>
+      </c>
+      <c r="G128" s="23" t="s">
+        <v>24</v>
+      </c>
+      <c r="H128" s="23">
+        <v>239.22</v>
+      </c>
+      <c r="I128" s="24" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="129" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A129" s="23" t="s">
+        <v>169</v>
+      </c>
+      <c r="B129" s="23">
+        <v>1200</v>
+      </c>
+      <c r="C129" s="23">
+        <v>800</v>
+      </c>
+      <c r="D129" s="23">
+        <v>1220</v>
+      </c>
+      <c r="E129" s="23">
+        <v>820</v>
+      </c>
+      <c r="F129" s="23">
+        <v>10</v>
+      </c>
+      <c r="G129" s="23" t="s">
+        <v>24</v>
+      </c>
+      <c r="H129" s="23">
+        <v>201.24</v>
+      </c>
+      <c r="I129" s="24" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="130" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A130" s="23" t="s">
+        <v>169</v>
+      </c>
+      <c r="B130" s="23">
+        <v>1200</v>
+      </c>
+      <c r="C130" s="23">
+        <v>900</v>
+      </c>
+      <c r="D130" s="23">
+        <v>1220</v>
+      </c>
+      <c r="E130" s="23">
+        <v>920</v>
+      </c>
+      <c r="F130" s="23">
+        <v>10</v>
+      </c>
+      <c r="G130" s="23" t="s">
+        <v>24</v>
+      </c>
+      <c r="H130" s="23">
+        <v>158.33000000000001</v>
+      </c>
+      <c r="I130" s="24" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="131" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A131" s="23" t="s">
+        <v>169</v>
+      </c>
+      <c r="B131" s="23">
+        <v>1200</v>
+      </c>
+      <c r="C131" s="23">
+        <v>1000</v>
+      </c>
+      <c r="D131" s="23">
+        <v>1220</v>
+      </c>
+      <c r="E131" s="23">
+        <v>1020</v>
+      </c>
+      <c r="F131" s="23">
+        <v>10</v>
+      </c>
+      <c r="G131" s="23" t="s">
+        <v>24</v>
+      </c>
+      <c r="H131" s="23">
+        <v>110.48</v>
+      </c>
+      <c r="I131" s="24" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="132" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A132" s="23" t="s">
+        <v>169</v>
+      </c>
+      <c r="B132" s="23">
+        <v>1400</v>
+      </c>
+      <c r="C132" s="23">
+        <v>800</v>
+      </c>
+      <c r="D132" s="23">
+        <v>1420</v>
+      </c>
+      <c r="E132" s="23">
+        <v>820</v>
+      </c>
+      <c r="F132" s="23">
+        <v>12</v>
+      </c>
+      <c r="G132" s="23" t="s">
+        <v>24</v>
+      </c>
+      <c r="H132" s="23">
+        <v>397.74</v>
+      </c>
+      <c r="I132" s="24" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="133" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A133" s="23" t="s">
+        <v>169</v>
+      </c>
+      <c r="B133" s="23">
+        <v>1400</v>
+      </c>
+      <c r="C133" s="23">
+        <v>900</v>
+      </c>
+      <c r="D133" s="23">
+        <v>1420</v>
+      </c>
+      <c r="E133" s="23">
+        <v>920</v>
+      </c>
+      <c r="F133" s="23">
+        <v>12</v>
+      </c>
+      <c r="G133" s="23" t="s">
+        <v>24</v>
+      </c>
+      <c r="H133" s="23">
+        <v>346.25</v>
+      </c>
+      <c r="I133" s="24" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="134" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A134" s="23" t="s">
+        <v>169</v>
+      </c>
+      <c r="B134" s="23">
+        <v>1400</v>
+      </c>
+      <c r="C134" s="23">
+        <v>1000</v>
+      </c>
+      <c r="D134" s="23">
+        <v>1420</v>
+      </c>
+      <c r="E134" s="23">
+        <v>1020</v>
+      </c>
+      <c r="F134" s="23">
+        <v>12</v>
+      </c>
+      <c r="G134" s="23" t="s">
+        <v>24</v>
+      </c>
+      <c r="H134" s="23">
+        <v>288.83999999999997</v>
+      </c>
+      <c r="I134" s="24" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="135" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A135" s="23" t="s">
+        <v>169</v>
+      </c>
+      <c r="B135" s="23">
+        <v>1400</v>
+      </c>
+      <c r="C135" s="23">
+        <v>1200</v>
+      </c>
+      <c r="D135" s="23">
+        <v>1420</v>
+      </c>
+      <c r="E135" s="23">
+        <v>1220</v>
+      </c>
+      <c r="F135" s="23">
+        <v>12</v>
+      </c>
+      <c r="G135" s="23" t="s">
+        <v>24</v>
+      </c>
+      <c r="H135" s="23">
+        <v>156.26</v>
+      </c>
+      <c r="I135" s="24" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="136" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A136" s="23" t="s">
+        <v>169</v>
+      </c>
+      <c r="B136" s="23">
+        <v>1600</v>
+      </c>
+      <c r="C136" s="23">
+        <v>900</v>
+      </c>
+      <c r="D136" s="23">
+        <v>1620</v>
+      </c>
+      <c r="E136" s="23">
+        <v>920</v>
+      </c>
+      <c r="F136" s="23">
+        <v>12</v>
+      </c>
+      <c r="G136" s="23" t="s">
+        <v>24</v>
+      </c>
+      <c r="H136" s="23">
+        <v>526.17999999999995</v>
+      </c>
+      <c r="I136" s="24" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="137" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A137" s="23" t="s">
+        <v>169</v>
+      </c>
+      <c r="B137" s="23">
+        <v>1600</v>
+      </c>
+      <c r="C137" s="23">
+        <v>1000</v>
+      </c>
+      <c r="D137" s="23">
+        <v>1620</v>
+      </c>
+      <c r="E137" s="23">
+        <v>1020</v>
+      </c>
+      <c r="F137" s="23">
+        <v>12</v>
+      </c>
+      <c r="G137" s="23" t="s">
+        <v>24</v>
+      </c>
+      <c r="H137" s="23">
+        <v>468.77</v>
+      </c>
+      <c r="I137" s="24" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="138" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A138" s="23" t="s">
+        <v>169</v>
+      </c>
+      <c r="B138" s="23">
+        <v>1600</v>
+      </c>
+      <c r="C138" s="23">
+        <v>1200</v>
+      </c>
+      <c r="D138" s="23">
+        <v>1620</v>
+      </c>
+      <c r="E138" s="23">
+        <v>1220</v>
+      </c>
+      <c r="F138" s="23">
+        <v>12</v>
+      </c>
+      <c r="G138" s="23" t="s">
+        <v>24</v>
+      </c>
+      <c r="H138" s="23">
+        <v>336.19</v>
+      </c>
+      <c r="I138" s="24" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="139" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A139" s="23" t="s">
+        <v>169</v>
+      </c>
+      <c r="B139" s="23">
+        <v>1600</v>
+      </c>
+      <c r="C139" s="23">
+        <v>1400</v>
+      </c>
+      <c r="D139" s="23">
+        <v>1620</v>
+      </c>
+      <c r="E139" s="23">
+        <v>1420</v>
+      </c>
+      <c r="F139" s="23">
+        <v>12</v>
+      </c>
+      <c r="G139" s="23" t="s">
+        <v>24</v>
+      </c>
+      <c r="H139" s="23">
+        <v>179.93</v>
+      </c>
+      <c r="I139" s="24" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="140" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A140" s="23" t="s">
+        <v>169</v>
+      </c>
+      <c r="B140" s="23">
+        <v>1800</v>
+      </c>
+      <c r="C140" s="23">
+        <v>1000</v>
+      </c>
+      <c r="D140" s="23">
+        <v>1820</v>
+      </c>
+      <c r="E140" s="23">
+        <v>1020</v>
+      </c>
+      <c r="F140" s="23">
+        <v>14</v>
+      </c>
+      <c r="G140" s="23" t="s">
+        <v>24</v>
+      </c>
+      <c r="H140" s="23">
+        <v>784.43</v>
+      </c>
+      <c r="I140" s="24" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="141" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A141" s="23" t="s">
+        <v>169</v>
+      </c>
+      <c r="B141" s="23">
+        <v>1800</v>
+      </c>
+      <c r="C141" s="23">
+        <v>1200</v>
+      </c>
+      <c r="D141" s="23">
+        <v>1820</v>
+      </c>
+      <c r="E141" s="23">
+        <v>1220</v>
+      </c>
+      <c r="F141" s="23">
+        <v>14</v>
+      </c>
+      <c r="G141" s="23" t="s">
+        <v>24</v>
+      </c>
+      <c r="H141" s="23">
+        <v>629.76</v>
+      </c>
+      <c r="I141" s="24" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="142" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A142" s="23" t="s">
+        <v>169</v>
+      </c>
+      <c r="B142" s="23">
+        <v>1800</v>
+      </c>
+      <c r="C142" s="23">
+        <v>1400</v>
+      </c>
+      <c r="D142" s="23">
+        <v>1820</v>
+      </c>
+      <c r="E142" s="23">
+        <v>1420</v>
+      </c>
+      <c r="F142" s="23">
+        <v>14</v>
+      </c>
+      <c r="G142" s="23" t="s">
+        <v>24</v>
+      </c>
+      <c r="H142" s="23">
+        <v>447.46</v>
+      </c>
+      <c r="I142" s="24" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="143" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A143" s="23" t="s">
+        <v>169</v>
+      </c>
+      <c r="B143" s="23">
+        <v>1800</v>
+      </c>
+      <c r="C143" s="23">
+        <v>1600</v>
+      </c>
+      <c r="D143" s="23">
+        <v>1820</v>
+      </c>
+      <c r="E143" s="23">
+        <v>1620</v>
+      </c>
+      <c r="F143" s="23">
+        <v>14</v>
+      </c>
+      <c r="G143" s="23" t="s">
+        <v>24</v>
+      </c>
+      <c r="H143" s="23">
+        <v>237.54</v>
+      </c>
+      <c r="I143" s="24" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="144" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A144" s="23" t="s">
+        <v>169</v>
+      </c>
+      <c r="B144" s="23">
+        <v>2000</v>
+      </c>
+      <c r="C144" s="23">
+        <v>1200</v>
+      </c>
+      <c r="D144" s="23">
+        <v>2020</v>
+      </c>
+      <c r="E144" s="23">
+        <v>1220</v>
+      </c>
+      <c r="F144" s="23">
+        <v>14</v>
+      </c>
+      <c r="G144" s="23" t="s">
+        <v>24</v>
+      </c>
+      <c r="H144" s="23">
+        <v>894.92</v>
+      </c>
+      <c r="I144" s="24" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="145" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A145" s="23" t="s">
+        <v>169</v>
+      </c>
+      <c r="B145" s="23">
+        <v>2000</v>
+      </c>
+      <c r="C145" s="23">
+        <v>1400</v>
+      </c>
+      <c r="D145" s="23">
+        <v>2020</v>
+      </c>
+      <c r="E145" s="23">
+        <v>1420</v>
+      </c>
+      <c r="F145" s="23">
+        <v>14</v>
+      </c>
+      <c r="G145" s="23" t="s">
+        <v>24</v>
+      </c>
+      <c r="H145" s="23">
+        <v>712.62</v>
+      </c>
+      <c r="I145" s="24" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="146" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A146" s="23" t="s">
+        <v>169</v>
+      </c>
+      <c r="B146" s="23">
+        <v>2000</v>
+      </c>
+      <c r="C146" s="23">
+        <v>1600</v>
+      </c>
+      <c r="D146" s="23">
+        <v>2020</v>
+      </c>
+      <c r="E146" s="23">
+        <v>1620</v>
+      </c>
+      <c r="F146" s="23">
+        <v>14</v>
+      </c>
+      <c r="G146" s="23" t="s">
+        <v>24</v>
+      </c>
+      <c r="H146" s="23">
+        <v>502.7</v>
+      </c>
+      <c r="I146" s="24" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="147" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A147" s="23" t="s">
+        <v>169</v>
+      </c>
+      <c r="B147" s="23">
+        <v>2000</v>
+      </c>
+      <c r="C147" s="23">
+        <v>1800</v>
+      </c>
+      <c r="D147" s="23">
+        <v>2020</v>
+      </c>
+      <c r="E147" s="23">
+        <v>1820</v>
+      </c>
+      <c r="F147" s="23">
+        <v>14</v>
+      </c>
+      <c r="G147" s="23" t="s">
+        <v>24</v>
+      </c>
+      <c r="H147" s="23">
+        <v>265.16000000000003</v>
+      </c>
+      <c r="I147" s="24" t="s">
+        <v>173</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Base_Data/02S403.xlsx
+++ b/Base_Data/02S403.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\liuyong\Desktop\Criterion-Database\Base_Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7188E2D-DF23-4B64-8F2D-B872C10CC370}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9ACBE55-9677-4CB0-B9FB-88397BFF61ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4590" yWindow="555" windowWidth="22545" windowHeight="14415" firstSheet="5" activeTab="10" xr2:uid="{CE243F28-D019-486D-BDD3-986A12970610}"/>
+    <workbookView xWindow="15" yWindow="570" windowWidth="17175" windowHeight="14415" firstSheet="5" activeTab="10" xr2:uid="{CE243F28-D019-486D-BDD3-986A12970610}"/>
   </bookViews>
   <sheets>
     <sheet name="弯头" sheetId="1" r:id="rId1"/>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2741" uniqueCount="428">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3038" uniqueCount="471">
   <si>
     <t>DN</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1623,10 +1623,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>(0.6MPa)2180/(1.0MPa)2280</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>(0.6MPa)2390/(1.0MPa)2440</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1676,6 +1672,152 @@
   </si>
   <si>
     <t>02S403,页91</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>双法兰管道传力接头</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>02S403,页92</t>
+  </si>
+  <si>
+    <t>ΔL=50</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ΔL=60</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>L=130</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>L=220</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(0.6MPa)395/(1.0MPa)400</t>
+  </si>
+  <si>
+    <t>(0.6MPa)445/(1.0MPa)460</t>
+  </si>
+  <si>
+    <t>(0.6MPa)495/(1.0MPa)515</t>
+  </si>
+  <si>
+    <t>(0.6MPa)550/(1.0MPa)565</t>
+  </si>
+  <si>
+    <t>(0.6MPa)600/(1.0MPa)620</t>
+  </si>
+  <si>
+    <t>(0.6MPa)705/(1.0MPa)725</t>
+  </si>
+  <si>
+    <t>(0.6MPa)810/(1.0MPa)840</t>
+  </si>
+  <si>
+    <t>(0.6MPa)920/(1.0MPa)950</t>
+  </si>
+  <si>
+    <t>(0.6MPa)1020/(1.0MPa)1050</t>
+  </si>
+  <si>
+    <t>(0.6MPa)1120/(1.0MPa)1160</t>
+  </si>
+  <si>
+    <t>(0.6MPa)1340/(1.0MPa)1380</t>
+  </si>
+  <si>
+    <t>(0.6MPa)1560/(1.0MPa)1590</t>
+  </si>
+  <si>
+    <t>(0.6MPa)1760/(1.0MPa)1820</t>
+  </si>
+  <si>
+    <t>(0.6MPa)1970/(1.0MPa)2020</t>
+  </si>
+  <si>
+    <t>(0.6MPa)2180/(1.0MPa)2230</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(0.6MPa)2180/(1.0MPa)2230</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(0.6MPa)440/(1.0MPa)445</t>
+  </si>
+  <si>
+    <t>(0.6MPa)490/(1.0MPa)505</t>
+  </si>
+  <si>
+    <t>(0.6MPa)540/(1.0MPa)565</t>
+  </si>
+  <si>
+    <t>(0.6MPa)595/(1.0MPa)615</t>
+  </si>
+  <si>
+    <t>(0.6MPa)645/(1.0MPa)670</t>
+  </si>
+  <si>
+    <t>(0.6MPa)755/(1.0MPa)780</t>
+  </si>
+  <si>
+    <t>(0.6MPa)860/(1.0MPa)895</t>
+  </si>
+  <si>
+    <t>(0.6MPa)975/(1.0MPa)1015</t>
+  </si>
+  <si>
+    <t>(0.6MPa)1075/(1.0MPa)1115</t>
+  </si>
+  <si>
+    <t>(0.6MPa)1175/(1.0MPa)1230</t>
+  </si>
+  <si>
+    <t>(0.6MPa)1405/(1.0MPa1455</t>
+  </si>
+  <si>
+    <t>(0.6MPa)1630/(1.0MPa)1675</t>
+  </si>
+  <si>
+    <t>(0.6MPa)1830/(1.0MPa)1915</t>
+  </si>
+  <si>
+    <t>(0.6MPa)2045/(1.0MPa)2115</t>
+  </si>
+  <si>
+    <t>(0.6MPa)2265/(1.0MPa)2325</t>
+  </si>
+  <si>
+    <t>02S403,页93</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>L=105</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>L=130</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>L=220</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>L=240</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>单法兰管道伸缩接头</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1869,7 +2011,7 @@
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1976,6 +2118,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" quotePrefix="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -5966,10 +6111,11 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6BAEA6C1-241B-48A8-8A43-D44AB165F866}">
-  <dimension ref="A1:I28"/>
+  <dimension ref="A1:I70"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J28" sqref="J28"/>
+      <pane ySplit="1" topLeftCell="A41" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H49" sqref="H49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -6032,13 +6178,13 @@
         <v>367</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="H2" s="1" t="s">
         <v>24</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.2">
@@ -6061,13 +6207,13 @@
         <v>367</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="H3" s="1" t="s">
         <v>24</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.2">
@@ -6090,13 +6236,13 @@
         <v>367</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="H4" s="1" t="s">
         <v>24</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.2">
@@ -6119,13 +6265,13 @@
         <v>367</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="H5" s="1" t="s">
         <v>24</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.2">
@@ -6148,13 +6294,13 @@
         <v>367</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="H6" s="1" t="s">
         <v>24</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.2">
@@ -6177,13 +6323,13 @@
         <v>367</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="H7" s="1" t="s">
         <v>24</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.2">
@@ -6206,13 +6352,13 @@
         <v>367</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="H8" s="1" t="s">
         <v>24</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.2">
@@ -6232,16 +6378,16 @@
         <v>400</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="H9" s="1" t="s">
         <v>24</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.2">
@@ -6261,16 +6407,16 @@
         <v>401</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="H10" s="1" t="s">
         <v>24</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.2">
@@ -6290,16 +6436,16 @@
         <v>402</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="H11" s="1" t="s">
         <v>24</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.2">
@@ -6319,16 +6465,16 @@
         <v>403</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="H12" s="1" t="s">
         <v>24</v>
       </c>
       <c r="I12" s="1" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.2">
@@ -6348,16 +6494,16 @@
         <v>404</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="H13" s="1" t="s">
         <v>24</v>
       </c>
       <c r="I13" s="1" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.2">
@@ -6377,16 +6523,16 @@
         <v>405</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="H14" s="1" t="s">
         <v>24</v>
       </c>
       <c r="I14" s="1" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.2">
@@ -6406,16 +6552,16 @@
         <v>406</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="H15" s="1" t="s">
         <v>24</v>
       </c>
       <c r="I15" s="1" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.2">
@@ -6435,16 +6581,16 @@
         <v>407</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="H16" s="1" t="s">
         <v>24</v>
       </c>
       <c r="I16" s="1" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.2">
@@ -6464,16 +6610,16 @@
         <v>408</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="H17" s="1" t="s">
         <v>24</v>
       </c>
       <c r="I17" s="1" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.2">
@@ -6493,16 +6639,16 @@
         <v>409</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="H18" s="1" t="s">
         <v>24</v>
       </c>
       <c r="I18" s="1" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.2">
@@ -6522,16 +6668,16 @@
         <v>410</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="H19" s="1" t="s">
         <v>24</v>
       </c>
       <c r="I19" s="1" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.2">
@@ -6551,16 +6697,16 @@
         <v>411</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="H20" s="1" t="s">
         <v>24</v>
       </c>
       <c r="I20" s="1" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.2">
@@ -6580,16 +6726,16 @@
         <v>412</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="H21" s="1" t="s">
         <v>24</v>
       </c>
       <c r="I21" s="1" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.2">
@@ -6609,16 +6755,16 @@
         <v>413</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="H22" s="1" t="s">
         <v>24</v>
       </c>
       <c r="I22" s="1" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.2">
@@ -6635,19 +6781,19 @@
         <v>388</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>414</v>
+        <v>449</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="G23" s="1" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="H23" s="1" t="s">
         <v>24</v>
       </c>
       <c r="I23" s="1" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.2">
@@ -6664,19 +6810,19 @@
         <v>389</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="G24" s="1" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="H24" s="1" t="s">
         <v>24</v>
       </c>
       <c r="I24" s="1" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.2">
@@ -6693,19 +6839,19 @@
         <v>390</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="G25" s="1" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="H25" s="1" t="s">
         <v>24</v>
       </c>
       <c r="I25" s="1" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.2">
@@ -6722,19 +6868,19 @@
         <v>391</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="G26" s="1" t="s">
+        <v>425</v>
+      </c>
+      <c r="H26" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="I26" s="1" t="s">
         <v>426</v>
-      </c>
-      <c r="H26" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="I26" s="1" t="s">
-        <v>427</v>
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.2">
@@ -6751,19 +6897,19 @@
         <v>392</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="G27" s="1" t="s">
+        <v>425</v>
+      </c>
+      <c r="H27" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="I27" s="1" t="s">
         <v>426</v>
-      </c>
-      <c r="H27" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="I27" s="1" t="s">
-        <v>427</v>
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.2">
@@ -6780,19 +6926,1237 @@
         <v>393</v>
       </c>
       <c r="E28" s="1" t="s">
+        <v>418</v>
+      </c>
+      <c r="F28" s="1" t="s">
+        <v>421</v>
+      </c>
+      <c r="G28" s="1" t="s">
+        <v>425</v>
+      </c>
+      <c r="H28" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="I28" s="1" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A29" s="25" t="s">
+        <v>427</v>
+      </c>
+      <c r="B29" s="25">
+        <v>300</v>
+      </c>
+      <c r="C29" s="25">
+        <v>325</v>
+      </c>
+      <c r="D29" s="25" t="s">
+        <v>450</v>
+      </c>
+      <c r="E29" s="25" t="s">
+        <v>434</v>
+      </c>
+      <c r="F29" s="25" t="s">
+        <v>429</v>
+      </c>
+      <c r="G29" s="25" t="s">
+        <v>431</v>
+      </c>
+      <c r="H29" s="25" t="s">
+        <v>433</v>
+      </c>
+      <c r="I29" s="25" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A30" s="25" t="s">
+        <v>427</v>
+      </c>
+      <c r="B30" s="25">
+        <v>350</v>
+      </c>
+      <c r="C30" s="25">
+        <v>377</v>
+      </c>
+      <c r="D30" s="25" t="s">
+        <v>451</v>
+      </c>
+      <c r="E30" s="25" t="s">
+        <v>435</v>
+      </c>
+      <c r="F30" s="25" t="s">
+        <v>429</v>
+      </c>
+      <c r="G30" s="25" t="s">
+        <v>431</v>
+      </c>
+      <c r="H30" s="25" t="s">
+        <v>433</v>
+      </c>
+      <c r="I30" s="25" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A31" s="25" t="s">
+        <v>427</v>
+      </c>
+      <c r="B31" s="25">
+        <v>400</v>
+      </c>
+      <c r="C31" s="25">
+        <v>426</v>
+      </c>
+      <c r="D31" s="25" t="s">
+        <v>452</v>
+      </c>
+      <c r="E31" s="25" t="s">
+        <v>436</v>
+      </c>
+      <c r="F31" s="25" t="s">
+        <v>429</v>
+      </c>
+      <c r="G31" s="25" t="s">
+        <v>431</v>
+      </c>
+      <c r="H31" s="25" t="s">
+        <v>433</v>
+      </c>
+      <c r="I31" s="25" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A32" s="25" t="s">
+        <v>427</v>
+      </c>
+      <c r="B32" s="25">
+        <v>450</v>
+      </c>
+      <c r="C32" s="25">
+        <v>480</v>
+      </c>
+      <c r="D32" s="25" t="s">
+        <v>453</v>
+      </c>
+      <c r="E32" s="25" t="s">
+        <v>437</v>
+      </c>
+      <c r="F32" s="25" t="s">
+        <v>429</v>
+      </c>
+      <c r="G32" s="25" t="s">
+        <v>431</v>
+      </c>
+      <c r="H32" s="25" t="s">
+        <v>433</v>
+      </c>
+      <c r="I32" s="25" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A33" s="25" t="s">
+        <v>427</v>
+      </c>
+      <c r="B33" s="25">
+        <v>500</v>
+      </c>
+      <c r="C33" s="25">
+        <v>530</v>
+      </c>
+      <c r="D33" s="25" t="s">
+        <v>454</v>
+      </c>
+      <c r="E33" s="25" t="s">
+        <v>438</v>
+      </c>
+      <c r="F33" s="25" t="s">
+        <v>429</v>
+      </c>
+      <c r="G33" s="25" t="s">
+        <v>431</v>
+      </c>
+      <c r="H33" s="36" t="s">
+        <v>433</v>
+      </c>
+      <c r="I33" s="25" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A34" s="25" t="s">
+        <v>427</v>
+      </c>
+      <c r="B34" s="25">
+        <v>600</v>
+      </c>
+      <c r="C34" s="25">
+        <v>630</v>
+      </c>
+      <c r="D34" s="25" t="s">
+        <v>455</v>
+      </c>
+      <c r="E34" s="25" t="s">
+        <v>439</v>
+      </c>
+      <c r="F34" s="25" t="s">
+        <v>429</v>
+      </c>
+      <c r="G34" s="25" t="s">
+        <v>431</v>
+      </c>
+      <c r="H34" s="25" t="s">
+        <v>433</v>
+      </c>
+      <c r="I34" s="25" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A35" s="25" t="s">
+        <v>427</v>
+      </c>
+      <c r="B35" s="25">
+        <v>700</v>
+      </c>
+      <c r="C35" s="25">
+        <v>720</v>
+      </c>
+      <c r="D35" s="25" t="s">
+        <v>456</v>
+      </c>
+      <c r="E35" s="25" t="s">
+        <v>440</v>
+      </c>
+      <c r="F35" s="25" t="s">
+        <v>429</v>
+      </c>
+      <c r="G35" s="25" t="s">
+        <v>431</v>
+      </c>
+      <c r="H35" s="25" t="s">
+        <v>433</v>
+      </c>
+      <c r="I35" s="25" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A36" s="25" t="s">
+        <v>427</v>
+      </c>
+      <c r="B36" s="25">
+        <v>800</v>
+      </c>
+      <c r="C36" s="25">
+        <v>820</v>
+      </c>
+      <c r="D36" s="25" t="s">
+        <v>457</v>
+      </c>
+      <c r="E36" s="25" t="s">
+        <v>441</v>
+      </c>
+      <c r="F36" s="25" t="s">
+        <v>430</v>
+      </c>
+      <c r="G36" s="25" t="s">
+        <v>432</v>
+      </c>
+      <c r="H36" s="25" t="s">
+        <v>433</v>
+      </c>
+      <c r="I36" s="25" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A37" s="25" t="s">
+        <v>427</v>
+      </c>
+      <c r="B37" s="25">
+        <v>900</v>
+      </c>
+      <c r="C37" s="25">
+        <v>920</v>
+      </c>
+      <c r="D37" s="25" t="s">
+        <v>458</v>
+      </c>
+      <c r="E37" s="25" t="s">
+        <v>442</v>
+      </c>
+      <c r="F37" s="25" t="s">
+        <v>430</v>
+      </c>
+      <c r="G37" s="25" t="s">
+        <v>432</v>
+      </c>
+      <c r="H37" s="25" t="s">
+        <v>433</v>
+      </c>
+      <c r="I37" s="25" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A38" s="25" t="s">
+        <v>427</v>
+      </c>
+      <c r="B38" s="25">
+        <v>1000</v>
+      </c>
+      <c r="C38" s="25">
+        <v>1020</v>
+      </c>
+      <c r="D38" s="25" t="s">
+        <v>459</v>
+      </c>
+      <c r="E38" s="25" t="s">
+        <v>443</v>
+      </c>
+      <c r="F38" s="25" t="s">
+        <v>430</v>
+      </c>
+      <c r="G38" s="25" t="s">
+        <v>432</v>
+      </c>
+      <c r="H38" s="25" t="s">
+        <v>433</v>
+      </c>
+      <c r="I38" s="25" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A39" s="25" t="s">
+        <v>427</v>
+      </c>
+      <c r="B39" s="25">
+        <v>1200</v>
+      </c>
+      <c r="C39" s="25">
+        <v>1220</v>
+      </c>
+      <c r="D39" s="25" t="s">
+        <v>460</v>
+      </c>
+      <c r="E39" s="25" t="s">
+        <v>444</v>
+      </c>
+      <c r="F39" s="25" t="s">
+        <v>430</v>
+      </c>
+      <c r="G39" s="25" t="s">
+        <v>432</v>
+      </c>
+      <c r="H39" s="25" t="s">
+        <v>433</v>
+      </c>
+      <c r="I39" s="25" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A40" s="25" t="s">
+        <v>427</v>
+      </c>
+      <c r="B40" s="25">
+        <v>1400</v>
+      </c>
+      <c r="C40" s="25">
+        <v>1420</v>
+      </c>
+      <c r="D40" s="25" t="s">
+        <v>461</v>
+      </c>
+      <c r="E40" s="25" t="s">
+        <v>445</v>
+      </c>
+      <c r="F40" s="25" t="s">
+        <v>430</v>
+      </c>
+      <c r="G40" s="25" t="s">
+        <v>432</v>
+      </c>
+      <c r="H40" s="25" t="s">
+        <v>433</v>
+      </c>
+      <c r="I40" s="25" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A41" s="25" t="s">
+        <v>427</v>
+      </c>
+      <c r="B41" s="25">
+        <v>1600</v>
+      </c>
+      <c r="C41" s="25">
+        <v>1620</v>
+      </c>
+      <c r="D41" s="25" t="s">
+        <v>462</v>
+      </c>
+      <c r="E41" s="25" t="s">
+        <v>446</v>
+      </c>
+      <c r="F41" s="25" t="s">
+        <v>430</v>
+      </c>
+      <c r="G41" s="25" t="s">
+        <v>432</v>
+      </c>
+      <c r="H41" s="25" t="s">
+        <v>433</v>
+      </c>
+      <c r="I41" s="25" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A42" s="25" t="s">
+        <v>427</v>
+      </c>
+      <c r="B42" s="25">
+        <v>1800</v>
+      </c>
+      <c r="C42" s="25">
+        <v>1820</v>
+      </c>
+      <c r="D42" s="25" t="s">
+        <v>463</v>
+      </c>
+      <c r="E42" s="25" t="s">
+        <v>447</v>
+      </c>
+      <c r="F42" s="25" t="s">
+        <v>430</v>
+      </c>
+      <c r="G42" s="25" t="s">
+        <v>432</v>
+      </c>
+      <c r="H42" s="25" t="s">
+        <v>433</v>
+      </c>
+      <c r="I42" s="25" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A43" s="25" t="s">
+        <v>427</v>
+      </c>
+      <c r="B43" s="25">
+        <v>2000</v>
+      </c>
+      <c r="C43" s="25">
+        <v>2020</v>
+      </c>
+      <c r="D43" s="25" t="s">
+        <v>464</v>
+      </c>
+      <c r="E43" s="25" t="s">
+        <v>448</v>
+      </c>
+      <c r="F43" s="25" t="s">
+        <v>430</v>
+      </c>
+      <c r="G43" s="25" t="s">
+        <v>432</v>
+      </c>
+      <c r="H43" s="25" t="s">
+        <v>433</v>
+      </c>
+      <c r="I43" s="25" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A44" s="14" t="s">
+        <v>470</v>
+      </c>
+      <c r="B44" s="14">
+        <v>65</v>
+      </c>
+      <c r="C44" s="14">
+        <v>76</v>
+      </c>
+      <c r="D44" s="14" t="s">
+        <v>366</v>
+      </c>
+      <c r="E44" s="14" t="s">
+        <v>365</v>
+      </c>
+      <c r="F44" s="14" t="s">
+        <v>367</v>
+      </c>
+      <c r="G44" s="14" t="s">
+        <v>466</v>
+      </c>
+      <c r="H44" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="I44" s="14" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A45" s="14" t="s">
+        <v>470</v>
+      </c>
+      <c r="B45" s="14">
+        <v>80</v>
+      </c>
+      <c r="C45" s="14">
+        <v>89</v>
+      </c>
+      <c r="D45" s="14" t="s">
+        <v>368</v>
+      </c>
+      <c r="E45" s="14" t="s">
+        <v>394</v>
+      </c>
+      <c r="F45" s="14" t="s">
+        <v>367</v>
+      </c>
+      <c r="G45" s="14" t="s">
+        <v>466</v>
+      </c>
+      <c r="H45" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="I45" s="14" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A46" s="14" t="s">
+        <v>470</v>
+      </c>
+      <c r="B46" s="14">
+        <v>100</v>
+      </c>
+      <c r="C46" s="14" t="s">
+        <v>362</v>
+      </c>
+      <c r="D46" s="14" t="s">
+        <v>369</v>
+      </c>
+      <c r="E46" s="14" t="s">
+        <v>395</v>
+      </c>
+      <c r="F46" s="14" t="s">
+        <v>367</v>
+      </c>
+      <c r="G46" s="14" t="s">
+        <v>466</v>
+      </c>
+      <c r="H46" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="I46" s="14" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A47" s="14" t="s">
+        <v>470</v>
+      </c>
+      <c r="B47" s="14">
+        <v>125</v>
+      </c>
+      <c r="C47" s="14" t="s">
+        <v>363</v>
+      </c>
+      <c r="D47" s="14" t="s">
+        <v>370</v>
+      </c>
+      <c r="E47" s="14" t="s">
+        <v>396</v>
+      </c>
+      <c r="F47" s="14" t="s">
+        <v>367</v>
+      </c>
+      <c r="G47" s="14" t="s">
+        <v>466</v>
+      </c>
+      <c r="H47" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="I47" s="14" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A48" s="14" t="s">
+        <v>470</v>
+      </c>
+      <c r="B48" s="14">
+        <v>150</v>
+      </c>
+      <c r="C48" s="14" t="s">
+        <v>364</v>
+      </c>
+      <c r="D48" s="14" t="s">
+        <v>371</v>
+      </c>
+      <c r="E48" s="14" t="s">
+        <v>397</v>
+      </c>
+      <c r="F48" s="14" t="s">
+        <v>367</v>
+      </c>
+      <c r="G48" s="14" t="s">
+        <v>466</v>
+      </c>
+      <c r="H48" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="I48" s="14" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A49" s="14" t="s">
+        <v>470</v>
+      </c>
+      <c r="B49" s="14">
+        <v>200</v>
+      </c>
+      <c r="C49" s="14">
+        <v>219</v>
+      </c>
+      <c r="D49" s="14" t="s">
+        <v>372</v>
+      </c>
+      <c r="E49" s="14" t="s">
+        <v>398</v>
+      </c>
+      <c r="F49" s="14" t="s">
+        <v>367</v>
+      </c>
+      <c r="G49" s="14" t="s">
+        <v>466</v>
+      </c>
+      <c r="H49" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="I49" s="14" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A50" s="14" t="s">
+        <v>470</v>
+      </c>
+      <c r="B50" s="14">
+        <v>250</v>
+      </c>
+      <c r="C50" s="14">
+        <v>273</v>
+      </c>
+      <c r="D50" s="14" t="s">
+        <v>373</v>
+      </c>
+      <c r="E50" s="14" t="s">
+        <v>399</v>
+      </c>
+      <c r="F50" s="14" t="s">
+        <v>367</v>
+      </c>
+      <c r="G50" s="14" t="s">
+        <v>466</v>
+      </c>
+      <c r="H50" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="I50" s="14" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A51" s="14" t="s">
+        <v>470</v>
+      </c>
+      <c r="B51" s="14">
+        <v>300</v>
+      </c>
+      <c r="C51" s="14">
+        <v>325</v>
+      </c>
+      <c r="D51" s="14" t="s">
+        <v>374</v>
+      </c>
+      <c r="E51" s="14" t="s">
+        <v>400</v>
+      </c>
+      <c r="F51" s="14" t="s">
         <v>419</v>
       </c>
-      <c r="F28" s="1" t="s">
-        <v>422</v>
-      </c>
-      <c r="G28" s="1" t="s">
+      <c r="G51" s="14" t="s">
+        <v>467</v>
+      </c>
+      <c r="H51" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="I51" s="14" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A52" s="14" t="s">
+        <v>470</v>
+      </c>
+      <c r="B52" s="14">
+        <v>350</v>
+      </c>
+      <c r="C52" s="14">
+        <v>377</v>
+      </c>
+      <c r="D52" s="14" t="s">
+        <v>375</v>
+      </c>
+      <c r="E52" s="14" t="s">
+        <v>401</v>
+      </c>
+      <c r="F52" s="14" t="s">
+        <v>419</v>
+      </c>
+      <c r="G52" s="14" t="s">
+        <v>467</v>
+      </c>
+      <c r="H52" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="I52" s="14" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A53" s="14" t="s">
+        <v>470</v>
+      </c>
+      <c r="B53" s="14">
+        <v>400</v>
+      </c>
+      <c r="C53" s="14">
         <v>426</v>
       </c>
-      <c r="H28" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="I28" s="1" t="s">
-        <v>427</v>
+      <c r="D53" s="14" t="s">
+        <v>376</v>
+      </c>
+      <c r="E53" s="14" t="s">
+        <v>402</v>
+      </c>
+      <c r="F53" s="14" t="s">
+        <v>419</v>
+      </c>
+      <c r="G53" s="14" t="s">
+        <v>467</v>
+      </c>
+      <c r="H53" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="I53" s="14" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A54" s="14" t="s">
+        <v>470</v>
+      </c>
+      <c r="B54" s="14">
+        <v>450</v>
+      </c>
+      <c r="C54" s="14">
+        <v>480</v>
+      </c>
+      <c r="D54" s="14" t="s">
+        <v>377</v>
+      </c>
+      <c r="E54" s="14" t="s">
+        <v>403</v>
+      </c>
+      <c r="F54" s="14" t="s">
+        <v>419</v>
+      </c>
+      <c r="G54" s="14" t="s">
+        <v>467</v>
+      </c>
+      <c r="H54" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="I54" s="14" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A55" s="14" t="s">
+        <v>470</v>
+      </c>
+      <c r="B55" s="14">
+        <v>500</v>
+      </c>
+      <c r="C55" s="14">
+        <v>530</v>
+      </c>
+      <c r="D55" s="14" t="s">
+        <v>378</v>
+      </c>
+      <c r="E55" s="14" t="s">
+        <v>404</v>
+      </c>
+      <c r="F55" s="14" t="s">
+        <v>419</v>
+      </c>
+      <c r="G55" s="14" t="s">
+        <v>467</v>
+      </c>
+      <c r="H55" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="I55" s="14" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A56" s="14" t="s">
+        <v>470</v>
+      </c>
+      <c r="B56" s="14">
+        <v>600</v>
+      </c>
+      <c r="C56" s="14">
+        <v>630</v>
+      </c>
+      <c r="D56" s="14" t="s">
+        <v>379</v>
+      </c>
+      <c r="E56" s="14" t="s">
+        <v>405</v>
+      </c>
+      <c r="F56" s="14" t="s">
+        <v>419</v>
+      </c>
+      <c r="G56" s="14" t="s">
+        <v>467</v>
+      </c>
+      <c r="H56" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="I56" s="14" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A57" s="14" t="s">
+        <v>470</v>
+      </c>
+      <c r="B57" s="14">
+        <v>700</v>
+      </c>
+      <c r="C57" s="14">
+        <v>720</v>
+      </c>
+      <c r="D57" s="14" t="s">
+        <v>380</v>
+      </c>
+      <c r="E57" s="14" t="s">
+        <v>406</v>
+      </c>
+      <c r="F57" s="14" t="s">
+        <v>419</v>
+      </c>
+      <c r="G57" s="14" t="s">
+        <v>467</v>
+      </c>
+      <c r="H57" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="I57" s="14" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A58" s="14" t="s">
+        <v>470</v>
+      </c>
+      <c r="B58" s="14">
+        <v>800</v>
+      </c>
+      <c r="C58" s="14">
+        <v>820</v>
+      </c>
+      <c r="D58" s="14" t="s">
+        <v>381</v>
+      </c>
+      <c r="E58" s="14" t="s">
+        <v>407</v>
+      </c>
+      <c r="F58" s="14" t="s">
+        <v>420</v>
+      </c>
+      <c r="G58" s="14" t="s">
+        <v>468</v>
+      </c>
+      <c r="H58" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="I58" s="14" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A59" s="14" t="s">
+        <v>470</v>
+      </c>
+      <c r="B59" s="14">
+        <v>900</v>
+      </c>
+      <c r="C59" s="14">
+        <v>920</v>
+      </c>
+      <c r="D59" s="14" t="s">
+        <v>382</v>
+      </c>
+      <c r="E59" s="14" t="s">
+        <v>408</v>
+      </c>
+      <c r="F59" s="14" t="s">
+        <v>420</v>
+      </c>
+      <c r="G59" s="14" t="s">
+        <v>468</v>
+      </c>
+      <c r="H59" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="I59" s="14" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A60" s="14" t="s">
+        <v>470</v>
+      </c>
+      <c r="B60" s="14">
+        <v>1000</v>
+      </c>
+      <c r="C60" s="14">
+        <v>1020</v>
+      </c>
+      <c r="D60" s="14" t="s">
+        <v>384</v>
+      </c>
+      <c r="E60" s="14" t="s">
+        <v>409</v>
+      </c>
+      <c r="F60" s="14" t="s">
+        <v>420</v>
+      </c>
+      <c r="G60" s="14" t="s">
+        <v>468</v>
+      </c>
+      <c r="H60" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="I60" s="14" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A61" s="14" t="s">
+        <v>470</v>
+      </c>
+      <c r="B61" s="14">
+        <v>1200</v>
+      </c>
+      <c r="C61" s="14">
+        <v>1220</v>
+      </c>
+      <c r="D61" s="14" t="s">
+        <v>383</v>
+      </c>
+      <c r="E61" s="14" t="s">
+        <v>410</v>
+      </c>
+      <c r="F61" s="14" t="s">
+        <v>420</v>
+      </c>
+      <c r="G61" s="14" t="s">
+        <v>468</v>
+      </c>
+      <c r="H61" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="I61" s="14" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A62" s="14" t="s">
+        <v>470</v>
+      </c>
+      <c r="B62" s="14">
+        <v>1400</v>
+      </c>
+      <c r="C62" s="14">
+        <v>1420</v>
+      </c>
+      <c r="D62" s="14" t="s">
+        <v>385</v>
+      </c>
+      <c r="E62" s="14" t="s">
+        <v>411</v>
+      </c>
+      <c r="F62" s="14" t="s">
+        <v>420</v>
+      </c>
+      <c r="G62" s="14" t="s">
+        <v>468</v>
+      </c>
+      <c r="H62" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="I62" s="14" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A63" s="14" t="s">
+        <v>470</v>
+      </c>
+      <c r="B63" s="14">
+        <v>1600</v>
+      </c>
+      <c r="C63" s="14">
+        <v>1620</v>
+      </c>
+      <c r="D63" s="14" t="s">
+        <v>386</v>
+      </c>
+      <c r="E63" s="14" t="s">
+        <v>412</v>
+      </c>
+      <c r="F63" s="14" t="s">
+        <v>420</v>
+      </c>
+      <c r="G63" s="14" t="s">
+        <v>468</v>
+      </c>
+      <c r="H63" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="I63" s="14" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A64" s="14" t="s">
+        <v>470</v>
+      </c>
+      <c r="B64" s="14">
+        <v>1800</v>
+      </c>
+      <c r="C64" s="14">
+        <v>1820</v>
+      </c>
+      <c r="D64" s="14" t="s">
+        <v>387</v>
+      </c>
+      <c r="E64" s="14" t="s">
+        <v>413</v>
+      </c>
+      <c r="F64" s="14" t="s">
+        <v>420</v>
+      </c>
+      <c r="G64" s="14" t="s">
+        <v>468</v>
+      </c>
+      <c r="H64" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="I64" s="14" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A65" s="14" t="s">
+        <v>470</v>
+      </c>
+      <c r="B65" s="14">
+        <v>2000</v>
+      </c>
+      <c r="C65" s="14">
+        <v>2020</v>
+      </c>
+      <c r="D65" s="14" t="s">
+        <v>388</v>
+      </c>
+      <c r="E65" s="14" t="s">
+        <v>449</v>
+      </c>
+      <c r="F65" s="14" t="s">
+        <v>420</v>
+      </c>
+      <c r="G65" s="14" t="s">
+        <v>468</v>
+      </c>
+      <c r="H65" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="I65" s="14" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A66" s="14" t="s">
+        <v>470</v>
+      </c>
+      <c r="B66" s="14">
+        <v>2200</v>
+      </c>
+      <c r="C66" s="14">
+        <v>2220</v>
+      </c>
+      <c r="D66" s="14" t="s">
+        <v>389</v>
+      </c>
+      <c r="E66" s="14" t="s">
+        <v>414</v>
+      </c>
+      <c r="F66" s="14" t="s">
+        <v>420</v>
+      </c>
+      <c r="G66" s="14" t="s">
+        <v>468</v>
+      </c>
+      <c r="H66" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="I66" s="14" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A67" s="14" t="s">
+        <v>470</v>
+      </c>
+      <c r="B67" s="14">
+        <v>2400</v>
+      </c>
+      <c r="C67" s="14">
+        <v>2420</v>
+      </c>
+      <c r="D67" s="14" t="s">
+        <v>390</v>
+      </c>
+      <c r="E67" s="14" t="s">
+        <v>415</v>
+      </c>
+      <c r="F67" s="14" t="s">
+        <v>420</v>
+      </c>
+      <c r="G67" s="14" t="s">
+        <v>468</v>
+      </c>
+      <c r="H67" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="I67" s="14" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A68" s="14" t="s">
+        <v>470</v>
+      </c>
+      <c r="B68" s="14">
+        <v>2600</v>
+      </c>
+      <c r="C68" s="14">
+        <v>2620</v>
+      </c>
+      <c r="D68" s="14" t="s">
+        <v>391</v>
+      </c>
+      <c r="E68" s="14" t="s">
+        <v>416</v>
+      </c>
+      <c r="F68" s="14" t="s">
+        <v>421</v>
+      </c>
+      <c r="G68" s="14" t="s">
+        <v>469</v>
+      </c>
+      <c r="H68" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="I68" s="14" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A69" s="14" t="s">
+        <v>470</v>
+      </c>
+      <c r="B69" s="14">
+        <v>2800</v>
+      </c>
+      <c r="C69" s="14">
+        <v>2820</v>
+      </c>
+      <c r="D69" s="14" t="s">
+        <v>392</v>
+      </c>
+      <c r="E69" s="14" t="s">
+        <v>417</v>
+      </c>
+      <c r="F69" s="14" t="s">
+        <v>421</v>
+      </c>
+      <c r="G69" s="14" t="s">
+        <v>469</v>
+      </c>
+      <c r="H69" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="I69" s="14" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A70" s="14" t="s">
+        <v>470</v>
+      </c>
+      <c r="B70" s="14">
+        <v>3000</v>
+      </c>
+      <c r="C70" s="14">
+        <v>3020</v>
+      </c>
+      <c r="D70" s="14" t="s">
+        <v>393</v>
+      </c>
+      <c r="E70" s="14" t="s">
+        <v>418</v>
+      </c>
+      <c r="F70" s="14" t="s">
+        <v>421</v>
+      </c>
+      <c r="G70" s="14" t="s">
+        <v>469</v>
+      </c>
+      <c r="H70" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="I70" s="14" t="s">
+        <v>465</v>
       </c>
     </row>
   </sheetData>

--- a/Base_Data/02S403.xlsx
+++ b/Base_Data/02S403.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\liuyong\Desktop\Criterion-Database\Base_Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9ACBE55-9677-4CB0-B9FB-88397BFF61ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3990AED3-2BAC-4A56-B4C8-88CA7E8B24F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="15" yWindow="570" windowWidth="17175" windowHeight="14415" firstSheet="5" activeTab="10" xr2:uid="{CE243F28-D019-486D-BDD3-986A12970610}"/>
+    <workbookView xWindow="45" yWindow="1155" windowWidth="14175" windowHeight="10650" firstSheet="11" activeTab="12" xr2:uid="{CE243F28-D019-486D-BDD3-986A12970610}"/>
   </bookViews>
   <sheets>
     <sheet name="弯头" sheetId="1" r:id="rId1"/>
@@ -24,6 +24,8 @@
     <sheet name="对焊无缝管件" sheetId="9" r:id="rId9"/>
     <sheet name="椭圆封头" sheetId="10" r:id="rId10"/>
     <sheet name="单法兰管道限位伸缩接头" sheetId="11" r:id="rId11"/>
+    <sheet name="卡箍式柔性管接头" sheetId="12" r:id="rId12"/>
+    <sheet name="弯管型通气管" sheetId="13" r:id="rId13"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -43,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3038" uniqueCount="471">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3815" uniqueCount="842">
   <si>
     <t>DN</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1818,6 +1820,1458 @@
   </si>
   <si>
     <t>单法兰管道伸缩接头</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>瓣数=2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>瓣数=4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>瓣数=6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>瓣数=8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>间隙h=8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>间隙h=20</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>间隙h=14</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>间隙h=30</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>间隙h=63</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>L1=102</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>L1=146</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>L1=182</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>L1=226</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>L1=300</t>
+  </si>
+  <si>
+    <t>L1=351</t>
+  </si>
+  <si>
+    <t>L1=422</t>
+  </si>
+  <si>
+    <t>L1=485</t>
+  </si>
+  <si>
+    <t>L1=585</t>
+  </si>
+  <si>
+    <t>L1=626</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>L1=730</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>L1=815</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>L1=943</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>L1=1042</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>L1=1144</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>L1=1346</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>L1=1559</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>L1=1752</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>L1=1974</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>L1=2177</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>L1=2376</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>L1=2613</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>L1=2824</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>L1=2784</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>L1=3210</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>L2=132</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>L2=188</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>L2=238</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>L2=280</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>L2=354</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>L2=405</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>L2=478</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>L2=545</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>L2=655</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>L2=690</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>L2=798</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>L2=883</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>L2=1023</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>L2=1122</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>L2=1426</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>L2=1643</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>L2=1836</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>L2=2058</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>L2=2260</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>L2=2460</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>L2=2863</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>L2=3034</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>L2=3460</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>02S403,页94</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>02S403,页95</t>
+  </si>
+  <si>
+    <t>02S403,页96</t>
+  </si>
+  <si>
+    <t>02S403,页97</t>
+  </si>
+  <si>
+    <t>02S403,页101</t>
+  </si>
+  <si>
+    <t>02S403,页102</t>
+  </si>
+  <si>
+    <t>间隙h=5</t>
+  </si>
+  <si>
+    <t>间隙h=5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>L1=87</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>L1=144</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>L1=148</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>L2=144</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>L2=180</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>L2=223</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>间隙h=6</t>
+  </si>
+  <si>
+    <t>间隙h=6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>间隙h=7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>L1=108</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>L1=136</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>L1=168</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>L1=220</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>L1=284</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>L2=138</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>L2=166</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>L2=200</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>L2=254</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>L2=326</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>卡箍式柔性管接头H型(6.4MPa)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>卡箍式柔性管接头H型(4.0/6.4/10MPa)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>卡箍式柔性管接头H型(4.0/6.4MPa)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>卡箍式柔性管接头H型(4.0MPa)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>卡箍式柔性管接头H型(2.5MPa)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>卡箍式柔性管接头H型(1.6/2.5MPa)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>卡箍式柔性管接头H型(1.6MPa)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>卡箍式柔性管接头H型(1.0/1.6MPa)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>卡箍式柔性管接头H型(1.0MPa)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>卡箍式柔性管接头H型(0.6/1.0MPa)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>卡箍式柔性管接头H型(0.6MPa)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>卡箍式柔性管接头H型(0.4/0.6MPa)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>卡箍式柔性管接头H型(0.4MPa)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>卡箍式柔性管接头L型(2.5/4.0MPa)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>卡箍式柔性管接头F型(2.0MPa)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>卡箍式柔性管接头F型(1.0MPa)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>卡箍式柔性管接头J型(6.4MPa)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>间隙h=4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>间隙h=10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>L1=124</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>L1=176</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>L1=190</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>L1=196</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>L1=227</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>L1=239</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>L1=272</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>L1=310</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>L1=371</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>L1=427</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>L1=486</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>L1=532</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>L1=586</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>L1=647</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>L1=760</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>L1=850</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>L1=956</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>L1=1060</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>L1=1160</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>L1=134</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>L2=154</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>L2=164</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>L2=210</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>L2=224</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>L2=232</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>L2=281</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>L2=277</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>L2=316</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>L2=360</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>L2=435</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>L2=491</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>L2=550</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>L2=602</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>L2=656</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>L2=717</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>L2=846</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>L2=936</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>L2=1042</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>L2=1146</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>L2=1240</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>卡箍式柔性管接头J型(4.0/6.4MPa)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>卡箍式柔性管接头J型(4.0MPa)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>卡箍式柔性管接头J型(2.5/4.0MPa)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>卡箍式柔性管接头J型(2.5MPa)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>卡箍式柔性管接头J型(1.6/2.5MPa)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>卡箍式柔性管接头J型(1.6MPa)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>弯管型通气管W-100/H1=0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>弯管型通气管W-100/H1=500</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>弯管型通气管W-100/H1=1000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>弯管型通气管W-150/H1=0</t>
+  </si>
+  <si>
+    <t>弯管型通气管W-150/H1=500</t>
+  </si>
+  <si>
+    <t>弯管型通气管W-150/H1=1000</t>
+  </si>
+  <si>
+    <t>弯管型通气管W-200/H1=0</t>
+  </si>
+  <si>
+    <t>弯管型通气管W-200/H1=500</t>
+  </si>
+  <si>
+    <t>弯管型通气管W-200/H1=1000</t>
+  </si>
+  <si>
+    <t>H=1020</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>H=1520</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>H=2020</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>H=1102.5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>H=1602.5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>H=2102.5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>H=1180</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>H=1680</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>H=2180</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>L=508</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>L=659</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>L=819</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>b=7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>b=8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>b=9</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>02S403,页98,99</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>立管W-100/H1=0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>立管W-100/H1=500</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>立管W-100/H1=1000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>立管W-150/H1=0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>立管W-150/H1=500</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>立管W-150/H1=1000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>立管W-200/H1=0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>立管W-200/H1=500</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>立管W-200/H1=1000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Hg=750</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Hg=1250</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Hg=1750</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>L0=200/R=160</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>L0=250/R=210</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>L0=300/R=260</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>02S403,页100</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>凸面法兰弯头W-100</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>凸面法兰弯头W-150</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>凸面法兰弯头W-200</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>四面法兰W-100</t>
+  </si>
+  <si>
+    <t>四面法兰W-150</t>
+  </si>
+  <si>
+    <t>四面法兰W-200</t>
+  </si>
+  <si>
+    <t>凸面法兰W-100</t>
+  </si>
+  <si>
+    <t>凸面法兰W-150</t>
+  </si>
+  <si>
+    <t>凸面法兰W-200</t>
+  </si>
+  <si>
+    <t>D4=140</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>D4=200</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>D4=256</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>D4=139</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>D4=199</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>D4=255</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>R=68</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>R=98</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>R=126</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>罩型通气管Z-200(0.172m3/s)/H3=0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>罩型通气管Z-200(0.172m3/s)/H3=500</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>罩型通气管Z-200(0.172m3/s)/H3=1000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>罩型通气管Z-300(0.385m3/s)/H3=0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>罩型通气管Z-300(0.385m3/s)/H3=500</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>罩型通气管Z-300(0.385m3/s)/H3=1000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>罩型通气管Z-400(0.673m3/s)/H3=0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>罩型通气管Z-400(0.673m3/s)/H3=500</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>罩型通气管Z-400(0.673m3/s)/H3=1000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>罩型通气管Z-600(1.48m3/s)/H3=0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>罩型通气管Z-600(1.48m3/s)/H3=500</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>罩型通气管Z-600(1.48m3/s)/H3=1000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>H=890</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>H=1380</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>H=1890</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>H=1000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>H=1500</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>H=2000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>H=1120</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>H=1620</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>H=2120</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>H=1450</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>H=1950</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>H=2450</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>H1=340/H2=200</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>H1=450/H2=300</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>H1=570/H2=400</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>H1=900/H2=700</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>02S403,页103~104</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>02S403,页105~106</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>立管Z-200/H3=0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>立管Z-200/H3=500</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>立管Z-200/H3=1000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>立管Z-300/H3=0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>立管Z-300/H3=500</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>立管Z-300/H3=1000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>立管Z-400/H3=0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>立管Z-400/H3=500</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>立管Z-400/H3=1000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>立管Z-600/H3=0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>立管Z-600/H3=500</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>立管Z-600/H3=1000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Hg=600</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Hg=1100</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Hg=1600</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>L1=104</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>L1=147</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>L1=195</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>L2=52</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>L2=47.5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>L2=51</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>L2=45</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>02S403,页107~108</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>内罩Z-200</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>内罩Z-300</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>内罩Z-400</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>内罩Z-600</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>H=200/h=16</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>H=300/h=24</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>H=400/h=18</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>H=700/h=14</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>外罩Z-200</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>外罩Z-300</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>外罩Z-400</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>外罩Z-600</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>H1=340/H2=300</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>H1=450/H2=400</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>H1=570/H2=500</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>H1=900/H2=800</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>02S403,页109</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>吸水喇叭管DN100x6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>02S403,页110~111</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>吸水喇叭管DN150x6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>吸水喇叭管DN200x6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>吸水喇叭管DN250x6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>吸水喇叭管DN300x6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>吸水喇叭管DN500x8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>吸水喇叭管DN400x8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>吸水喇叭管DN600x10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>吸水喇叭管DN700x10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>吸水喇叭管DN800x10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>吸水喇叭管DN900x10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>吸水喇叭管DN1000x10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>吸水喇叭管DN1200x12</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>吸水喇叭管DN1400x12</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>H=110</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>H=160</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>H=210</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>H=270</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>H=330</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>H=400</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>H=600</t>
+  </si>
+  <si>
+    <t>H=700</t>
+  </si>
+  <si>
+    <t>H=800</t>
+  </si>
+  <si>
+    <t>H=900</t>
+  </si>
+  <si>
+    <t>H=1000</t>
+  </si>
+  <si>
+    <t>H=500</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>H=1150</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>H=1300</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>02S403,页112</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>02S403,页113</t>
+  </si>
+  <si>
+    <t>02S403,页114</t>
+  </si>
+  <si>
+    <t>02S403,页115~116</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ø180</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ø265</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ø345</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>吸水喇叭管支架(A型)ZA1(ø108xø159)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ø100</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ø250</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ø210</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ø320</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ø400</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ø460</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ø540</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>H=454</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>H=456</t>
+  </si>
+  <si>
+    <t>吸水喇叭管支架(A型)ZA2(ø159xø245)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>吸水喇叭管支架(A型)ZA3(ø219xø325)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>吸水喇叭管支架(B型)ZB1(ø273xø400)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>吸水喇叭管支架(B型)ZB2(ø325xø478)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>吸水喇叭管支架(B型)ZB3(ø426xø630)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ø425</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ø500</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ø650</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ø325</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ø550</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>H=458</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>H=558</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>吸水喇叭管支架(C型)ZC1(ø529xø770)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>吸水喇叭管支架(C型)ZC2(ø630xø880)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>吸水喇叭管支架(C型)ZC3(ø720xø980)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ø800</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ø900</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ø1010</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ø700</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>H=662</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>H=712</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>H=732</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>吸水喇叭管支架(D型)ZD1(ø720xø980)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>吸水喇叭管支架(D型)ZD2(ø820xø1120)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>吸水喇叭管支架(D型)ZD3(ø920xø1220)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>吸水喇叭管支架(D型)ZD4(ø1020xø1350)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>吸水喇叭管支架(D型)ZD5(ø1120xø1620)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>吸水喇叭管支架(D型)ZD6(ø1420xø1880)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ø1030</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ø1170</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ø1270</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ø1400</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ø1670</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ø1930</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>H=700</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>H=730</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>H=780</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>H=830</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>H=1030</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>L=1046</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>L=1186</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>L=1286</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>L=1416</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>L=1686</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>L=1946</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1910,7 +3364,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="15">
+  <fills count="23">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1995,6 +3449,54 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="-0.499984740745262"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -2011,7 +3513,7 @@
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="57">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2122,6 +3624,66 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" quotePrefix="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" quotePrefix="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -5686,7 +7248,7 @@
   <dimension ref="A1:I14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G18" sqref="G18"/>
+      <selection activeCell="I14" sqref="I14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -6113,9 +7675,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6BAEA6C1-241B-48A8-8A43-D44AB165F866}">
   <dimension ref="A1:I70"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A41" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H49" sqref="H49"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I70" sqref="I70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -8157,6 +9719,4284 @@
       </c>
       <c r="I70" s="14" t="s">
         <v>465</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" copies="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{012EDE00-9260-4A20-B734-82A6D7247695}">
+  <dimension ref="A1:I57"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A38" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I57" sqref="I57"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="31.5" style="1" customWidth="1"/>
+    <col min="2" max="2" width="7.375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="6.875" style="1" customWidth="1"/>
+    <col min="4" max="4" width="8.25" style="1" customWidth="1"/>
+    <col min="5" max="7" width="9" style="1"/>
+    <col min="8" max="8" width="7.5" style="1" customWidth="1"/>
+    <col min="9" max="9" width="13.875" style="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A2" s="25" t="s">
+        <v>555</v>
+      </c>
+      <c r="B2" s="25">
+        <v>50</v>
+      </c>
+      <c r="C2" s="25">
+        <v>60.3</v>
+      </c>
+      <c r="D2" s="25" t="s">
+        <v>471</v>
+      </c>
+      <c r="E2" s="25" t="s">
+        <v>475</v>
+      </c>
+      <c r="F2" s="25" t="s">
+        <v>480</v>
+      </c>
+      <c r="G2" s="25" t="s">
+        <v>505</v>
+      </c>
+      <c r="H2" s="25">
+        <v>2</v>
+      </c>
+      <c r="I2" s="25" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A3" s="25" t="s">
+        <v>555</v>
+      </c>
+      <c r="B3" s="25">
+        <v>80</v>
+      </c>
+      <c r="C3" s="25">
+        <v>89</v>
+      </c>
+      <c r="D3" s="25" t="s">
+        <v>471</v>
+      </c>
+      <c r="E3" s="25" t="s">
+        <v>476</v>
+      </c>
+      <c r="F3" s="25" t="s">
+        <v>481</v>
+      </c>
+      <c r="G3" s="25" t="s">
+        <v>506</v>
+      </c>
+      <c r="H3" s="25">
+        <v>7.3</v>
+      </c>
+      <c r="I3" s="25" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A4" s="25" t="s">
+        <v>555</v>
+      </c>
+      <c r="B4" s="25">
+        <v>100</v>
+      </c>
+      <c r="C4" s="25">
+        <v>108</v>
+      </c>
+      <c r="D4" s="25" t="s">
+        <v>471</v>
+      </c>
+      <c r="E4" s="25" t="s">
+        <v>476</v>
+      </c>
+      <c r="F4" s="25" t="s">
+        <v>482</v>
+      </c>
+      <c r="G4" s="25" t="s">
+        <v>507</v>
+      </c>
+      <c r="H4" s="25">
+        <v>9</v>
+      </c>
+      <c r="I4" s="25" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A5" s="25" t="s">
+        <v>555</v>
+      </c>
+      <c r="B5" s="25">
+        <v>150</v>
+      </c>
+      <c r="C5" s="25">
+        <v>159</v>
+      </c>
+      <c r="D5" s="25" t="s">
+        <v>471</v>
+      </c>
+      <c r="E5" s="25" t="s">
+        <v>477</v>
+      </c>
+      <c r="F5" s="25" t="s">
+        <v>483</v>
+      </c>
+      <c r="G5" s="25" t="s">
+        <v>508</v>
+      </c>
+      <c r="H5" s="25">
+        <v>9.8000000000000007</v>
+      </c>
+      <c r="I5" s="25" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A6" s="25" t="s">
+        <v>556</v>
+      </c>
+      <c r="B6" s="25">
+        <v>200</v>
+      </c>
+      <c r="C6" s="25">
+        <v>219</v>
+      </c>
+      <c r="D6" s="25" t="s">
+        <v>471</v>
+      </c>
+      <c r="E6" s="25" t="s">
+        <v>476</v>
+      </c>
+      <c r="F6" s="25" t="s">
+        <v>484</v>
+      </c>
+      <c r="G6" s="25" t="s">
+        <v>509</v>
+      </c>
+      <c r="H6" s="25">
+        <v>20.8</v>
+      </c>
+      <c r="I6" s="25" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A7" s="25" t="s">
+        <v>557</v>
+      </c>
+      <c r="B7" s="25">
+        <v>250</v>
+      </c>
+      <c r="C7" s="25">
+        <v>273</v>
+      </c>
+      <c r="D7" s="25" t="s">
+        <v>471</v>
+      </c>
+      <c r="E7" s="25" t="s">
+        <v>476</v>
+      </c>
+      <c r="F7" s="25" t="s">
+        <v>485</v>
+      </c>
+      <c r="G7" s="25" t="s">
+        <v>510</v>
+      </c>
+      <c r="H7" s="25">
+        <v>24.8</v>
+      </c>
+      <c r="I7" s="25" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A8" s="25" t="s">
+        <v>558</v>
+      </c>
+      <c r="B8" s="25">
+        <v>300</v>
+      </c>
+      <c r="C8" s="25">
+        <v>325</v>
+      </c>
+      <c r="D8" s="25" t="s">
+        <v>471</v>
+      </c>
+      <c r="E8" s="25" t="s">
+        <v>476</v>
+      </c>
+      <c r="F8" s="25" t="s">
+        <v>486</v>
+      </c>
+      <c r="G8" s="25" t="s">
+        <v>511</v>
+      </c>
+      <c r="H8" s="25">
+        <v>33</v>
+      </c>
+      <c r="I8" s="25" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A9" s="25" t="s">
+        <v>558</v>
+      </c>
+      <c r="B9" s="25">
+        <v>400</v>
+      </c>
+      <c r="C9" s="25">
+        <v>426</v>
+      </c>
+      <c r="D9" s="25" t="s">
+        <v>471</v>
+      </c>
+      <c r="E9" s="25" t="s">
+        <v>476</v>
+      </c>
+      <c r="F9" s="25" t="s">
+        <v>487</v>
+      </c>
+      <c r="G9" s="25" t="s">
+        <v>512</v>
+      </c>
+      <c r="H9" s="25">
+        <v>45.5</v>
+      </c>
+      <c r="I9" s="25" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A10" s="25" t="s">
+        <v>558</v>
+      </c>
+      <c r="B10" s="25">
+        <v>450</v>
+      </c>
+      <c r="C10" s="25">
+        <v>480</v>
+      </c>
+      <c r="D10" s="25" t="s">
+        <v>471</v>
+      </c>
+      <c r="E10" s="25" t="s">
+        <v>476</v>
+      </c>
+      <c r="F10" s="25" t="s">
+        <v>488</v>
+      </c>
+      <c r="G10" s="25" t="s">
+        <v>513</v>
+      </c>
+      <c r="H10" s="25">
+        <v>65</v>
+      </c>
+      <c r="I10" s="25" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A11" s="25" t="s">
+        <v>558</v>
+      </c>
+      <c r="B11" s="25">
+        <v>500</v>
+      </c>
+      <c r="C11" s="25">
+        <v>530</v>
+      </c>
+      <c r="D11" s="25" t="s">
+        <v>471</v>
+      </c>
+      <c r="E11" s="25" t="s">
+        <v>476</v>
+      </c>
+      <c r="F11" s="25" t="s">
+        <v>489</v>
+      </c>
+      <c r="G11" s="25" t="s">
+        <v>514</v>
+      </c>
+      <c r="H11" s="25">
+        <v>68</v>
+      </c>
+      <c r="I11" s="25" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A12" s="25" t="s">
+        <v>559</v>
+      </c>
+      <c r="B12" s="25">
+        <v>600</v>
+      </c>
+      <c r="C12" s="25">
+        <v>630</v>
+      </c>
+      <c r="D12" s="25" t="s">
+        <v>472</v>
+      </c>
+      <c r="E12" s="25" t="s">
+        <v>478</v>
+      </c>
+      <c r="F12" s="25" t="s">
+        <v>490</v>
+      </c>
+      <c r="G12" s="25" t="s">
+        <v>515</v>
+      </c>
+      <c r="H12" s="25">
+        <v>98.5</v>
+      </c>
+      <c r="I12" s="25" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A13" s="25" t="s">
+        <v>559</v>
+      </c>
+      <c r="B13" s="25">
+        <v>700</v>
+      </c>
+      <c r="C13" s="25">
+        <v>720</v>
+      </c>
+      <c r="D13" s="25" t="s">
+        <v>472</v>
+      </c>
+      <c r="E13" s="25" t="s">
+        <v>478</v>
+      </c>
+      <c r="F13" s="25" t="s">
+        <v>491</v>
+      </c>
+      <c r="G13" s="25" t="s">
+        <v>516</v>
+      </c>
+      <c r="H13" s="25">
+        <v>109</v>
+      </c>
+      <c r="I13" s="25" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A14" s="25" t="s">
+        <v>560</v>
+      </c>
+      <c r="B14" s="25">
+        <v>800</v>
+      </c>
+      <c r="C14" s="25">
+        <v>820</v>
+      </c>
+      <c r="D14" s="25" t="s">
+        <v>472</v>
+      </c>
+      <c r="E14" s="25" t="s">
+        <v>478</v>
+      </c>
+      <c r="F14" s="25" t="s">
+        <v>492</v>
+      </c>
+      <c r="G14" s="25" t="s">
+        <v>517</v>
+      </c>
+      <c r="H14" s="25">
+        <v>129</v>
+      </c>
+      <c r="I14" s="25" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A15" s="25" t="s">
+        <v>561</v>
+      </c>
+      <c r="B15" s="25">
+        <v>900</v>
+      </c>
+      <c r="C15" s="25">
+        <v>920</v>
+      </c>
+      <c r="D15" s="25" t="s">
+        <v>472</v>
+      </c>
+      <c r="E15" s="25" t="s">
+        <v>478</v>
+      </c>
+      <c r="F15" s="25" t="s">
+        <v>493</v>
+      </c>
+      <c r="G15" s="25" t="s">
+        <v>518</v>
+      </c>
+      <c r="H15" s="25">
+        <v>140</v>
+      </c>
+      <c r="I15" s="25" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A16" s="25" t="s">
+        <v>562</v>
+      </c>
+      <c r="B16" s="25">
+        <v>1000</v>
+      </c>
+      <c r="C16" s="25">
+        <v>1020</v>
+      </c>
+      <c r="D16" s="25" t="s">
+        <v>473</v>
+      </c>
+      <c r="E16" s="25" t="s">
+        <v>478</v>
+      </c>
+      <c r="F16" s="25" t="s">
+        <v>494</v>
+      </c>
+      <c r="G16" s="25" t="s">
+        <v>519</v>
+      </c>
+      <c r="H16" s="25">
+        <v>206</v>
+      </c>
+      <c r="I16" s="25" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A17" s="25" t="s">
+        <v>563</v>
+      </c>
+      <c r="B17" s="25">
+        <v>1200</v>
+      </c>
+      <c r="C17" s="25">
+        <v>1220</v>
+      </c>
+      <c r="D17" s="25" t="s">
+        <v>473</v>
+      </c>
+      <c r="E17" s="25" t="s">
+        <v>478</v>
+      </c>
+      <c r="F17" s="25" t="s">
+        <v>495</v>
+      </c>
+      <c r="G17" s="25" t="s">
+        <v>519</v>
+      </c>
+      <c r="H17" s="25">
+        <v>240</v>
+      </c>
+      <c r="I17" s="25" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A18" s="25" t="s">
+        <v>563</v>
+      </c>
+      <c r="B18" s="25">
+        <v>1400</v>
+      </c>
+      <c r="C18" s="25">
+        <v>1420</v>
+      </c>
+      <c r="D18" s="25" t="s">
+        <v>473</v>
+      </c>
+      <c r="E18" s="25" t="s">
+        <v>478</v>
+      </c>
+      <c r="F18" s="25" t="s">
+        <v>496</v>
+      </c>
+      <c r="G18" s="25" t="s">
+        <v>520</v>
+      </c>
+      <c r="H18" s="25">
+        <v>314</v>
+      </c>
+      <c r="I18" s="25" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A19" s="25" t="s">
+        <v>563</v>
+      </c>
+      <c r="B19" s="25">
+        <v>1600</v>
+      </c>
+      <c r="C19" s="25">
+        <v>1620</v>
+      </c>
+      <c r="D19" s="25" t="s">
+        <v>473</v>
+      </c>
+      <c r="E19" s="25" t="s">
+        <v>478</v>
+      </c>
+      <c r="F19" s="25" t="s">
+        <v>497</v>
+      </c>
+      <c r="G19" s="25" t="s">
+        <v>521</v>
+      </c>
+      <c r="H19" s="25">
+        <v>342</v>
+      </c>
+      <c r="I19" s="25" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A20" s="25" t="s">
+        <v>563</v>
+      </c>
+      <c r="B20" s="25">
+        <v>1800</v>
+      </c>
+      <c r="C20" s="25">
+        <v>1820</v>
+      </c>
+      <c r="D20" s="25" t="s">
+        <v>473</v>
+      </c>
+      <c r="E20" s="25" t="s">
+        <v>478</v>
+      </c>
+      <c r="F20" s="25" t="s">
+        <v>498</v>
+      </c>
+      <c r="G20" s="25" t="s">
+        <v>522</v>
+      </c>
+      <c r="H20" s="25">
+        <v>380</v>
+      </c>
+      <c r="I20" s="25" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A21" s="25" t="s">
+        <v>563</v>
+      </c>
+      <c r="B21" s="25">
+        <v>1800</v>
+      </c>
+      <c r="C21" s="25">
+        <v>1840</v>
+      </c>
+      <c r="D21" s="25" t="s">
+        <v>473</v>
+      </c>
+      <c r="E21" s="25" t="s">
+        <v>478</v>
+      </c>
+      <c r="F21" s="25" t="s">
+        <v>498</v>
+      </c>
+      <c r="G21" s="25" t="s">
+        <v>522</v>
+      </c>
+      <c r="H21" s="25">
+        <v>392</v>
+      </c>
+      <c r="I21" s="25" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A22" s="25" t="s">
+        <v>564</v>
+      </c>
+      <c r="B22" s="25">
+        <v>2000</v>
+      </c>
+      <c r="C22" s="25">
+        <v>2020</v>
+      </c>
+      <c r="D22" s="25" t="s">
+        <v>474</v>
+      </c>
+      <c r="E22" s="25" t="s">
+        <v>478</v>
+      </c>
+      <c r="F22" s="25" t="s">
+        <v>499</v>
+      </c>
+      <c r="G22" s="25" t="s">
+        <v>523</v>
+      </c>
+      <c r="H22" s="25">
+        <v>412</v>
+      </c>
+      <c r="I22" s="25" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A23" s="25" t="s">
+        <v>564</v>
+      </c>
+      <c r="B23" s="25">
+        <v>2000</v>
+      </c>
+      <c r="C23" s="25">
+        <v>2040</v>
+      </c>
+      <c r="D23" s="25" t="s">
+        <v>474</v>
+      </c>
+      <c r="E23" s="25" t="s">
+        <v>478</v>
+      </c>
+      <c r="F23" s="25" t="s">
+        <v>499</v>
+      </c>
+      <c r="G23" s="25" t="s">
+        <v>523</v>
+      </c>
+      <c r="H23" s="25">
+        <v>431</v>
+      </c>
+      <c r="I23" s="25" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A24" s="25" t="s">
+        <v>565</v>
+      </c>
+      <c r="B24" s="25">
+        <v>2200</v>
+      </c>
+      <c r="C24" s="25">
+        <v>2220</v>
+      </c>
+      <c r="D24" s="25" t="s">
+        <v>474</v>
+      </c>
+      <c r="E24" s="25" t="s">
+        <v>478</v>
+      </c>
+      <c r="F24" s="25" t="s">
+        <v>500</v>
+      </c>
+      <c r="G24" s="25" t="s">
+        <v>524</v>
+      </c>
+      <c r="H24" s="25">
+        <v>556</v>
+      </c>
+      <c r="I24" s="25" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A25" s="25" t="s">
+        <v>565</v>
+      </c>
+      <c r="B25" s="25">
+        <v>2200</v>
+      </c>
+      <c r="C25" s="25">
+        <v>2240</v>
+      </c>
+      <c r="D25" s="25" t="s">
+        <v>474</v>
+      </c>
+      <c r="E25" s="25" t="s">
+        <v>478</v>
+      </c>
+      <c r="F25" s="25" t="s">
+        <v>500</v>
+      </c>
+      <c r="G25" s="25" t="s">
+        <v>524</v>
+      </c>
+      <c r="H25" s="25">
+        <v>562</v>
+      </c>
+      <c r="I25" s="25" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A26" s="25" t="s">
+        <v>566</v>
+      </c>
+      <c r="B26" s="25">
+        <v>2400</v>
+      </c>
+      <c r="C26" s="25">
+        <v>2420</v>
+      </c>
+      <c r="D26" s="25" t="s">
+        <v>472</v>
+      </c>
+      <c r="E26" s="25" t="s">
+        <v>479</v>
+      </c>
+      <c r="F26" s="25" t="s">
+        <v>501</v>
+      </c>
+      <c r="G26" s="25" t="s">
+        <v>525</v>
+      </c>
+      <c r="H26" s="25">
+        <v>799</v>
+      </c>
+      <c r="I26" s="25" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A27" s="25" t="s">
+        <v>566</v>
+      </c>
+      <c r="B27" s="25">
+        <v>2600</v>
+      </c>
+      <c r="C27" s="25">
+        <v>2620</v>
+      </c>
+      <c r="D27" s="25" t="s">
+        <v>472</v>
+      </c>
+      <c r="E27" s="25" t="s">
+        <v>479</v>
+      </c>
+      <c r="F27" s="25" t="s">
+        <v>502</v>
+      </c>
+      <c r="G27" s="25" t="s">
+        <v>522</v>
+      </c>
+      <c r="H27" s="25">
+        <v>865</v>
+      </c>
+      <c r="I27" s="25" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A28" s="25" t="s">
+        <v>566</v>
+      </c>
+      <c r="B28" s="25">
+        <v>2800</v>
+      </c>
+      <c r="C28" s="25">
+        <v>2820</v>
+      </c>
+      <c r="D28" s="25" t="s">
+        <v>472</v>
+      </c>
+      <c r="E28" s="25" t="s">
+        <v>479</v>
+      </c>
+      <c r="F28" s="25" t="s">
+        <v>503</v>
+      </c>
+      <c r="G28" s="25" t="s">
+        <v>526</v>
+      </c>
+      <c r="H28" s="25">
+        <v>931</v>
+      </c>
+      <c r="I28" s="25" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A29" s="25" t="s">
+        <v>567</v>
+      </c>
+      <c r="B29" s="25">
+        <v>3000</v>
+      </c>
+      <c r="C29" s="25">
+        <v>3020</v>
+      </c>
+      <c r="D29" s="25" t="s">
+        <v>472</v>
+      </c>
+      <c r="E29" s="25" t="s">
+        <v>479</v>
+      </c>
+      <c r="F29" s="25" t="s">
+        <v>504</v>
+      </c>
+      <c r="G29" s="25" t="s">
+        <v>527</v>
+      </c>
+      <c r="H29" s="25">
+        <v>1127</v>
+      </c>
+      <c r="I29" s="25" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A30" s="37" t="s">
+        <v>568</v>
+      </c>
+      <c r="B30" s="37">
+        <v>50</v>
+      </c>
+      <c r="C30" s="37">
+        <v>60.3</v>
+      </c>
+      <c r="D30" s="37" t="s">
+        <v>24</v>
+      </c>
+      <c r="E30" s="37" t="s">
+        <v>535</v>
+      </c>
+      <c r="F30" s="37" t="s">
+        <v>536</v>
+      </c>
+      <c r="G30" s="37" t="s">
+        <v>539</v>
+      </c>
+      <c r="H30" s="37">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="I30" s="37" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A31" s="37" t="s">
+        <v>568</v>
+      </c>
+      <c r="B31" s="37">
+        <v>80</v>
+      </c>
+      <c r="C31" s="37">
+        <v>89</v>
+      </c>
+      <c r="D31" s="37" t="s">
+        <v>24</v>
+      </c>
+      <c r="E31" s="37" t="s">
+        <v>535</v>
+      </c>
+      <c r="F31" s="37" t="s">
+        <v>537</v>
+      </c>
+      <c r="G31" s="37" t="s">
+        <v>540</v>
+      </c>
+      <c r="H31" s="37">
+        <v>3.3</v>
+      </c>
+      <c r="I31" s="37" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A32" s="37" t="s">
+        <v>568</v>
+      </c>
+      <c r="B32" s="37">
+        <v>100</v>
+      </c>
+      <c r="C32" s="37">
+        <v>114.3</v>
+      </c>
+      <c r="D32" s="37" t="s">
+        <v>24</v>
+      </c>
+      <c r="E32" s="37" t="s">
+        <v>479</v>
+      </c>
+      <c r="F32" s="37" t="s">
+        <v>538</v>
+      </c>
+      <c r="G32" s="37" t="s">
+        <v>541</v>
+      </c>
+      <c r="H32" s="37">
+        <v>4.3</v>
+      </c>
+      <c r="I32" s="37" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A33" s="38" t="s">
+        <v>569</v>
+      </c>
+      <c r="B33" s="38">
+        <v>50</v>
+      </c>
+      <c r="C33" s="38">
+        <v>60.3</v>
+      </c>
+      <c r="D33" s="38"/>
+      <c r="E33" s="38" t="s">
+        <v>535</v>
+      </c>
+      <c r="F33" s="38" t="s">
+        <v>545</v>
+      </c>
+      <c r="G33" s="38" t="s">
+        <v>550</v>
+      </c>
+      <c r="H33" s="38">
+        <v>2.4</v>
+      </c>
+      <c r="I33" s="38" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A34" s="38" t="s">
+        <v>569</v>
+      </c>
+      <c r="B34" s="38">
+        <v>80</v>
+      </c>
+      <c r="C34" s="38">
+        <v>89</v>
+      </c>
+      <c r="D34" s="38"/>
+      <c r="E34" s="38" t="s">
+        <v>535</v>
+      </c>
+      <c r="F34" s="38" t="s">
+        <v>546</v>
+      </c>
+      <c r="G34" s="38" t="s">
+        <v>551</v>
+      </c>
+      <c r="H34" s="38">
+        <v>3.3</v>
+      </c>
+      <c r="I34" s="38" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A35" s="38" t="s">
+        <v>569</v>
+      </c>
+      <c r="B35" s="38">
+        <v>100</v>
+      </c>
+      <c r="C35" s="38">
+        <v>114.3</v>
+      </c>
+      <c r="D35" s="38"/>
+      <c r="E35" s="38" t="s">
+        <v>543</v>
+      </c>
+      <c r="F35" s="38" t="s">
+        <v>547</v>
+      </c>
+      <c r="G35" s="38" t="s">
+        <v>552</v>
+      </c>
+      <c r="H35" s="38">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="I35" s="38" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A36" s="38" t="s">
+        <v>570</v>
+      </c>
+      <c r="B36" s="38">
+        <v>150</v>
+      </c>
+      <c r="C36" s="38">
+        <v>165.2</v>
+      </c>
+      <c r="D36" s="38"/>
+      <c r="E36" s="38" t="s">
+        <v>543</v>
+      </c>
+      <c r="F36" s="38" t="s">
+        <v>548</v>
+      </c>
+      <c r="G36" s="38" t="s">
+        <v>553</v>
+      </c>
+      <c r="H36" s="38">
+        <v>6.75</v>
+      </c>
+      <c r="I36" s="38" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A37" s="38" t="s">
+        <v>570</v>
+      </c>
+      <c r="B37" s="38">
+        <v>200</v>
+      </c>
+      <c r="C37" s="38">
+        <v>216.3</v>
+      </c>
+      <c r="D37" s="38"/>
+      <c r="E37" s="38" t="s">
+        <v>544</v>
+      </c>
+      <c r="F37" s="38" t="s">
+        <v>549</v>
+      </c>
+      <c r="G37" s="38" t="s">
+        <v>554</v>
+      </c>
+      <c r="H37" s="38">
+        <v>11.2</v>
+      </c>
+      <c r="I37" s="38" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A38" s="39" t="s">
+        <v>571</v>
+      </c>
+      <c r="B38" s="39">
+        <v>70</v>
+      </c>
+      <c r="C38" s="39">
+        <v>76</v>
+      </c>
+      <c r="D38" s="39">
+        <v>77</v>
+      </c>
+      <c r="E38" s="39" t="s">
+        <v>573</v>
+      </c>
+      <c r="F38" s="39" t="s">
+        <v>575</v>
+      </c>
+      <c r="G38" s="39" t="s">
+        <v>595</v>
+      </c>
+      <c r="H38" s="39">
+        <v>1.48</v>
+      </c>
+      <c r="I38" s="39" t="s">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A39" s="39" t="s">
+        <v>571</v>
+      </c>
+      <c r="B39" s="39">
+        <v>80</v>
+      </c>
+      <c r="C39" s="39">
+        <v>89</v>
+      </c>
+      <c r="D39" s="39">
+        <v>90</v>
+      </c>
+      <c r="E39" s="39" t="s">
+        <v>534</v>
+      </c>
+      <c r="F39" s="39" t="s">
+        <v>594</v>
+      </c>
+      <c r="G39" s="39" t="s">
+        <v>596</v>
+      </c>
+      <c r="H39" s="39">
+        <v>2.0099999999999998</v>
+      </c>
+      <c r="I39" s="39" t="s">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A40" s="39" t="s">
+        <v>571</v>
+      </c>
+      <c r="B40" s="39">
+        <v>100</v>
+      </c>
+      <c r="C40" s="39">
+        <v>114.3</v>
+      </c>
+      <c r="D40" s="39">
+        <v>115</v>
+      </c>
+      <c r="E40" s="39" t="s">
+        <v>534</v>
+      </c>
+      <c r="F40" s="39" t="s">
+        <v>576</v>
+      </c>
+      <c r="G40" s="39" t="s">
+        <v>597</v>
+      </c>
+      <c r="H40" s="39">
+        <v>3.55</v>
+      </c>
+      <c r="I40" s="39" t="s">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A41" s="39" t="s">
+        <v>571</v>
+      </c>
+      <c r="B41" s="39">
+        <v>100</v>
+      </c>
+      <c r="C41" s="39">
+        <v>127</v>
+      </c>
+      <c r="D41" s="39">
+        <v>128</v>
+      </c>
+      <c r="E41" s="39" t="s">
+        <v>534</v>
+      </c>
+      <c r="F41" s="39" t="s">
+        <v>577</v>
+      </c>
+      <c r="G41" s="39" t="s">
+        <v>598</v>
+      </c>
+      <c r="H41" s="39">
+        <v>3.95</v>
+      </c>
+      <c r="I41" s="39" t="s">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A42" s="39" t="s">
+        <v>571</v>
+      </c>
+      <c r="B42" s="39">
+        <v>125</v>
+      </c>
+      <c r="C42" s="39">
+        <v>133</v>
+      </c>
+      <c r="D42" s="39">
+        <v>134</v>
+      </c>
+      <c r="E42" s="39" t="s">
+        <v>534</v>
+      </c>
+      <c r="F42" s="39" t="s">
+        <v>578</v>
+      </c>
+      <c r="G42" s="39" t="s">
+        <v>599</v>
+      </c>
+      <c r="H42" s="39">
+        <v>3.44</v>
+      </c>
+      <c r="I42" s="39" t="s">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A43" s="39" t="s">
+        <v>571</v>
+      </c>
+      <c r="B43" s="39">
+        <v>150</v>
+      </c>
+      <c r="C43" s="39">
+        <v>159</v>
+      </c>
+      <c r="D43" s="39">
+        <v>160</v>
+      </c>
+      <c r="E43" s="39" t="s">
+        <v>542</v>
+      </c>
+      <c r="F43" s="39" t="s">
+        <v>579</v>
+      </c>
+      <c r="G43" s="39" t="s">
+        <v>600</v>
+      </c>
+      <c r="H43" s="39">
+        <v>6.41</v>
+      </c>
+      <c r="I43" s="39" t="s">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A44" s="39" t="s">
+        <v>571</v>
+      </c>
+      <c r="B44" s="39">
+        <v>150</v>
+      </c>
+      <c r="C44" s="39">
+        <v>168</v>
+      </c>
+      <c r="D44" s="39">
+        <v>170</v>
+      </c>
+      <c r="E44" s="39" t="s">
+        <v>542</v>
+      </c>
+      <c r="F44" s="39" t="s">
+        <v>580</v>
+      </c>
+      <c r="G44" s="39" t="s">
+        <v>601</v>
+      </c>
+      <c r="H44" s="39">
+        <v>6.8</v>
+      </c>
+      <c r="I44" s="39" t="s">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A45" s="39" t="s">
+        <v>571</v>
+      </c>
+      <c r="B45" s="39">
+        <v>175</v>
+      </c>
+      <c r="C45" s="39">
+        <v>194</v>
+      </c>
+      <c r="D45" s="39">
+        <v>196</v>
+      </c>
+      <c r="E45" s="39" t="s">
+        <v>574</v>
+      </c>
+      <c r="F45" s="39" t="s">
+        <v>581</v>
+      </c>
+      <c r="G45" s="39" t="s">
+        <v>602</v>
+      </c>
+      <c r="H45" s="39">
+        <v>9.06</v>
+      </c>
+      <c r="I45" s="39" t="s">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A46" s="39" t="s">
+        <v>615</v>
+      </c>
+      <c r="B46" s="39">
+        <v>200</v>
+      </c>
+      <c r="C46" s="39">
+        <v>219</v>
+      </c>
+      <c r="D46" s="39">
+        <v>221</v>
+      </c>
+      <c r="E46" s="39" t="s">
+        <v>574</v>
+      </c>
+      <c r="F46" s="39" t="s">
+        <v>582</v>
+      </c>
+      <c r="G46" s="39" t="s">
+        <v>603</v>
+      </c>
+      <c r="H46" s="39">
+        <v>15.34</v>
+      </c>
+      <c r="I46" s="39" t="s">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A47" s="39" t="s">
+        <v>616</v>
+      </c>
+      <c r="B47" s="39">
+        <v>250</v>
+      </c>
+      <c r="C47" s="39">
+        <v>273</v>
+      </c>
+      <c r="D47" s="39">
+        <v>275</v>
+      </c>
+      <c r="E47" s="39" t="s">
+        <v>476</v>
+      </c>
+      <c r="F47" s="39" t="s">
+        <v>583</v>
+      </c>
+      <c r="G47" s="39" t="s">
+        <v>604</v>
+      </c>
+      <c r="H47" s="39">
+        <v>20.75</v>
+      </c>
+      <c r="I47" s="39" t="s">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A48" s="39" t="s">
+        <v>616</v>
+      </c>
+      <c r="B48" s="39">
+        <v>300</v>
+      </c>
+      <c r="C48" s="39">
+        <v>325</v>
+      </c>
+      <c r="D48" s="39" t="s">
+        <v>572</v>
+      </c>
+      <c r="E48" s="39" t="s">
+        <v>476</v>
+      </c>
+      <c r="F48" s="39" t="s">
+        <v>584</v>
+      </c>
+      <c r="G48" s="39" t="s">
+        <v>605</v>
+      </c>
+      <c r="H48" s="39">
+        <v>25.45</v>
+      </c>
+      <c r="I48" s="39" t="s">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A49" s="39" t="s">
+        <v>617</v>
+      </c>
+      <c r="B49" s="39">
+        <v>350</v>
+      </c>
+      <c r="C49" s="39">
+        <v>377</v>
+      </c>
+      <c r="D49" s="39" t="s">
+        <v>572</v>
+      </c>
+      <c r="E49" s="39" t="s">
+        <v>476</v>
+      </c>
+      <c r="F49" s="39" t="s">
+        <v>585</v>
+      </c>
+      <c r="G49" s="39" t="s">
+        <v>606</v>
+      </c>
+      <c r="H49" s="39">
+        <v>29.92</v>
+      </c>
+      <c r="I49" s="39" t="s">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A50" s="39" t="s">
+        <v>618</v>
+      </c>
+      <c r="B50" s="39">
+        <v>400</v>
+      </c>
+      <c r="C50" s="39">
+        <v>426</v>
+      </c>
+      <c r="D50" s="39" t="s">
+        <v>572</v>
+      </c>
+      <c r="E50" s="39" t="s">
+        <v>476</v>
+      </c>
+      <c r="F50" s="39" t="s">
+        <v>586</v>
+      </c>
+      <c r="G50" s="39" t="s">
+        <v>607</v>
+      </c>
+      <c r="H50" s="39">
+        <v>33.96</v>
+      </c>
+      <c r="I50" s="39" t="s">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A51" s="39" t="s">
+        <v>618</v>
+      </c>
+      <c r="B51" s="39">
+        <v>450</v>
+      </c>
+      <c r="C51" s="39">
+        <v>478</v>
+      </c>
+      <c r="D51" s="39" t="s">
+        <v>572</v>
+      </c>
+      <c r="E51" s="39" t="s">
+        <v>476</v>
+      </c>
+      <c r="F51" s="39" t="s">
+        <v>587</v>
+      </c>
+      <c r="G51" s="39" t="s">
+        <v>608</v>
+      </c>
+      <c r="H51" s="39">
+        <v>38.81</v>
+      </c>
+      <c r="I51" s="39" t="s">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A52" s="39" t="s">
+        <v>618</v>
+      </c>
+      <c r="B52" s="39">
+        <v>500</v>
+      </c>
+      <c r="C52" s="39">
+        <v>530</v>
+      </c>
+      <c r="D52" s="39" t="s">
+        <v>572</v>
+      </c>
+      <c r="E52" s="39" t="s">
+        <v>476</v>
+      </c>
+      <c r="F52" s="39" t="s">
+        <v>588</v>
+      </c>
+      <c r="G52" s="39" t="s">
+        <v>609</v>
+      </c>
+      <c r="H52" s="39">
+        <v>49.4</v>
+      </c>
+      <c r="I52" s="39" t="s">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A53" s="39" t="s">
+        <v>619</v>
+      </c>
+      <c r="B53" s="39">
+        <v>600</v>
+      </c>
+      <c r="C53" s="39">
+        <v>630</v>
+      </c>
+      <c r="D53" s="39" t="s">
+        <v>572</v>
+      </c>
+      <c r="E53" s="39" t="s">
+        <v>476</v>
+      </c>
+      <c r="F53" s="39" t="s">
+        <v>589</v>
+      </c>
+      <c r="G53" s="39" t="s">
+        <v>610</v>
+      </c>
+      <c r="H53" s="39">
+        <v>84.62</v>
+      </c>
+      <c r="I53" s="39" t="s">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A54" s="39" t="s">
+        <v>620</v>
+      </c>
+      <c r="B54" s="39">
+        <v>700</v>
+      </c>
+      <c r="C54" s="39">
+        <v>720</v>
+      </c>
+      <c r="D54" s="39" t="s">
+        <v>572</v>
+      </c>
+      <c r="E54" s="39" t="s">
+        <v>476</v>
+      </c>
+      <c r="F54" s="39" t="s">
+        <v>590</v>
+      </c>
+      <c r="G54" s="39" t="s">
+        <v>611</v>
+      </c>
+      <c r="H54" s="39">
+        <v>94.21</v>
+      </c>
+      <c r="I54" s="39" t="s">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A55" s="39" t="s">
+        <v>620</v>
+      </c>
+      <c r="B55" s="39">
+        <v>800</v>
+      </c>
+      <c r="C55" s="39">
+        <v>820</v>
+      </c>
+      <c r="D55" s="39" t="s">
+        <v>572</v>
+      </c>
+      <c r="E55" s="39" t="s">
+        <v>476</v>
+      </c>
+      <c r="F55" s="39" t="s">
+        <v>591</v>
+      </c>
+      <c r="G55" s="39" t="s">
+        <v>612</v>
+      </c>
+      <c r="H55" s="39">
+        <v>115.6</v>
+      </c>
+      <c r="I55" s="39" t="s">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A56" s="39" t="s">
+        <v>620</v>
+      </c>
+      <c r="B56" s="39">
+        <v>900</v>
+      </c>
+      <c r="C56" s="39">
+        <v>920</v>
+      </c>
+      <c r="D56" s="39" t="s">
+        <v>572</v>
+      </c>
+      <c r="E56" s="39" t="s">
+        <v>476</v>
+      </c>
+      <c r="F56" s="39" t="s">
+        <v>592</v>
+      </c>
+      <c r="G56" s="39" t="s">
+        <v>613</v>
+      </c>
+      <c r="H56" s="39">
+        <v>132.1</v>
+      </c>
+      <c r="I56" s="39" t="s">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A57" s="39" t="s">
+        <v>620</v>
+      </c>
+      <c r="B57" s="39">
+        <v>1000</v>
+      </c>
+      <c r="C57" s="39">
+        <v>1020</v>
+      </c>
+      <c r="D57" s="39" t="s">
+        <v>572</v>
+      </c>
+      <c r="E57" s="39" t="s">
+        <v>476</v>
+      </c>
+      <c r="F57" s="39" t="s">
+        <v>593</v>
+      </c>
+      <c r="G57" s="39" t="s">
+        <v>614</v>
+      </c>
+      <c r="H57" s="39">
+        <v>160.1</v>
+      </c>
+      <c r="I57" s="39" t="s">
+        <v>531</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" copies="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F77E0744-C99D-426F-B660-F821079DE816}">
+  <dimension ref="A1:I89"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A69" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H89" sqref="H89"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="32" customWidth="1"/>
+    <col min="2" max="4" width="9" style="1"/>
+    <col min="5" max="5" width="15.125" style="1" customWidth="1"/>
+    <col min="6" max="6" width="9" style="1"/>
+    <col min="7" max="7" width="13.25" style="1" customWidth="1"/>
+    <col min="8" max="8" width="9" style="1"/>
+    <col min="9" max="9" width="19.125" style="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A2" s="40" t="s">
+        <v>621</v>
+      </c>
+      <c r="B2" s="39">
+        <v>108</v>
+      </c>
+      <c r="C2" s="39">
+        <v>150</v>
+      </c>
+      <c r="D2" s="39">
+        <v>510</v>
+      </c>
+      <c r="E2" s="39" t="s">
+        <v>630</v>
+      </c>
+      <c r="F2" s="39" t="s">
+        <v>639</v>
+      </c>
+      <c r="G2" s="39" t="s">
+        <v>642</v>
+      </c>
+      <c r="H2" s="39">
+        <v>20.7</v>
+      </c>
+      <c r="I2" s="39" t="s">
+        <v>645</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A3" s="40" t="s">
+        <v>622</v>
+      </c>
+      <c r="B3" s="39">
+        <v>108</v>
+      </c>
+      <c r="C3" s="39">
+        <v>150</v>
+      </c>
+      <c r="D3" s="39">
+        <v>510</v>
+      </c>
+      <c r="E3" s="39" t="s">
+        <v>631</v>
+      </c>
+      <c r="F3" s="39" t="s">
+        <v>639</v>
+      </c>
+      <c r="G3" s="39" t="s">
+        <v>642</v>
+      </c>
+      <c r="H3" s="39">
+        <v>25.9</v>
+      </c>
+      <c r="I3" s="39" t="s">
+        <v>645</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A4" s="40" t="s">
+        <v>623</v>
+      </c>
+      <c r="B4" s="39">
+        <v>108</v>
+      </c>
+      <c r="C4" s="39">
+        <v>150</v>
+      </c>
+      <c r="D4" s="39">
+        <v>510</v>
+      </c>
+      <c r="E4" s="39" t="s">
+        <v>632</v>
+      </c>
+      <c r="F4" s="39" t="s">
+        <v>639</v>
+      </c>
+      <c r="G4" s="39" t="s">
+        <v>642</v>
+      </c>
+      <c r="H4" s="39">
+        <v>30.96</v>
+      </c>
+      <c r="I4" s="39" t="s">
+        <v>645</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A5" s="40" t="s">
+        <v>624</v>
+      </c>
+      <c r="B5" s="39">
+        <v>159</v>
+      </c>
+      <c r="C5" s="39">
+        <v>200</v>
+      </c>
+      <c r="D5" s="39">
+        <v>560</v>
+      </c>
+      <c r="E5" s="39" t="s">
+        <v>633</v>
+      </c>
+      <c r="F5" s="39" t="s">
+        <v>640</v>
+      </c>
+      <c r="G5" s="39" t="s">
+        <v>643</v>
+      </c>
+      <c r="H5" s="39">
+        <v>39.409999999999997</v>
+      </c>
+      <c r="I5" s="39" t="s">
+        <v>645</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A6" s="40" t="s">
+        <v>625</v>
+      </c>
+      <c r="B6" s="39">
+        <v>159</v>
+      </c>
+      <c r="C6" s="39">
+        <v>200</v>
+      </c>
+      <c r="D6" s="39">
+        <v>560</v>
+      </c>
+      <c r="E6" s="39" t="s">
+        <v>634</v>
+      </c>
+      <c r="F6" s="39" t="s">
+        <v>640</v>
+      </c>
+      <c r="G6" s="39" t="s">
+        <v>643</v>
+      </c>
+      <c r="H6" s="39">
+        <v>54.91</v>
+      </c>
+      <c r="I6" s="39" t="s">
+        <v>645</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A7" s="40" t="s">
+        <v>626</v>
+      </c>
+      <c r="B7" s="39">
+        <v>159</v>
+      </c>
+      <c r="C7" s="39">
+        <v>200</v>
+      </c>
+      <c r="D7" s="39">
+        <v>560</v>
+      </c>
+      <c r="E7" s="39" t="s">
+        <v>635</v>
+      </c>
+      <c r="F7" s="39" t="s">
+        <v>640</v>
+      </c>
+      <c r="G7" s="39" t="s">
+        <v>643</v>
+      </c>
+      <c r="H7" s="39">
+        <v>58.31</v>
+      </c>
+      <c r="I7" s="39" t="s">
+        <v>645</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A8" s="40" t="s">
+        <v>627</v>
+      </c>
+      <c r="B8" s="39">
+        <v>219</v>
+      </c>
+      <c r="C8" s="39">
+        <v>260</v>
+      </c>
+      <c r="D8" s="39">
+        <v>620</v>
+      </c>
+      <c r="E8" s="39" t="s">
+        <v>636</v>
+      </c>
+      <c r="F8" s="39" t="s">
+        <v>641</v>
+      </c>
+      <c r="G8" s="39" t="s">
+        <v>644</v>
+      </c>
+      <c r="H8" s="39">
+        <v>68.88</v>
+      </c>
+      <c r="I8" s="39" t="s">
+        <v>645</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A9" s="40" t="s">
+        <v>628</v>
+      </c>
+      <c r="B9" s="39">
+        <v>219</v>
+      </c>
+      <c r="C9" s="39">
+        <v>260</v>
+      </c>
+      <c r="D9" s="39">
+        <v>620</v>
+      </c>
+      <c r="E9" s="39" t="s">
+        <v>637</v>
+      </c>
+      <c r="F9" s="39" t="s">
+        <v>641</v>
+      </c>
+      <c r="G9" s="39" t="s">
+        <v>644</v>
+      </c>
+      <c r="H9" s="39">
+        <v>84.58</v>
+      </c>
+      <c r="I9" s="39" t="s">
+        <v>645</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A10" s="40" t="s">
+        <v>629</v>
+      </c>
+      <c r="B10" s="39">
+        <v>219</v>
+      </c>
+      <c r="C10" s="39">
+        <v>260</v>
+      </c>
+      <c r="D10" s="39">
+        <v>620</v>
+      </c>
+      <c r="E10" s="39" t="s">
+        <v>638</v>
+      </c>
+      <c r="F10" s="39" t="s">
+        <v>641</v>
+      </c>
+      <c r="G10" s="39" t="s">
+        <v>644</v>
+      </c>
+      <c r="H10" s="39">
+        <v>100.38</v>
+      </c>
+      <c r="I10" s="39" t="s">
+        <v>645</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A11" s="29" t="s">
+        <v>646</v>
+      </c>
+      <c r="B11" s="31">
+        <v>108</v>
+      </c>
+      <c r="C11" s="1">
+        <v>180</v>
+      </c>
+      <c r="D11" s="31">
+        <v>220</v>
+      </c>
+      <c r="E11" s="31" t="s">
+        <v>658</v>
+      </c>
+      <c r="F11" s="31">
+        <v>4</v>
+      </c>
+      <c r="G11" s="31" t="s">
+        <v>655</v>
+      </c>
+      <c r="H11" s="31">
+        <v>13.84</v>
+      </c>
+      <c r="I11" s="31" t="s">
+        <v>661</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A12" s="29" t="s">
+        <v>647</v>
+      </c>
+      <c r="B12" s="31">
+        <v>108</v>
+      </c>
+      <c r="C12" s="1">
+        <v>180</v>
+      </c>
+      <c r="D12" s="31">
+        <v>220</v>
+      </c>
+      <c r="E12" s="31" t="s">
+        <v>658</v>
+      </c>
+      <c r="F12" s="31">
+        <v>4</v>
+      </c>
+      <c r="G12" s="31" t="s">
+        <v>656</v>
+      </c>
+      <c r="H12" s="31">
+        <v>19.04</v>
+      </c>
+      <c r="I12" s="31" t="s">
+        <v>661</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A13" s="29" t="s">
+        <v>648</v>
+      </c>
+      <c r="B13" s="31">
+        <v>108</v>
+      </c>
+      <c r="C13" s="1">
+        <v>180</v>
+      </c>
+      <c r="D13" s="31">
+        <v>220</v>
+      </c>
+      <c r="E13" s="31" t="s">
+        <v>658</v>
+      </c>
+      <c r="F13" s="31">
+        <v>4</v>
+      </c>
+      <c r="G13" s="31" t="s">
+        <v>657</v>
+      </c>
+      <c r="H13" s="31">
+        <v>24.1</v>
+      </c>
+      <c r="I13" s="31" t="s">
+        <v>661</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A14" s="29" t="s">
+        <v>649</v>
+      </c>
+      <c r="B14" s="31">
+        <v>159</v>
+      </c>
+      <c r="C14" s="1">
+        <v>240</v>
+      </c>
+      <c r="D14" s="31">
+        <v>285</v>
+      </c>
+      <c r="E14" s="31" t="s">
+        <v>659</v>
+      </c>
+      <c r="F14" s="31">
+        <v>5</v>
+      </c>
+      <c r="G14" s="31" t="s">
+        <v>655</v>
+      </c>
+      <c r="H14" s="31">
+        <v>26.18</v>
+      </c>
+      <c r="I14" s="31" t="s">
+        <v>661</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A15" s="29" t="s">
+        <v>650</v>
+      </c>
+      <c r="B15" s="31">
+        <v>159</v>
+      </c>
+      <c r="C15" s="1">
+        <v>240</v>
+      </c>
+      <c r="D15" s="31">
+        <v>285</v>
+      </c>
+      <c r="E15" s="31" t="s">
+        <v>659</v>
+      </c>
+      <c r="F15" s="31">
+        <v>5</v>
+      </c>
+      <c r="G15" s="31" t="s">
+        <v>656</v>
+      </c>
+      <c r="H15" s="31">
+        <v>36.67</v>
+      </c>
+      <c r="I15" s="31" t="s">
+        <v>661</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A16" s="29" t="s">
+        <v>651</v>
+      </c>
+      <c r="B16" s="31">
+        <v>159</v>
+      </c>
+      <c r="C16" s="1">
+        <v>240</v>
+      </c>
+      <c r="D16" s="31">
+        <v>285</v>
+      </c>
+      <c r="E16" s="31" t="s">
+        <v>659</v>
+      </c>
+      <c r="F16" s="31">
+        <v>5</v>
+      </c>
+      <c r="G16" s="31" t="s">
+        <v>657</v>
+      </c>
+      <c r="H16" s="31">
+        <v>46.07</v>
+      </c>
+      <c r="I16" s="31" t="s">
+        <v>661</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A17" s="29" t="s">
+        <v>652</v>
+      </c>
+      <c r="B17" s="31">
+        <v>219</v>
+      </c>
+      <c r="C17" s="1">
+        <v>295</v>
+      </c>
+      <c r="D17" s="31">
+        <v>340</v>
+      </c>
+      <c r="E17" s="31" t="s">
+        <v>660</v>
+      </c>
+      <c r="F17" s="31">
+        <v>6</v>
+      </c>
+      <c r="G17" s="31" t="s">
+        <v>655</v>
+      </c>
+      <c r="H17" s="31">
+        <v>46.65</v>
+      </c>
+      <c r="I17" s="31" t="s">
+        <v>661</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A18" s="29" t="s">
+        <v>653</v>
+      </c>
+      <c r="B18" s="31">
+        <v>219</v>
+      </c>
+      <c r="C18" s="1">
+        <v>295</v>
+      </c>
+      <c r="D18" s="31">
+        <v>340</v>
+      </c>
+      <c r="E18" s="31" t="s">
+        <v>660</v>
+      </c>
+      <c r="F18" s="31">
+        <v>6</v>
+      </c>
+      <c r="G18" s="31" t="s">
+        <v>656</v>
+      </c>
+      <c r="H18" s="31">
+        <v>62.36</v>
+      </c>
+      <c r="I18" s="31" t="s">
+        <v>661</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A19" s="29" t="s">
+        <v>654</v>
+      </c>
+      <c r="B19" s="31">
+        <v>219</v>
+      </c>
+      <c r="C19" s="1">
+        <v>295</v>
+      </c>
+      <c r="D19" s="31">
+        <v>340</v>
+      </c>
+      <c r="E19" s="31" t="s">
+        <v>660</v>
+      </c>
+      <c r="F19" s="31">
+        <v>6</v>
+      </c>
+      <c r="G19" s="31" t="s">
+        <v>657</v>
+      </c>
+      <c r="H19" s="31">
+        <v>78.150000000000006</v>
+      </c>
+      <c r="I19" s="31" t="s">
+        <v>661</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A20" s="41" t="s">
+        <v>662</v>
+      </c>
+      <c r="B20" s="42">
+        <v>108</v>
+      </c>
+      <c r="C20" s="42">
+        <v>110</v>
+      </c>
+      <c r="D20" s="42">
+        <v>180</v>
+      </c>
+      <c r="E20" s="42">
+        <v>220</v>
+      </c>
+      <c r="F20" s="42">
+        <v>4</v>
+      </c>
+      <c r="G20" s="42" t="s">
+        <v>658</v>
+      </c>
+      <c r="H20" s="42">
+        <v>6.44</v>
+      </c>
+      <c r="I20" s="42" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A21" s="41" t="s">
+        <v>663</v>
+      </c>
+      <c r="B21" s="42">
+        <v>159</v>
+      </c>
+      <c r="C21" s="42">
+        <v>161</v>
+      </c>
+      <c r="D21" s="42">
+        <v>240</v>
+      </c>
+      <c r="E21" s="42">
+        <v>285</v>
+      </c>
+      <c r="F21" s="42">
+        <v>5</v>
+      </c>
+      <c r="G21" s="42" t="s">
+        <v>659</v>
+      </c>
+      <c r="H21" s="42">
+        <v>12.5</v>
+      </c>
+      <c r="I21" s="42" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A22" s="41" t="s">
+        <v>664</v>
+      </c>
+      <c r="B22" s="42">
+        <v>219</v>
+      </c>
+      <c r="C22" s="42">
+        <v>222</v>
+      </c>
+      <c r="D22" s="42">
+        <v>295</v>
+      </c>
+      <c r="E22" s="42">
+        <v>340</v>
+      </c>
+      <c r="F22" s="42">
+        <v>6</v>
+      </c>
+      <c r="G22" s="42" t="s">
+        <v>660</v>
+      </c>
+      <c r="H22" s="42">
+        <v>22.5</v>
+      </c>
+      <c r="I22" s="42" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A23" s="43" t="s">
+        <v>665</v>
+      </c>
+      <c r="B23" s="9">
+        <v>110</v>
+      </c>
+      <c r="C23" s="9">
+        <v>180</v>
+      </c>
+      <c r="D23" s="9">
+        <v>220</v>
+      </c>
+      <c r="E23" s="9">
+        <v>156</v>
+      </c>
+      <c r="F23" s="9" t="s">
+        <v>671</v>
+      </c>
+      <c r="G23" s="9" t="s">
+        <v>677</v>
+      </c>
+      <c r="H23" s="9">
+        <v>2.5</v>
+      </c>
+      <c r="I23" s="9" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A24" s="43" t="s">
+        <v>666</v>
+      </c>
+      <c r="B24" s="9">
+        <v>161</v>
+      </c>
+      <c r="C24" s="9">
+        <v>240</v>
+      </c>
+      <c r="D24" s="9">
+        <v>285</v>
+      </c>
+      <c r="E24" s="9">
+        <v>211</v>
+      </c>
+      <c r="F24" s="9" t="s">
+        <v>672</v>
+      </c>
+      <c r="G24" s="9" t="s">
+        <v>678</v>
+      </c>
+      <c r="H24" s="9">
+        <v>4.3</v>
+      </c>
+      <c r="I24" s="9" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A25" s="43" t="s">
+        <v>667</v>
+      </c>
+      <c r="B25" s="9">
+        <v>222</v>
+      </c>
+      <c r="C25" s="9">
+        <v>295</v>
+      </c>
+      <c r="D25" s="9">
+        <v>340</v>
+      </c>
+      <c r="E25" s="9">
+        <v>266</v>
+      </c>
+      <c r="F25" s="9" t="s">
+        <v>673</v>
+      </c>
+      <c r="G25" s="9" t="s">
+        <v>679</v>
+      </c>
+      <c r="H25" s="9">
+        <v>6.1</v>
+      </c>
+      <c r="I25" s="9" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A26" s="43" t="s">
+        <v>668</v>
+      </c>
+      <c r="B26" s="9">
+        <v>109.7</v>
+      </c>
+      <c r="C26" s="9">
+        <v>180</v>
+      </c>
+      <c r="D26" s="9">
+        <v>220</v>
+      </c>
+      <c r="E26" s="9">
+        <v>156</v>
+      </c>
+      <c r="F26" s="9" t="s">
+        <v>674</v>
+      </c>
+      <c r="G26" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="H26" s="9">
+        <v>3.1</v>
+      </c>
+      <c r="I26" s="9" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A27" s="43" t="s">
+        <v>669</v>
+      </c>
+      <c r="B27" s="9">
+        <v>161.19999999999999</v>
+      </c>
+      <c r="C27" s="9">
+        <v>240</v>
+      </c>
+      <c r="D27" s="9">
+        <v>285</v>
+      </c>
+      <c r="E27" s="9">
+        <v>211</v>
+      </c>
+      <c r="F27" s="9" t="s">
+        <v>675</v>
+      </c>
+      <c r="G27" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="H27" s="9">
+        <v>5.4</v>
+      </c>
+      <c r="I27" s="9" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A28" s="43" t="s">
+        <v>670</v>
+      </c>
+      <c r="B28" s="9">
+        <v>221.4</v>
+      </c>
+      <c r="C28" s="9">
+        <v>295</v>
+      </c>
+      <c r="D28" s="9">
+        <v>340</v>
+      </c>
+      <c r="E28" s="9">
+        <v>266</v>
+      </c>
+      <c r="F28" s="9" t="s">
+        <v>676</v>
+      </c>
+      <c r="G28" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="H28" s="9">
+        <v>7.3</v>
+      </c>
+      <c r="I28" s="9" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A29" s="44" t="s">
+        <v>680</v>
+      </c>
+      <c r="B29" s="45">
+        <v>219</v>
+      </c>
+      <c r="C29" s="45">
+        <v>260</v>
+      </c>
+      <c r="D29" s="45">
+        <v>620</v>
+      </c>
+      <c r="E29" s="45">
+        <v>426</v>
+      </c>
+      <c r="F29" s="45" t="s">
+        <v>692</v>
+      </c>
+      <c r="G29" s="45" t="s">
+        <v>704</v>
+      </c>
+      <c r="H29" s="45">
+        <v>60.06</v>
+      </c>
+      <c r="I29" s="45" t="s">
+        <v>708</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A30" s="44" t="s">
+        <v>681</v>
+      </c>
+      <c r="B30" s="45">
+        <v>219</v>
+      </c>
+      <c r="C30" s="45">
+        <v>260</v>
+      </c>
+      <c r="D30" s="45">
+        <v>620</v>
+      </c>
+      <c r="E30" s="45">
+        <v>426</v>
+      </c>
+      <c r="F30" s="45" t="s">
+        <v>693</v>
+      </c>
+      <c r="G30" s="45" t="s">
+        <v>704</v>
+      </c>
+      <c r="H30" s="45">
+        <v>75.83</v>
+      </c>
+      <c r="I30" s="45" t="s">
+        <v>708</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A31" s="44" t="s">
+        <v>682</v>
+      </c>
+      <c r="B31" s="45">
+        <v>219</v>
+      </c>
+      <c r="C31" s="45">
+        <v>260</v>
+      </c>
+      <c r="D31" s="45">
+        <v>620</v>
+      </c>
+      <c r="E31" s="45">
+        <v>426</v>
+      </c>
+      <c r="F31" s="45" t="s">
+        <v>694</v>
+      </c>
+      <c r="G31" s="45" t="s">
+        <v>704</v>
+      </c>
+      <c r="H31" s="45">
+        <v>91.59</v>
+      </c>
+      <c r="I31" s="45" t="s">
+        <v>708</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A32" s="44" t="s">
+        <v>683</v>
+      </c>
+      <c r="B32" s="45">
+        <v>325</v>
+      </c>
+      <c r="C32" s="45">
+        <v>370</v>
+      </c>
+      <c r="D32" s="45">
+        <v>730</v>
+      </c>
+      <c r="E32" s="45">
+        <v>529</v>
+      </c>
+      <c r="F32" s="45" t="s">
+        <v>695</v>
+      </c>
+      <c r="G32" s="45" t="s">
+        <v>705</v>
+      </c>
+      <c r="H32" s="45">
+        <v>109.84</v>
+      </c>
+      <c r="I32" s="45" t="s">
+        <v>708</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A33" s="44" t="s">
+        <v>684</v>
+      </c>
+      <c r="B33" s="45">
+        <v>325</v>
+      </c>
+      <c r="C33" s="45">
+        <v>370</v>
+      </c>
+      <c r="D33" s="45">
+        <v>730</v>
+      </c>
+      <c r="E33" s="45">
+        <v>529</v>
+      </c>
+      <c r="F33" s="45" t="s">
+        <v>696</v>
+      </c>
+      <c r="G33" s="45" t="s">
+        <v>705</v>
+      </c>
+      <c r="H33" s="45">
+        <v>132.96</v>
+      </c>
+      <c r="I33" s="45" t="s">
+        <v>708</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A34" s="44" t="s">
+        <v>685</v>
+      </c>
+      <c r="B34" s="45">
+        <v>325</v>
+      </c>
+      <c r="C34" s="45">
+        <v>370</v>
+      </c>
+      <c r="D34" s="45">
+        <v>730</v>
+      </c>
+      <c r="E34" s="45">
+        <v>529</v>
+      </c>
+      <c r="F34" s="45" t="s">
+        <v>697</v>
+      </c>
+      <c r="G34" s="45" t="s">
+        <v>705</v>
+      </c>
+      <c r="H34" s="45">
+        <v>256.16000000000003</v>
+      </c>
+      <c r="I34" s="45" t="s">
+        <v>708</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A35" s="44" t="s">
+        <v>686</v>
+      </c>
+      <c r="B35" s="45">
+        <v>426</v>
+      </c>
+      <c r="C35" s="45">
+        <v>470</v>
+      </c>
+      <c r="D35" s="45">
+        <v>830</v>
+      </c>
+      <c r="E35" s="45">
+        <v>720</v>
+      </c>
+      <c r="F35" s="45" t="s">
+        <v>698</v>
+      </c>
+      <c r="G35" s="45" t="s">
+        <v>706</v>
+      </c>
+      <c r="H35" s="45">
+        <v>186.4</v>
+      </c>
+      <c r="I35" s="45" t="s">
+        <v>708</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A36" s="44" t="s">
+        <v>687</v>
+      </c>
+      <c r="B36" s="45">
+        <v>426</v>
+      </c>
+      <c r="C36" s="45">
+        <v>470</v>
+      </c>
+      <c r="D36" s="45">
+        <v>830</v>
+      </c>
+      <c r="E36" s="45">
+        <v>720</v>
+      </c>
+      <c r="F36" s="45" t="s">
+        <v>699</v>
+      </c>
+      <c r="G36" s="45" t="s">
+        <v>706</v>
+      </c>
+      <c r="H36" s="45">
+        <v>217.08</v>
+      </c>
+      <c r="I36" s="45" t="s">
+        <v>708</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A37" s="44" t="s">
+        <v>688</v>
+      </c>
+      <c r="B37" s="45">
+        <v>426</v>
+      </c>
+      <c r="C37" s="45">
+        <v>470</v>
+      </c>
+      <c r="D37" s="45">
+        <v>830</v>
+      </c>
+      <c r="E37" s="45">
+        <v>720</v>
+      </c>
+      <c r="F37" s="45" t="s">
+        <v>700</v>
+      </c>
+      <c r="G37" s="45" t="s">
+        <v>706</v>
+      </c>
+      <c r="H37" s="45">
+        <v>247.7</v>
+      </c>
+      <c r="I37" s="45" t="s">
+        <v>708</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A38" s="44" t="s">
+        <v>689</v>
+      </c>
+      <c r="B38" s="45">
+        <v>630</v>
+      </c>
+      <c r="C38" s="45">
+        <v>670</v>
+      </c>
+      <c r="D38" s="45">
+        <v>1030</v>
+      </c>
+      <c r="E38" s="45">
+        <v>1020</v>
+      </c>
+      <c r="F38" s="45" t="s">
+        <v>701</v>
+      </c>
+      <c r="G38" s="45" t="s">
+        <v>707</v>
+      </c>
+      <c r="H38" s="45">
+        <v>447.9</v>
+      </c>
+      <c r="I38" s="45" t="s">
+        <v>708</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A39" s="44" t="s">
+        <v>690</v>
+      </c>
+      <c r="B39" s="45">
+        <v>630</v>
+      </c>
+      <c r="C39" s="45">
+        <v>670</v>
+      </c>
+      <c r="D39" s="45">
+        <v>1030</v>
+      </c>
+      <c r="E39" s="45">
+        <v>1020</v>
+      </c>
+      <c r="F39" s="45" t="s">
+        <v>702</v>
+      </c>
+      <c r="G39" s="45" t="s">
+        <v>707</v>
+      </c>
+      <c r="H39" s="45">
+        <v>508.54</v>
+      </c>
+      <c r="I39" s="45" t="s">
+        <v>708</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A40" s="44" t="s">
+        <v>691</v>
+      </c>
+      <c r="B40" s="45">
+        <v>630</v>
+      </c>
+      <c r="C40" s="45">
+        <v>670</v>
+      </c>
+      <c r="D40" s="45">
+        <v>1030</v>
+      </c>
+      <c r="E40" s="45">
+        <v>1020</v>
+      </c>
+      <c r="F40" s="45" t="s">
+        <v>703</v>
+      </c>
+      <c r="G40" s="45" t="s">
+        <v>707</v>
+      </c>
+      <c r="H40" s="45">
+        <v>569.1</v>
+      </c>
+      <c r="I40" s="45" t="s">
+        <v>708</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A41" s="46" t="s">
+        <v>710</v>
+      </c>
+      <c r="B41" s="47">
+        <v>219</v>
+      </c>
+      <c r="C41" s="47" t="s">
+        <v>725</v>
+      </c>
+      <c r="D41" s="47" t="s">
+        <v>728</v>
+      </c>
+      <c r="E41" s="47" t="s">
+        <v>722</v>
+      </c>
+      <c r="F41" s="47">
+        <v>6</v>
+      </c>
+      <c r="G41" s="47">
+        <v>8</v>
+      </c>
+      <c r="H41" s="47">
+        <v>22.36</v>
+      </c>
+      <c r="I41" s="47" t="s">
+        <v>709</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A42" s="46" t="s">
+        <v>711</v>
+      </c>
+      <c r="B42" s="47">
+        <v>219</v>
+      </c>
+      <c r="C42" s="47" t="s">
+        <v>725</v>
+      </c>
+      <c r="D42" s="47" t="s">
+        <v>728</v>
+      </c>
+      <c r="E42" s="47" t="s">
+        <v>723</v>
+      </c>
+      <c r="F42" s="47">
+        <v>6</v>
+      </c>
+      <c r="G42" s="47">
+        <v>8</v>
+      </c>
+      <c r="H42" s="47">
+        <v>37.96</v>
+      </c>
+      <c r="I42" s="47" t="s">
+        <v>709</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A43" s="46" t="s">
+        <v>712</v>
+      </c>
+      <c r="B43" s="47">
+        <v>219</v>
+      </c>
+      <c r="C43" s="47" t="s">
+        <v>725</v>
+      </c>
+      <c r="D43" s="47" t="s">
+        <v>728</v>
+      </c>
+      <c r="E43" s="47" t="s">
+        <v>724</v>
+      </c>
+      <c r="F43" s="47">
+        <v>6</v>
+      </c>
+      <c r="G43" s="47">
+        <v>8</v>
+      </c>
+      <c r="H43" s="47">
+        <v>53.66</v>
+      </c>
+      <c r="I43" s="47" t="s">
+        <v>709</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A44" s="46" t="s">
+        <v>713</v>
+      </c>
+      <c r="B44" s="47">
+        <v>325</v>
+      </c>
+      <c r="C44" s="47" t="s">
+        <v>480</v>
+      </c>
+      <c r="D44" s="47" t="s">
+        <v>729</v>
+      </c>
+      <c r="E44" s="47" t="s">
+        <v>722</v>
+      </c>
+      <c r="F44" s="47">
+        <v>6</v>
+      </c>
+      <c r="G44" s="47">
+        <v>8</v>
+      </c>
+      <c r="H44" s="47">
+        <v>32.055</v>
+      </c>
+      <c r="I44" s="47" t="s">
+        <v>709</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A45" s="46" t="s">
+        <v>714</v>
+      </c>
+      <c r="B45" s="47">
+        <v>325</v>
+      </c>
+      <c r="C45" s="47" t="s">
+        <v>480</v>
+      </c>
+      <c r="D45" s="47" t="s">
+        <v>729</v>
+      </c>
+      <c r="E45" s="47" t="s">
+        <v>723</v>
+      </c>
+      <c r="F45" s="47">
+        <v>6</v>
+      </c>
+      <c r="G45" s="47">
+        <v>8</v>
+      </c>
+      <c r="H45" s="47">
+        <v>56.055</v>
+      </c>
+      <c r="I45" s="47" t="s">
+        <v>709</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A46" s="46" t="s">
+        <v>715</v>
+      </c>
+      <c r="B46" s="47">
+        <v>325</v>
+      </c>
+      <c r="C46" s="47" t="s">
+        <v>480</v>
+      </c>
+      <c r="D46" s="47" t="s">
+        <v>729</v>
+      </c>
+      <c r="E46" s="47" t="s">
+        <v>724</v>
+      </c>
+      <c r="F46" s="47">
+        <v>6</v>
+      </c>
+      <c r="G46" s="47">
+        <v>8</v>
+      </c>
+      <c r="H46" s="47">
+        <v>80.055000000000007</v>
+      </c>
+      <c r="I46" s="47" t="s">
+        <v>709</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A47" s="46" t="s">
+        <v>716</v>
+      </c>
+      <c r="B47" s="47">
+        <v>426</v>
+      </c>
+      <c r="C47" s="47" t="s">
+        <v>726</v>
+      </c>
+      <c r="D47" s="47" t="s">
+        <v>730</v>
+      </c>
+      <c r="E47" s="47" t="s">
+        <v>722</v>
+      </c>
+      <c r="F47" s="47">
+        <v>8</v>
+      </c>
+      <c r="G47" s="47">
+        <v>10</v>
+      </c>
+      <c r="H47" s="47">
+        <v>44.25</v>
+      </c>
+      <c r="I47" s="47" t="s">
+        <v>709</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A48" s="46" t="s">
+        <v>717</v>
+      </c>
+      <c r="B48" s="47">
+        <v>426</v>
+      </c>
+      <c r="C48" s="47" t="s">
+        <v>726</v>
+      </c>
+      <c r="D48" s="47" t="s">
+        <v>730</v>
+      </c>
+      <c r="E48" s="47" t="s">
+        <v>723</v>
+      </c>
+      <c r="F48" s="47">
+        <v>8</v>
+      </c>
+      <c r="G48" s="47">
+        <v>10</v>
+      </c>
+      <c r="H48" s="47">
+        <v>75.75</v>
+      </c>
+      <c r="I48" s="47" t="s">
+        <v>709</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A49" s="46" t="s">
+        <v>718</v>
+      </c>
+      <c r="B49" s="47">
+        <v>426</v>
+      </c>
+      <c r="C49" s="47" t="s">
+        <v>726</v>
+      </c>
+      <c r="D49" s="47" t="s">
+        <v>730</v>
+      </c>
+      <c r="E49" s="47" t="s">
+        <v>724</v>
+      </c>
+      <c r="F49" s="47">
+        <v>8</v>
+      </c>
+      <c r="G49" s="47">
+        <v>10</v>
+      </c>
+      <c r="H49" s="47">
+        <v>107.25</v>
+      </c>
+      <c r="I49" s="47" t="s">
+        <v>709</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A50" s="46" t="s">
+        <v>719</v>
+      </c>
+      <c r="B50" s="47">
+        <v>630</v>
+      </c>
+      <c r="C50" s="47" t="s">
+        <v>727</v>
+      </c>
+      <c r="D50" s="47" t="s">
+        <v>731</v>
+      </c>
+      <c r="E50" s="47" t="s">
+        <v>722</v>
+      </c>
+      <c r="F50" s="47">
+        <v>8</v>
+      </c>
+      <c r="G50" s="47">
+        <v>10</v>
+      </c>
+      <c r="H50" s="47">
+        <v>83.5</v>
+      </c>
+      <c r="I50" s="47" t="s">
+        <v>709</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A51" s="46" t="s">
+        <v>720</v>
+      </c>
+      <c r="B51" s="47">
+        <v>630</v>
+      </c>
+      <c r="C51" s="47" t="s">
+        <v>727</v>
+      </c>
+      <c r="D51" s="47" t="s">
+        <v>731</v>
+      </c>
+      <c r="E51" s="47" t="s">
+        <v>723</v>
+      </c>
+      <c r="F51" s="47">
+        <v>8</v>
+      </c>
+      <c r="G51" s="47">
+        <v>10</v>
+      </c>
+      <c r="H51" s="47">
+        <v>145.69999999999999</v>
+      </c>
+      <c r="I51" s="47" t="s">
+        <v>709</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A52" s="46" t="s">
+        <v>721</v>
+      </c>
+      <c r="B52" s="47">
+        <v>630</v>
+      </c>
+      <c r="C52" s="47" t="s">
+        <v>727</v>
+      </c>
+      <c r="D52" s="47" t="s">
+        <v>731</v>
+      </c>
+      <c r="E52" s="47" t="s">
+        <v>724</v>
+      </c>
+      <c r="F52" s="47">
+        <v>8</v>
+      </c>
+      <c r="G52" s="47">
+        <v>10</v>
+      </c>
+      <c r="H52" s="47">
+        <v>207.8</v>
+      </c>
+      <c r="I52" s="47" t="s">
+        <v>709</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A53" s="48" t="s">
+        <v>733</v>
+      </c>
+      <c r="B53" s="49">
+        <v>209</v>
+      </c>
+      <c r="C53" s="49">
+        <v>266</v>
+      </c>
+      <c r="D53" s="49">
+        <v>313</v>
+      </c>
+      <c r="E53" s="49" t="s">
+        <v>737</v>
+      </c>
+      <c r="F53" s="49">
+        <v>6</v>
+      </c>
+      <c r="G53" s="49">
+        <v>6</v>
+      </c>
+      <c r="H53" s="49">
+        <v>12.97</v>
+      </c>
+      <c r="I53" s="49" t="s">
+        <v>732</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A54" s="48" t="s">
+        <v>734</v>
+      </c>
+      <c r="B54" s="49">
+        <v>313</v>
+      </c>
+      <c r="C54" s="49">
+        <v>370</v>
+      </c>
+      <c r="D54" s="49">
+        <v>414</v>
+      </c>
+      <c r="E54" s="49" t="s">
+        <v>738</v>
+      </c>
+      <c r="F54" s="49">
+        <v>6</v>
+      </c>
+      <c r="G54" s="49">
+        <v>6</v>
+      </c>
+      <c r="H54" s="49">
+        <v>24</v>
+      </c>
+      <c r="I54" s="49" t="s">
+        <v>732</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A55" s="48" t="s">
+        <v>735</v>
+      </c>
+      <c r="B55" s="49">
+        <v>410</v>
+      </c>
+      <c r="C55" s="49">
+        <v>470</v>
+      </c>
+      <c r="D55" s="49">
+        <v>513</v>
+      </c>
+      <c r="E55" s="49" t="s">
+        <v>739</v>
+      </c>
+      <c r="F55" s="49">
+        <v>8</v>
+      </c>
+      <c r="G55" s="49">
+        <v>8</v>
+      </c>
+      <c r="H55" s="49">
+        <v>49.33</v>
+      </c>
+      <c r="I55" s="49" t="s">
+        <v>732</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A56" s="48" t="s">
+        <v>736</v>
+      </c>
+      <c r="B56" s="49">
+        <v>604</v>
+      </c>
+      <c r="C56" s="49">
+        <v>667</v>
+      </c>
+      <c r="D56" s="49">
+        <v>704</v>
+      </c>
+      <c r="E56" s="49" t="s">
+        <v>740</v>
+      </c>
+      <c r="F56" s="49">
+        <v>8</v>
+      </c>
+      <c r="G56" s="49">
+        <v>8</v>
+      </c>
+      <c r="H56" s="49">
+        <v>105.25</v>
+      </c>
+      <c r="I56" s="49" t="s">
+        <v>732</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A57" s="50" t="s">
+        <v>741</v>
+      </c>
+      <c r="B57" s="34">
+        <v>410</v>
+      </c>
+      <c r="C57" s="34">
+        <v>426</v>
+      </c>
+      <c r="D57" s="34" t="s">
+        <v>749</v>
+      </c>
+      <c r="E57" s="34" t="s">
+        <v>745</v>
+      </c>
+      <c r="F57" s="34">
+        <v>8</v>
+      </c>
+      <c r="G57" s="34" t="s">
+        <v>749</v>
+      </c>
+      <c r="H57" s="34">
+        <v>25.73</v>
+      </c>
+      <c r="I57" s="34" t="s">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A58" s="50" t="s">
+        <v>742</v>
+      </c>
+      <c r="B58" s="34">
+        <v>513</v>
+      </c>
+      <c r="C58" s="34">
+        <v>529</v>
+      </c>
+      <c r="D58" s="34" t="s">
+        <v>749</v>
+      </c>
+      <c r="E58" s="34" t="s">
+        <v>746</v>
+      </c>
+      <c r="F58" s="34">
+        <v>8</v>
+      </c>
+      <c r="G58" s="51" t="s">
+        <v>749</v>
+      </c>
+      <c r="H58" s="34">
+        <v>55.7</v>
+      </c>
+      <c r="I58" s="34" t="s">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A59" s="50" t="s">
+        <v>743</v>
+      </c>
+      <c r="B59" s="34">
+        <v>704</v>
+      </c>
+      <c r="C59" s="34">
+        <v>720</v>
+      </c>
+      <c r="D59" s="34" t="s">
+        <v>749</v>
+      </c>
+      <c r="E59" s="34" t="s">
+        <v>747</v>
+      </c>
+      <c r="F59" s="34">
+        <v>8</v>
+      </c>
+      <c r="G59" s="34" t="s">
+        <v>749</v>
+      </c>
+      <c r="H59" s="34">
+        <v>97</v>
+      </c>
+      <c r="I59" s="34" t="s">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A60" s="50" t="s">
+        <v>744</v>
+      </c>
+      <c r="B60" s="34">
+        <v>1000</v>
+      </c>
+      <c r="C60" s="34">
+        <v>1020</v>
+      </c>
+      <c r="D60" s="34" t="s">
+        <v>749</v>
+      </c>
+      <c r="E60" s="34" t="s">
+        <v>748</v>
+      </c>
+      <c r="F60" s="34">
+        <v>10</v>
+      </c>
+      <c r="G60" s="34" t="s">
+        <v>749</v>
+      </c>
+      <c r="H60" s="34">
+        <v>266.39999999999998</v>
+      </c>
+      <c r="I60" s="34" t="s">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A61" s="29" t="s">
+        <v>751</v>
+      </c>
+      <c r="B61" s="31">
+        <v>108</v>
+      </c>
+      <c r="C61" s="31">
+        <v>159</v>
+      </c>
+      <c r="D61" s="31" t="s">
+        <v>749</v>
+      </c>
+      <c r="E61" s="31" t="s">
+        <v>766</v>
+      </c>
+      <c r="F61" s="31">
+        <v>6</v>
+      </c>
+      <c r="G61" s="31" t="s">
+        <v>749</v>
+      </c>
+      <c r="H61" s="31">
+        <v>2.1</v>
+      </c>
+      <c r="I61" s="31" t="s">
+        <v>752</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A62" s="29" t="s">
+        <v>753</v>
+      </c>
+      <c r="B62" s="31">
+        <v>159</v>
+      </c>
+      <c r="C62" s="31">
+        <v>245</v>
+      </c>
+      <c r="D62" s="31" t="s">
+        <v>749</v>
+      </c>
+      <c r="E62" s="31" t="s">
+        <v>767</v>
+      </c>
+      <c r="F62" s="31">
+        <v>6</v>
+      </c>
+      <c r="G62" s="31" t="s">
+        <v>749</v>
+      </c>
+      <c r="H62" s="31">
+        <v>4.8</v>
+      </c>
+      <c r="I62" s="31" t="s">
+        <v>752</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A63" s="29" t="s">
+        <v>754</v>
+      </c>
+      <c r="B63" s="31">
+        <v>219</v>
+      </c>
+      <c r="C63" s="31">
+        <v>325</v>
+      </c>
+      <c r="D63" s="31" t="s">
+        <v>749</v>
+      </c>
+      <c r="E63" s="31" t="s">
+        <v>768</v>
+      </c>
+      <c r="F63" s="31">
+        <v>6</v>
+      </c>
+      <c r="G63" s="31" t="s">
+        <v>749</v>
+      </c>
+      <c r="H63" s="31">
+        <v>8.4700000000000006</v>
+      </c>
+      <c r="I63" s="31" t="s">
+        <v>752</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A64" s="29" t="s">
+        <v>755</v>
+      </c>
+      <c r="B64" s="31">
+        <v>273</v>
+      </c>
+      <c r="C64" s="31">
+        <v>400</v>
+      </c>
+      <c r="D64" s="31" t="s">
+        <v>749</v>
+      </c>
+      <c r="E64" s="31" t="s">
+        <v>769</v>
+      </c>
+      <c r="F64" s="31">
+        <v>6</v>
+      </c>
+      <c r="G64" s="31" t="s">
+        <v>749</v>
+      </c>
+      <c r="H64" s="31">
+        <v>13.47</v>
+      </c>
+      <c r="I64" s="31" t="s">
+        <v>752</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A65" s="29" t="s">
+        <v>756</v>
+      </c>
+      <c r="B65" s="31">
+        <v>325</v>
+      </c>
+      <c r="C65" s="31">
+        <v>478</v>
+      </c>
+      <c r="D65" s="31" t="s">
+        <v>749</v>
+      </c>
+      <c r="E65" s="31" t="s">
+        <v>770</v>
+      </c>
+      <c r="F65" s="31">
+        <v>8</v>
+      </c>
+      <c r="G65" s="31" t="s">
+        <v>749</v>
+      </c>
+      <c r="H65" s="31">
+        <v>26.1</v>
+      </c>
+      <c r="I65" s="31" t="s">
+        <v>752</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A66" s="29" t="s">
+        <v>758</v>
+      </c>
+      <c r="B66" s="31">
+        <v>426</v>
+      </c>
+      <c r="C66" s="31">
+        <v>630</v>
+      </c>
+      <c r="D66" s="31" t="s">
+        <v>749</v>
+      </c>
+      <c r="E66" s="31" t="s">
+        <v>771</v>
+      </c>
+      <c r="F66" s="31">
+        <v>8</v>
+      </c>
+      <c r="G66" s="31" t="s">
+        <v>749</v>
+      </c>
+      <c r="H66" s="31">
+        <v>52.6</v>
+      </c>
+      <c r="I66" s="31" t="s">
+        <v>752</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A67" s="29" t="s">
+        <v>757</v>
+      </c>
+      <c r="B67" s="31">
+        <v>530</v>
+      </c>
+      <c r="C67" s="31">
+        <v>770</v>
+      </c>
+      <c r="D67" s="31" t="s">
+        <v>749</v>
+      </c>
+      <c r="E67" s="31" t="s">
+        <v>777</v>
+      </c>
+      <c r="F67" s="31">
+        <v>8</v>
+      </c>
+      <c r="G67" s="31" t="s">
+        <v>749</v>
+      </c>
+      <c r="H67" s="31">
+        <v>80.8</v>
+      </c>
+      <c r="I67" s="31" t="s">
+        <v>752</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A68" s="29" t="s">
+        <v>759</v>
+      </c>
+      <c r="B68" s="31">
+        <v>630</v>
+      </c>
+      <c r="C68" s="31">
+        <v>880</v>
+      </c>
+      <c r="D68" s="31" t="s">
+        <v>749</v>
+      </c>
+      <c r="E68" s="31" t="s">
+        <v>772</v>
+      </c>
+      <c r="F68" s="31">
+        <v>10</v>
+      </c>
+      <c r="G68" s="31" t="s">
+        <v>749</v>
+      </c>
+      <c r="H68" s="31">
+        <v>111.8</v>
+      </c>
+      <c r="I68" s="31" t="s">
+        <v>752</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A69" s="29" t="s">
+        <v>760</v>
+      </c>
+      <c r="B69" s="31">
+        <v>720</v>
+      </c>
+      <c r="C69" s="31">
+        <v>980</v>
+      </c>
+      <c r="D69" s="31" t="s">
+        <v>749</v>
+      </c>
+      <c r="E69" s="31" t="s">
+        <v>773</v>
+      </c>
+      <c r="F69" s="31">
+        <v>10</v>
+      </c>
+      <c r="G69" s="31" t="s">
+        <v>749</v>
+      </c>
+      <c r="H69" s="31">
+        <v>146.5</v>
+      </c>
+      <c r="I69" s="31" t="s">
+        <v>752</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A70" s="29" t="s">
+        <v>761</v>
+      </c>
+      <c r="B70" s="31">
+        <v>820</v>
+      </c>
+      <c r="C70" s="31">
+        <v>1120</v>
+      </c>
+      <c r="D70" s="31" t="s">
+        <v>749</v>
+      </c>
+      <c r="E70" s="31" t="s">
+        <v>774</v>
+      </c>
+      <c r="F70" s="31">
+        <v>10</v>
+      </c>
+      <c r="G70" s="31" t="s">
+        <v>749</v>
+      </c>
+      <c r="H70" s="31">
+        <v>191.4</v>
+      </c>
+      <c r="I70" s="31" t="s">
+        <v>752</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A71" s="29" t="s">
+        <v>762</v>
+      </c>
+      <c r="B71" s="31">
+        <v>920</v>
+      </c>
+      <c r="C71" s="31">
+        <v>1220</v>
+      </c>
+      <c r="D71" s="31" t="s">
+        <v>749</v>
+      </c>
+      <c r="E71" s="31" t="s">
+        <v>775</v>
+      </c>
+      <c r="F71" s="31">
+        <v>10</v>
+      </c>
+      <c r="G71" s="31" t="s">
+        <v>749</v>
+      </c>
+      <c r="H71" s="31">
+        <v>283.60000000000002</v>
+      </c>
+      <c r="I71" s="31" t="s">
+        <v>752</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A72" s="29" t="s">
+        <v>763</v>
+      </c>
+      <c r="B72" s="31">
+        <v>1020</v>
+      </c>
+      <c r="C72" s="31">
+        <v>1350</v>
+      </c>
+      <c r="D72" s="31" t="s">
+        <v>749</v>
+      </c>
+      <c r="E72" s="31" t="s">
+        <v>776</v>
+      </c>
+      <c r="F72" s="31">
+        <v>10</v>
+      </c>
+      <c r="G72" s="31" t="s">
+        <v>749</v>
+      </c>
+      <c r="H72" s="31">
+        <v>349.5</v>
+      </c>
+      <c r="I72" s="31" t="s">
+        <v>752</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A73" s="29" t="s">
+        <v>764</v>
+      </c>
+      <c r="B73" s="31">
+        <v>1220</v>
+      </c>
+      <c r="C73" s="31">
+        <v>1620</v>
+      </c>
+      <c r="D73" s="31" t="s">
+        <v>749</v>
+      </c>
+      <c r="E73" s="31" t="s">
+        <v>778</v>
+      </c>
+      <c r="F73" s="31">
+        <v>12</v>
+      </c>
+      <c r="G73" s="31" t="s">
+        <v>749</v>
+      </c>
+      <c r="H73" s="31">
+        <v>562.6</v>
+      </c>
+      <c r="I73" s="31" t="s">
+        <v>752</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A74" s="29" t="s">
+        <v>765</v>
+      </c>
+      <c r="B74" s="31">
+        <v>1420</v>
+      </c>
+      <c r="C74" s="31">
+        <v>1880</v>
+      </c>
+      <c r="D74" s="31" t="s">
+        <v>749</v>
+      </c>
+      <c r="E74" s="31" t="s">
+        <v>779</v>
+      </c>
+      <c r="F74" s="31">
+        <v>12</v>
+      </c>
+      <c r="G74" s="31" t="s">
+        <v>749</v>
+      </c>
+      <c r="H74" s="31">
+        <v>772.8</v>
+      </c>
+      <c r="I74" s="31" t="s">
+        <v>752</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+      <c r="A75" s="50" t="s">
+        <v>787</v>
+      </c>
+      <c r="B75" s="52" t="s">
+        <v>784</v>
+      </c>
+      <c r="C75" s="34" t="s">
+        <v>788</v>
+      </c>
+      <c r="D75" s="34" t="s">
+        <v>790</v>
+      </c>
+      <c r="E75" s="34" t="s">
+        <v>791</v>
+      </c>
+      <c r="F75" s="34" t="s">
+        <v>795</v>
+      </c>
+      <c r="G75" s="34" t="s">
+        <v>749</v>
+      </c>
+      <c r="H75" s="34">
+        <v>6.35</v>
+      </c>
+      <c r="I75" s="34" t="s">
+        <v>780</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+      <c r="A76" s="50" t="s">
+        <v>797</v>
+      </c>
+      <c r="B76" s="52" t="s">
+        <v>785</v>
+      </c>
+      <c r="C76" s="34" t="s">
+        <v>784</v>
+      </c>
+      <c r="D76" s="34" t="s">
+        <v>791</v>
+      </c>
+      <c r="E76" s="34" t="s">
+        <v>793</v>
+      </c>
+      <c r="F76" s="34" t="s">
+        <v>796</v>
+      </c>
+      <c r="G76" s="34" t="s">
+        <v>749</v>
+      </c>
+      <c r="H76" s="34">
+        <v>10.56</v>
+      </c>
+      <c r="I76" s="34" t="s">
+        <v>780</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+      <c r="A77" s="50" t="s">
+        <v>798</v>
+      </c>
+      <c r="B77" s="52" t="s">
+        <v>786</v>
+      </c>
+      <c r="C77" s="34" t="s">
+        <v>789</v>
+      </c>
+      <c r="D77" s="34" t="s">
+        <v>792</v>
+      </c>
+      <c r="E77" s="34" t="s">
+        <v>794</v>
+      </c>
+      <c r="F77" s="34" t="s">
+        <v>796</v>
+      </c>
+      <c r="G77" s="34" t="s">
+        <v>749</v>
+      </c>
+      <c r="H77" s="34">
+        <v>12.05</v>
+      </c>
+      <c r="I77" s="34" t="s">
+        <v>780</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A78" s="53" t="s">
+        <v>799</v>
+      </c>
+      <c r="B78" s="16" t="s">
+        <v>802</v>
+      </c>
+      <c r="C78" s="16" t="s">
+        <v>805</v>
+      </c>
+      <c r="D78" s="16" t="s">
+        <v>749</v>
+      </c>
+      <c r="E78" s="16" t="s">
+        <v>749</v>
+      </c>
+      <c r="F78" s="16" t="s">
+        <v>807</v>
+      </c>
+      <c r="G78" s="16" t="s">
+        <v>749</v>
+      </c>
+      <c r="H78" s="16">
+        <v>16.02</v>
+      </c>
+      <c r="I78" s="16" t="s">
+        <v>781</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A79" s="53" t="s">
+        <v>800</v>
+      </c>
+      <c r="B79" s="16" t="s">
+        <v>803</v>
+      </c>
+      <c r="C79" s="16" t="s">
+        <v>792</v>
+      </c>
+      <c r="D79" s="16" t="s">
+        <v>749</v>
+      </c>
+      <c r="E79" s="16" t="s">
+        <v>749</v>
+      </c>
+      <c r="F79" s="16" t="s">
+        <v>808</v>
+      </c>
+      <c r="G79" s="16" t="s">
+        <v>749</v>
+      </c>
+      <c r="H79" s="16">
+        <v>19.32</v>
+      </c>
+      <c r="I79" s="16" t="s">
+        <v>781</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A80" s="53" t="s">
+        <v>801</v>
+      </c>
+      <c r="B80" s="16" t="s">
+        <v>804</v>
+      </c>
+      <c r="C80" s="16" t="s">
+        <v>806</v>
+      </c>
+      <c r="D80" s="16" t="s">
+        <v>749</v>
+      </c>
+      <c r="E80" s="16" t="s">
+        <v>749</v>
+      </c>
+      <c r="F80" s="16" t="s">
+        <v>808</v>
+      </c>
+      <c r="G80" s="16" t="s">
+        <v>749</v>
+      </c>
+      <c r="H80" s="16">
+        <v>22.92</v>
+      </c>
+      <c r="I80" s="16" t="s">
+        <v>781</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A81" s="54" t="s">
+        <v>809</v>
+      </c>
+      <c r="B81" s="55" t="s">
+        <v>812</v>
+      </c>
+      <c r="C81" s="55" t="s">
+        <v>815</v>
+      </c>
+      <c r="D81" s="55" t="s">
+        <v>749</v>
+      </c>
+      <c r="E81" s="55" t="s">
+        <v>816</v>
+      </c>
+      <c r="F81" s="55" t="s">
+        <v>749</v>
+      </c>
+      <c r="G81" s="55" t="s">
+        <v>749</v>
+      </c>
+      <c r="H81" s="55">
+        <v>47.46</v>
+      </c>
+      <c r="I81" s="55" t="s">
+        <v>782</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A82" s="54" t="s">
+        <v>810</v>
+      </c>
+      <c r="B82" s="55" t="s">
+        <v>813</v>
+      </c>
+      <c r="C82" s="55" t="s">
+        <v>812</v>
+      </c>
+      <c r="D82" s="55" t="s">
+        <v>749</v>
+      </c>
+      <c r="E82" s="55" t="s">
+        <v>817</v>
+      </c>
+      <c r="F82" s="55" t="s">
+        <v>749</v>
+      </c>
+      <c r="G82" s="55" t="s">
+        <v>749</v>
+      </c>
+      <c r="H82" s="55">
+        <v>53.2</v>
+      </c>
+      <c r="I82" s="55" t="s">
+        <v>782</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A83" s="54" t="s">
+        <v>811</v>
+      </c>
+      <c r="B83" s="55" t="s">
+        <v>814</v>
+      </c>
+      <c r="C83" s="55" t="s">
+        <v>813</v>
+      </c>
+      <c r="D83" s="55" t="s">
+        <v>749</v>
+      </c>
+      <c r="E83" s="55" t="s">
+        <v>818</v>
+      </c>
+      <c r="F83" s="55" t="s">
+        <v>749</v>
+      </c>
+      <c r="G83" s="55" t="s">
+        <v>749</v>
+      </c>
+      <c r="H83" s="55">
+        <v>55.2</v>
+      </c>
+      <c r="I83" s="55" t="s">
+        <v>782</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A84" s="56" t="s">
+        <v>819</v>
+      </c>
+      <c r="B84" s="19" t="s">
+        <v>825</v>
+      </c>
+      <c r="C84" s="19" t="s">
+        <v>831</v>
+      </c>
+      <c r="D84" s="19" t="s">
+        <v>836</v>
+      </c>
+      <c r="E84" s="19" t="s">
+        <v>749</v>
+      </c>
+      <c r="F84" s="19">
+        <v>8</v>
+      </c>
+      <c r="G84" s="19" t="s">
+        <v>749</v>
+      </c>
+      <c r="H84" s="19">
+        <v>72.22</v>
+      </c>
+      <c r="I84" s="19" t="s">
+        <v>783</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A85" s="56" t="s">
+        <v>820</v>
+      </c>
+      <c r="B85" s="19" t="s">
+        <v>826</v>
+      </c>
+      <c r="C85" s="19" t="s">
+        <v>832</v>
+      </c>
+      <c r="D85" s="19" t="s">
+        <v>837</v>
+      </c>
+      <c r="E85" s="19" t="s">
+        <v>749</v>
+      </c>
+      <c r="F85" s="19">
+        <v>8</v>
+      </c>
+      <c r="G85" s="19" t="s">
+        <v>749</v>
+      </c>
+      <c r="H85" s="19">
+        <v>81.489999999999995</v>
+      </c>
+      <c r="I85" s="19" t="s">
+        <v>783</v>
+      </c>
+    </row>
+    <row r="86" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A86" s="56" t="s">
+        <v>821</v>
+      </c>
+      <c r="B86" s="19" t="s">
+        <v>827</v>
+      </c>
+      <c r="C86" s="19" t="s">
+        <v>833</v>
+      </c>
+      <c r="D86" s="19" t="s">
+        <v>838</v>
+      </c>
+      <c r="E86" s="19" t="s">
+        <v>749</v>
+      </c>
+      <c r="F86" s="19">
+        <v>8</v>
+      </c>
+      <c r="G86" s="19" t="s">
+        <v>749</v>
+      </c>
+      <c r="H86" s="19">
+        <v>99.34</v>
+      </c>
+      <c r="I86" s="19" t="s">
+        <v>783</v>
+      </c>
+    </row>
+    <row r="87" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A87" s="56" t="s">
+        <v>822</v>
+      </c>
+      <c r="B87" s="19" t="s">
+        <v>828</v>
+      </c>
+      <c r="C87" s="19" t="s">
+        <v>834</v>
+      </c>
+      <c r="D87" s="19" t="s">
+        <v>839</v>
+      </c>
+      <c r="E87" s="19" t="s">
+        <v>749</v>
+      </c>
+      <c r="F87" s="19">
+        <v>8</v>
+      </c>
+      <c r="G87" s="19" t="s">
+        <v>749</v>
+      </c>
+      <c r="H87" s="19">
+        <v>109.25</v>
+      </c>
+      <c r="I87" s="19" t="s">
+        <v>783</v>
+      </c>
+    </row>
+    <row r="88" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A88" s="56" t="s">
+        <v>823</v>
+      </c>
+      <c r="B88" s="19" t="s">
+        <v>829</v>
+      </c>
+      <c r="C88" s="19" t="s">
+        <v>835</v>
+      </c>
+      <c r="D88" s="19" t="s">
+        <v>840</v>
+      </c>
+      <c r="E88" s="19" t="s">
+        <v>749</v>
+      </c>
+      <c r="F88" s="19">
+        <v>8</v>
+      </c>
+      <c r="G88" s="19" t="s">
+        <v>749</v>
+      </c>
+      <c r="H88" s="19">
+        <v>145.83000000000001</v>
+      </c>
+      <c r="I88" s="19" t="s">
+        <v>783</v>
+      </c>
+    </row>
+    <row r="89" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A89" s="56" t="s">
+        <v>824</v>
+      </c>
+      <c r="B89" s="19" t="s">
+        <v>830</v>
+      </c>
+      <c r="C89" s="19" t="s">
+        <v>778</v>
+      </c>
+      <c r="D89" s="19" t="s">
+        <v>841</v>
+      </c>
+      <c r="E89" s="19" t="s">
+        <v>749</v>
+      </c>
+      <c r="F89" s="19">
+        <v>8</v>
+      </c>
+      <c r="G89" s="19" t="s">
+        <v>749</v>
+      </c>
+      <c r="H89" s="19">
+        <v>168.33</v>
+      </c>
+      <c r="I89" s="19" t="s">
+        <v>783</v>
       </c>
     </row>
   </sheetData>

--- a/Base_Data/02S403.xlsx
+++ b/Base_Data/02S403.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\liuyong\Desktop\Criterion-Database\Base_Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3990AED3-2BAC-4A56-B4C8-88CA7E8B24F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5EEACCFC-44DB-46DB-805F-220355195C80}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="45" yWindow="1155" windowWidth="14175" windowHeight="10650" firstSheet="11" activeTab="12" xr2:uid="{CE243F28-D019-486D-BDD3-986A12970610}"/>
+    <workbookView xWindow="1800" yWindow="405" windowWidth="19050" windowHeight="10650" firstSheet="10" activeTab="12" xr2:uid="{CE243F28-D019-486D-BDD3-986A12970610}"/>
   </bookViews>
   <sheets>
     <sheet name="弯头" sheetId="1" r:id="rId1"/>
@@ -7676,7 +7676,7 @@
   <dimension ref="A1:I70"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A56" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="I70" sqref="I70"/>
     </sheetView>
   </sheetViews>
@@ -9733,8 +9733,8 @@
   <dimension ref="A1:I57"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A38" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I57" sqref="I57"/>
+      <pane ySplit="1" topLeftCell="A49" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E59" sqref="E59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -11403,8 +11403,8 @@
   <dimension ref="A1:I89"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A69" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H89" sqref="H89"/>
+      <pane ySplit="1" topLeftCell="A83" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G96" sqref="G96"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
